--- a/gensim/clustered_smartphone_features_iPhone5s.xlsx
+++ b/gensim/clustered_smartphone_features_iPhone5s.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
   <si>
     <t>token</t>
   </si>
@@ -52,10 +52,13 @@
     <t>new</t>
   </si>
   <si>
+    <t>touch</t>
+  </si>
+  <si>
     <t>unlocked</t>
   </si>
   <si>
-    <t>fingerprint</t>
+    <t>id</t>
   </si>
   <si>
     <t>get</t>
@@ -64,10 +67,7 @@
     <t>io</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>touch</t>
+    <t>product</t>
   </si>
   <si>
     <t>use</t>
@@ -76,157 +76,133 @@
     <t>case</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>finger</t>
+    <t>time</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>scanner</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>siri</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>locked</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>gb</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>seller</t>
   </si>
   <si>
     <t>sensor</t>
   </si>
   <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>screen</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>siri</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>battery</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>locked</t>
-  </si>
-  <si>
-    <t>feature</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>camera</t>
-  </si>
-  <si>
-    <t>want</t>
+    <t>iphones</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>gb</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>iphones</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>seller</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
     <t>still</t>
   </si>
   <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
     <t>everything</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>know</t>
   </si>
   <si>
     <t>[-2.20164 -0.3464  -1.60772  0.86905  0.11625 -0.15089  0.84981 -0.22107
@@ -274,6 +250,21 @@
   0.35459 -2.02589 -0.83637 -0.92859]</t>
   </si>
   <si>
+    <t>[-3.10605 -1.42697  0.07342  4.42399 -1.9196   0.60637  3.79313 -2.60376
+  1.27295 -1.07727  0.7717   0.08767 -0.18337  1.04201 -0.45551  0.07728
+  1.3977  -2.00186  2.09032 -0.29188  0.82729  3.29609  1.01321  0.43809
+ -0.61965 -0.69165 -1.73043  1.1423  -0.04013  0.42658  0.57067  0.34174
+  0.17016  0.73829  1.62406  0.09812 -1.72949  3.88272  1.68679  1.13529
+  1.7446   1.26668  0.01568  2.1326  -4.28475 -4.35312  1.34334 -2.23195
+ -2.79972  0.08744  1.80376 -4.20995 -2.41639 -0.99197  0.58999 -3.25055
+  0.27365 -0.13771  1.46172  0.91942 -0.05762  0.69964  0.72447 -4.92293
+ -1.22031 -1.10248 -2.87396 -1.48489  3.05487  1.59561  1.37323 -0.0348
+  0.18563 -2.68004 -1.36223 -0.27008 -0.3948   0.9848  -0.95848 -1.79016
+ -2.39744  3.88949 -2.94074 -1.44751 -1.53692  1.60391  0.07439  1.3301
+  2.99228  3.74017  1.2981  -2.36139  0.16172 -0.89092 -0.76462  0.45818
+ -0.25787  1.70722  0.36891 -0.6696 ]</t>
+  </si>
+  <si>
     <t>[-3.4626  -2.06992  1.08157 -0.13968  0.85148  1.30118 -0.47049 -2.99711
   0.14215 -0.98417  2.24797  1.41228 -0.6163   2.70965  0.5081  -0.8246
  -1.86269 -0.83729  1.05975  0.20911  0.01131 -5.83419 -1.98641  0.45802
@@ -289,19 +280,19 @@
  -2.58409 -2.56264 -0.69801  0.69036]</t>
   </si>
   <si>
-    <t>[-0.5134   0.69793  0.53294  3.14875  1.25685  2.37311  0.40844 -0.60471
-  0.25809 -1.10894 -1.58779 -0.22588  0.80027  0.63041 -0.09881  1.33687
- -1.32728  0.36352  1.26761 -0.24805  1.61405 -0.11973  0.0207   0.65688
- -0.59028 -1.23564 -0.53976 -3.95997 -0.60267 -0.84909  0.92771 -2.53005
- -0.38761 -0.22161  1.54107 -1.00901 -0.72507  3.89865  2.98176  3.2606
-  1.47439  3.28648  1.05747  2.90557 -2.50831  1.85286 -1.84278 -1.563
- -1.10628 -1.5231  -0.03655 -0.22796  0.53193 -0.64238  2.76754 -1.4073
-  3.7514   1.23696 -1.26378 -0.06296 -0.69283 -0.6473  -2.90167  1.73398
-  1.5358   0.35588 -5.41573  0.83409  0.9716  -0.37118 -1.60901  1.14104
-  0.39632 -0.81011 -0.08599 -1.13009 -0.7489   0.51963  0.90029 -2.70971
-  0.42205 -1.14568  0.22881 -0.12817 -2.36138  0.63963 -0.99404 -1.57234
-  1.25108 -0.36865  1.51849  0.15804 -0.74974 -1.8029  -1.25543  1.09847
-  4.42867  4.83597 -1.15279  2.86072]</t>
+    <t>[-1.20727  0.15081  1.9147  -2.78811  0.62722 -0.8137   0.38668 -1.62109
+ -0.43875 -0.06941 -1.99757 -0.26635 -0.82728 -0.80707 -1.10856  0.68974
+  0.24572 -0.30886  1.9396  -0.10517 -0.64799 -2.34497 -1.63448 -4.71319
+  0.8845  -1.28889  0.77926 -2.27635 -1.70701 -2.87831  1.11685 -1.16411
+  1.99398 -0.29084 -0.61566 -2.52009 -0.35952  2.20097  2.99017  0.86637
+  3.22975  0.34975  0.19503 -1.718   -0.53025  0.74472  0.40782  4.2525
+  2.69601 -0.74891  1.36517 -0.9016   0.16784 -1.3533  -2.67008 -1.14431
+  0.08487  0.88319 -1.16559  1.35895  1.65028 -1.38629 -2.46941 -1.61679
+  2.62947 -2.15237  1.71581 -0.30665  0.56373 -1.38022  0.63766  1.32717
+  0.2056   2.63145 -0.33513 -0.58087  2.49881  0.47519  0.20769  0.18837
+ -1.23666 -1.12882  1.01881 -2.73555 -0.9945   0.88701  2.95804 -1.71883
+  2.14175  1.38525 -0.57236 -1.57524 -0.52593  1.46002 -2.02186 -1.10843
+  0.55487 -1.74169 -0.91205 -3.03944]</t>
   </si>
   <si>
     <t>[ 0.23834  1.01692 -2.55164 -0.60074 -0.27073 -2.51427  1.0699  -1.93629
@@ -334,34 +325,19 @@
  -0.07919 -0.24136  0.04017 -0.1792 ]</t>
   </si>
   <si>
-    <t>[-1.20727  0.15081  1.9147  -2.78811  0.62722 -0.8137   0.38668 -1.62109
- -0.43875 -0.06941 -1.99757 -0.26635 -0.82728 -0.80707 -1.10856  0.68974
-  0.24572 -0.30886  1.9396  -0.10517 -0.64799 -2.34497 -1.63448 -4.71319
-  0.8845  -1.28889  0.77926 -2.27635 -1.70701 -2.87831  1.11685 -1.16411
-  1.99398 -0.29084 -0.61566 -2.52009 -0.35952  2.20097  2.99017  0.86637
-  3.22975  0.34975  0.19503 -1.718   -0.53025  0.74472  0.40782  4.2525
-  2.69601 -0.74891  1.36517 -0.9016   0.16784 -1.3533  -2.67008 -1.14431
-  0.08487  0.88319 -1.16559  1.35895  1.65028 -1.38629 -2.46941 -1.61679
-  2.62947 -2.15237  1.71581 -0.30665  0.56373 -1.38022  0.63766  1.32717
-  0.2056   2.63145 -0.33513 -0.58087  2.49881  0.47519  0.20769  0.18837
- -1.23666 -1.12882  1.01881 -2.73555 -0.9945   0.88701  2.95804 -1.71883
-  2.14175  1.38525 -0.57236 -1.57524 -0.52593  1.46002 -2.02186 -1.10843
-  0.55487 -1.74169 -0.91205 -3.03944]</t>
-  </si>
-  <si>
-    <t>[-3.10605 -1.42697  0.07342  4.42399 -1.9196   0.60637  3.79313 -2.60376
-  1.27295 -1.07727  0.7717   0.08767 -0.18337  1.04201 -0.45551  0.07728
-  1.3977  -2.00186  2.09032 -0.29188  0.82729  3.29609  1.01321  0.43809
- -0.61965 -0.69165 -1.73043  1.1423  -0.04013  0.42658  0.57067  0.34174
-  0.17016  0.73829  1.62406  0.09812 -1.72949  3.88272  1.68679  1.13529
-  1.7446   1.26668  0.01568  2.1326  -4.28475 -4.35312  1.34334 -2.23195
- -2.79972  0.08744  1.80376 -4.20995 -2.41639 -0.99197  0.58999 -3.25055
-  0.27365 -0.13771  1.46172  0.91942 -0.05762  0.69964  0.72447 -4.92293
- -1.22031 -1.10248 -2.87396 -1.48489  3.05487  1.59561  1.37323 -0.0348
-  0.18563 -2.68004 -1.36223 -0.27008 -0.3948   0.9848  -0.95848 -1.79016
- -2.39744  3.88949 -2.94074 -1.44751 -1.53692  1.60391  0.07439  1.3301
-  2.99228  3.74017  1.2981  -2.36139  0.16172 -0.89092 -0.76462  0.45818
- -0.25787  1.70722  0.36891 -0.6696 ]</t>
+    <t>[-0.72118 -0.54394  0.87299  0.59364 -1.7016  -0.09632 -0.00397 -0.9067
+ -0.14883  1.28349  1.9726   2.00256  1.4858   5.89409  0.19716  1.19165
+  0.01923 -2.23805  1.78453  5.09939 -0.80593  1.09726  1.54801 -0.86541
+  0.11234  3.49699  1.66578 -0.35452  3.65779  1.50201 -2.64211  0.26903
+ -2.78991  1.63215  1.63301  1.39861 -3.62557 -1.29557 -0.71453  1.05257
+ -1.63723 -1.76612  4.75439 -0.61138 -0.13068  0.25973 -1.29833 -3.14734
+  3.54116  0.5215  -4.64905 -0.68986 -0.87676 -2.03301 -1.01756  2.45431
+  4.6528   0.92301  0.71868 -0.35733  2.00873 -0.0696   0.85862  0.66842
+ -2.3709  -3.26115 -0.83315  2.35957  1.18673  1.22079  1.09032 -0.07509
+ -0.78815  1.4875  -1.49903 -3.05795 -0.44779  0.18382  3.48943 -0.13412
+  1.49526 -3.27254  0.29071 -2.50762 -2.80485  0.9618   1.09271 -0.4235
+  0.11529  0.35898 -1.61167  1.94376 -1.77166  0.31681  0.55438 -0.87777
+ -0.39762 -1.27602 -2.4549  -0.50323]</t>
   </si>
   <si>
     <t>[-0.755   -3.45269 -0.82998 -1.08235 -0.31039  1.7252   0.62287 -2.96504
@@ -394,6 +370,21 @@
   0.475    1.95629 -4.4986  -1.25651]</t>
   </si>
   <si>
+    <t>[-0.49974 -1.30123  1.70669  0.79455 -0.99551  0.42049  1.01197  1.06178
+ -1.2971   0.60085 -1.23205  0.83837  0.99146  0.6413   0.33968 -1.05763
+ -0.12141 -1.97289 -1.18592 -0.03626  1.69257  0.00147 -1.42528  1.53565
+  0.12906  1.83606 -0.40105 -2.12575  1.70749  2.46932 -1.50922 -1.10145
+ -0.98704 -0.15106  0.92042  0.46686 -0.23438  0.10769 -0.62609 -0.35633
+ -1.8789   1.68588  1.99595 -1.78776  0.57131  0.53013  2.36065 -0.07782
+  1.3408  -3.31648 -2.27144 -0.92928 -0.22991  1.16664 -2.78318  0.56233
+ -0.20984  2.95043 -0.29821  2.86677 -0.80101  0.99582  3.10616  1.96143
+ -2.52069 -4.10585  0.98687  0.80224  1.48046  0.40676 -0.68724 -2.03187
+  2.33366 -0.19302 -2.41699  1.08256 -0.79763  0.44736  1.48093 -1.3448
+  1.03227 -2.55653  2.01452  0.75602 -3.76493 -0.90157  1.01847  2.8755
+ -0.2252  -2.68651  0.95832  2.70978 -0.67619  0.35702 -0.45904 -2.72715
+  0.41693 -1.76658  2.52554  0.0979 ]</t>
+  </si>
+  <si>
     <t>[ 2.89577 -0.82071 -1.04907  2.89435 -1.27257 -2.02148 -0.15194  1.00316
  -4.66296  1.48721  1.0817   2.79139  1.17832  3.50534 -0.7854  -4.37399
  -0.33471  0.70326 -1.99002  0.94212  4.57465  4.41401  0.64831 -1.21577
@@ -409,34 +400,19 @@
   2.66236 -1.8185   1.40667 -1.30765]</t>
   </si>
   <si>
-    <t>[-0.72118 -0.54394  0.87299  0.59364 -1.7016  -0.09632 -0.00397 -0.9067
- -0.14883  1.28349  1.9726   2.00256  1.4858   5.89409  0.19716  1.19165
-  0.01923 -2.23805  1.78453  5.09939 -0.80593  1.09726  1.54801 -0.86541
-  0.11234  3.49699  1.66578 -0.35452  3.65779  1.50201 -2.64211  0.26903
- -2.78991  1.63215  1.63301  1.39861 -3.62557 -1.29557 -0.71453  1.05257
- -1.63723 -1.76612  4.75439 -0.61138 -0.13068  0.25973 -1.29833 -3.14734
-  3.54116  0.5215  -4.64905 -0.68986 -0.87676 -2.03301 -1.01756  2.45431
-  4.6528   0.92301  0.71868 -0.35733  2.00873 -0.0696   0.85862  0.66842
- -2.3709  -3.26115 -0.83315  2.35957  1.18673  1.22079  1.09032 -0.07509
- -0.78815  1.4875  -1.49903 -3.05795 -0.44779  0.18382  3.48943 -0.13412
-  1.49526 -3.27254  0.29071 -2.50762 -2.80485  0.9618   1.09271 -0.4235
-  0.11529  0.35898 -1.61167  1.94376 -1.77166  0.31681  0.55438 -0.87777
- -0.39762 -1.27602 -2.4549  -0.50323]</t>
-  </si>
-  <si>
-    <t>[ 0.61479  0.19831 -2.05689  2.94883 -0.25227  1.2961  -0.47347  0.30865
-  1.3745  -0.1394   0.30386 -1.7544  -1.30418  0.35206  0.88576  2.25635
- -0.32944  3.69114 -0.65634  1.13152 -1.6634   2.73627 -2.4395  -1.08101
- -2.03604 -0.33286  1.18724 -4.53658 -1.96533 -5.43459  1.78941 -3.31965
-  3.29058 -1.73722  4.22386 -2.54837 -4.48166  5.78932  1.93142  3.13799
- -2.0965   2.60604 -0.02708  0.25363 -4.11276 -0.30656 -0.04107 -2.58426
-  1.65817 -3.97107  0.40824 -2.97382 -2.23028  1.24084 -0.90153 -3.60775
- -3.3272  -4.76045 -1.31578 -2.88537  2.5107   0.79613  1.07088 -0.04687
-  3.32102 -1.43693 -4.32416 -4.79202  5.63314  3.5657   0.70008 -0.77175
-  2.04242 -2.71351  0.27869 -0.9291  -1.1302  -0.4371   0.9053  -1.94473
- -1.00751  0.06882  2.34556 -0.37591 -4.19456  0.65771 -2.5139  -1.82498
-  2.08436 -0.34827  1.11262  0.25218  0.31606 -2.81683 -1.57965 -0.94163
-  5.71954  4.56652 -1.41277 -0.84624]</t>
+    <t>[ 1.15252  3.8653   0.85048 -1.21998  2.03418 -4.34933 -2.63743  1.50665
+  2.99822  4.93027  0.59945 -2.51758 -0.80676 -1.22645 -2.61351  3.6015
+  1.69711 -0.47227  0.54894 -1.52976 -0.32439  1.29063 -1.32442  2.52526
+ -3.97411  2.85889  3.10835  3.05666 -2.86896 -2.56839 -0.66999  1.08836
+ -3.64528  0.9855   5.25601 -1.95834 -2.16662 -1.39804 -0.7781   1.94873
+ -4.79378 -0.81397  1.63273  0.82701 -5.24635  0.60438 -0.03303  1.56296
+ -2.22138 -0.9104  -4.07954 -1.23122  1.14742  0.98995 -3.163    1.00182
+  0.01079  3.73984 -4.47322  2.38824  1.39792 -0.44516 -0.4233  -1.20571
+ -3.99983 -0.36551 -2.7993   2.8852  -1.25742 -0.93038 -1.71807 -2.67537
+  0.98272  2.0067   2.67438  3.16109 -2.22388  2.37639  1.03211 -2.60049
+  0.87763  1.41364  1.67434 -0.9668  -0.72464  2.3344  -1.98033  1.72175
+ -0.95788 -1.75589 -0.70717  1.38782  1.98274 -2.69947  1.70831 -0.47015
+  0.62962  0.60034  0.86313 -1.15276]</t>
   </si>
   <si>
     <t>[-1.46834 -2.53404  0.5435   0.00552 -0.16469  2.35021  2.5596  -3.09858
@@ -454,51 +430,6 @@
  -0.54153  1.18088 -2.16943  1.60995]</t>
   </si>
   <si>
-    <t>[-0.77578 -1.37908  4.58943  0.77601  1.92868 -0.62211 -0.63783  0.93838
-  0.24102  0.0647  -0.66865 -1.22481  1.22996  2.284    1.48127  1.24925
- -2.2992  -0.52687  3.08781  0.45979 -1.12684  0.14348 -2.15019 -0.01624
-  0.98042 -1.97124  0.23943 -1.62067 -0.96991  1.39135  0.09604  1.57387
- -3.43726  0.12715 -1.52318  0.63028 -0.16133 -1.49148  1.75948  1.25395
-  3.38406  3.0782   2.85599  0.84399  0.44071  0.82104 -1.54453  0.76987
-  0.50688  0.14515  0.41096 -0.40358  1.31172 -0.20472  0.55125  0.6575
-  1.14443 -1.80304 -0.38468  2.35761  1.07853 -0.22776  0.44592 -0.60708
-  0.24202 -0.53342 -3.53177 -1.61912  0.99371 -0.76569 -0.7726  -1.90697
- -2.01208 -5.15091  1.95505 -3.91829 -1.10743 -0.92549  1.99325  0.7468
- -1.03578 -3.4456   0.10831 -0.06052 -3.6434  -2.52773  0.74014 -0.14693
-  1.9363   0.61778  1.25947  1.69925 -0.51634 -3.2947  -0.61047 -0.17245
- -1.27538  3.99324 -2.17741 -0.05947]</t>
-  </si>
-  <si>
-    <t>[-0.49974 -1.30123  1.70669  0.79455 -0.99551  0.42049  1.01197  1.06178
- -1.2971   0.60085 -1.23205  0.83837  0.99146  0.6413   0.33968 -1.05763
- -0.12141 -1.97289 -1.18592 -0.03626  1.69257  0.00147 -1.42528  1.53565
-  0.12906  1.83606 -0.40105 -2.12575  1.70749  2.46932 -1.50922 -1.10145
- -0.98704 -0.15106  0.92042  0.46686 -0.23438  0.10769 -0.62609 -0.35633
- -1.8789   1.68588  1.99595 -1.78776  0.57131  0.53013  2.36065 -0.07782
-  1.3408  -3.31648 -2.27144 -0.92928 -0.22991  1.16664 -2.78318  0.56233
- -0.20984  2.95043 -0.29821  2.86677 -0.80101  0.99582  3.10616  1.96143
- -2.52069 -4.10585  0.98687  0.80224  1.48046  0.40676 -0.68724 -2.03187
-  2.33366 -0.19302 -2.41699  1.08256 -0.79763  0.44736  1.48093 -1.3448
-  1.03227 -2.55653  2.01452  0.75602 -3.76493 -0.90157  1.01847  2.8755
- -0.2252  -2.68651  0.95832  2.70978 -0.67619  0.35702 -0.45904 -2.72715
-  0.41693 -1.76658  2.52554  0.0979 ]</t>
-  </si>
-  <si>
-    <t>[ 1.15252  3.8653   0.85048 -1.21998  2.03418 -4.34933 -2.63743  1.50665
-  2.99822  4.93027  0.59945 -2.51758 -0.80676 -1.22645 -2.61351  3.6015
-  1.69711 -0.47227  0.54894 -1.52976 -0.32439  1.29063 -1.32442  2.52526
- -3.97411  2.85889  3.10835  3.05666 -2.86896 -2.56839 -0.66999  1.08836
- -3.64528  0.9855   5.25601 -1.95834 -2.16662 -1.39804 -0.7781   1.94873
- -4.79378 -0.81397  1.63273  0.82701 -5.24635  0.60438 -0.03303  1.56296
- -2.22138 -0.9104  -4.07954 -1.23122  1.14742  0.98995 -3.163    1.00182
-  0.01079  3.73984 -4.47322  2.38824  1.39792 -0.44516 -0.4233  -1.20571
- -3.99983 -0.36551 -2.7993   2.8852  -1.25742 -0.93038 -1.71807 -2.67537
-  0.98272  2.0067   2.67438  3.16109 -2.22388  2.37639  1.03211 -2.60049
-  0.87763  1.41364  1.67434 -0.9668  -0.72464  2.3344  -1.98033  1.72175
- -0.95788 -1.75589 -0.70717  1.38782  1.98274 -2.69947  1.70831 -0.47015
-  0.62962  0.60034  0.86313 -1.15276]</t>
-  </si>
-  <si>
     <t>[-0.71214  0.04336 -1.74493  1.55868 -1.23915 -0.46843 -0.69617  2.49744
   0.85212  0.88385  0.63149 -1.36902 -1.59411 -0.24796  0.71111  3.67951
   5.72687 -0.5423   3.39053  1.69968 -0.97773 -1.05716  0.48372 -3.3932
@@ -514,19 +445,409 @@
   2.31184  1.76491 -2.08131 -3.12091]</t>
   </si>
   <si>
-    <t>[-0.89553  0.03998  0.88792 -0.04138 -0.60076  0.70805 -0.36142  0.0187
- -1.05803 -0.23909  0.74123 -0.44327  0.32266 -0.95598 -0.84499 -0.88059
-  0.61618  0.14834  1.62133 -0.63823  1.10534  0.44763  0.17545 -0.0843
-  0.18202  0.49132  1.31083 -0.12829 -0.78487  0.98475 -0.65113 -0.86125
- -0.58883  1.55312  0.20356  1.94679  0.62001  1.56046  1.7926   1.73277
-  0.53772  1.3279   1.85439  0.21489  0.74502 -0.59884  0.76639  0.17318
-  0.72643 -0.32056  0.1028  -0.61335 -0.09077  0.5295  -0.23387 -0.60713
- -0.33823  0.52846 -0.76522  1.05651  0.40518 -0.87062 -0.88473  0.77344
-  0.63652  0.39346 -1.28133 -0.71964  1.11803  0.79285  0.16458  1.26529
-  0.15159 -0.58816 -0.36454 -1.57096 -0.975   -0.10704  0.42966 -0.80125
- -1.33813  0.08437  0.85088 -0.50825 -0.9394  -0.9971   0.75854 -0.0121
- -0.39669  1.32919  0.14054 -2.28154 -2.09632  0.92807 -1.16465  0.64795
-  0.42846  1.26021 -1.20803 -1.30198]</t>
+    <t>[-3.53418  2.6631   0.17484 -4.58736  1.54876  1.04492  2.24336  3.08517
+  0.24483  4.32741 -4.52028  0.61761 -3.22382  4.63562  2.49086 -2.08626
+  5.26139  4.12489 -3.86915  2.66993  2.03143  1.70357 -3.29875 -0.18662
+  0.38113  1.56626  2.25929  0.6208  -0.86031 -1.96991 -2.57384 -2.02159
+  2.96965 -2.65065 -1.29702  1.14571 -0.51295 -4.05364  1.45919  0.51718
+  4.04846 -4.06269 -1.0307   0.48094  4.40001  1.78882  1.03202  3.46558
+  1.39511  0.28595 -4.20356  0.08925 -0.2406   0.69319  1.6446  -1.42899
+  2.39374  4.12893 -3.33701  0.02082  1.21074 -0.00585 -0.73207 -4.92671
+  3.49927 -1.79806  1.28077 -0.17574 -0.0359   0.78544 -1.07734  4.38973
+  2.74508  1.63462 -2.56204  3.13412 -0.04005  1.79101  2.90317  4.86711
+ -2.52712 -1.13669 -0.54877 -3.65607 -1.57397 -0.16373  2.82484 -3.20337
+  2.04088  1.91463 -0.94214 -2.48443  0.94193 -4.12373 -2.01135 -0.6354
+ -0.58661 -2.71603  0.49827  3.96038]</t>
+  </si>
+  <si>
+    <t>[-1.04809 -1.02451 -0.9555  -0.36134  0.34872  0.15982  0.43193 -1.63137
+ -0.45837  0.95553  3.45773  3.29805 -0.27596 -0.0272   1.34845  2.04288
+  0.10404 -2.16518  0.95845 -1.33422  0.44744 -1.3518   2.33615  0.27417
+ -2.70601  1.88963  3.36114 -0.82349 -0.27986 -2.5584  -6.57907 -1.65947
+  0.74317 -0.6323   2.72275 -2.14232 -0.28124  0.65361 -0.48819  0.92137
+ -3.56587  0.76405  0.01945  1.38285 -1.33927 -0.35153 -0.00274 -1.43409
+  1.92027 -1.6306  -1.21186 -2.97586 -2.47352 -1.51756 -2.63369 -0.55567
+  0.91737 -2.4376   0.5803   3.75458  1.76834  1.67472  1.08457 -1.15335
+ -1.70723 -1.10448  1.12665 -3.17947  3.51063 -0.03979  0.75154  2.29251
+ -1.38364  0.36087  1.83108  0.20874 -0.08659  0.49671  2.21473 -1.73439
+ -2.57488 -2.97486  1.01388 -0.94952  1.59314  0.40012  1.36796  0.61405
+ -0.73671 -1.51697  1.26697  0.95609 -0.99646 -1.45484 -2.9945   0.29541
+  3.38038  0.02164  0.16549  0.51798]</t>
+  </si>
+  <si>
+    <t>[-0.20611 -1.49305  0.04798  2.98969 -1.24412  1.22984  1.06601 -0.87169
+ -0.53189  1.52382  1.74425  0.91911 -2.77227 -1.20524  0.79013  3.27902
+ -0.63535 -0.79424 -0.39793  1.28337 -0.11897  0.77632 -1.4293  -0.68547
+ -2.35265 -3.61751  1.39755 -0.40109  0.12001 -1.73056  0.08706 -0.37376
+ -1.09789  0.7855   0.49355  0.28554  0.12491  1.21616  0.20439  1.40521
+ -0.79033 -1.34722 -0.21012 -0.68604 -2.33844 -1.08676  0.75268  2.99891
+  0.52732  1.19141  1.41741 -0.04101  1.40804 -0.54243 -0.46147 -0.25249
+ -0.63296  1.68786 -0.76759 -0.14014  1.20824 -2.73454  0.7203  -0.82282
+ -1.78986 -0.78449 -1.06924 -1.11784  1.61518  1.4868  -0.58318  1.58642
+  0.13877 -0.31131 -0.8177  -2.20158  1.60275 -0.66317 -1.27818 -1.01046
+  1.0104  -0.18019  0.16762 -1.41493 -0.2954   0.06811  1.38701  0.44968
+  0.49703  1.29676 -1.17395 -0.52125  0.96647  1.6222  -1.92753 -1.17328
+  3.02998  2.19902  1.21077 -1.52871]</t>
+  </si>
+  <si>
+    <t>[ 0.83696  0.41668  0.82874 -1.48735 -2.1851   1.58006 -1.63634  0.32877
+ -1.45408  0.5887  -2.44626 -1.84514  1.33608 -1.86345  0.22205 -3.24562
+  0.08134 -1.22075  1.76492  0.73211 -0.15848 -2.40573 -3.02728 -0.12802
+ -4.0107  -3.02847  1.75068  0.49056 -3.52036  1.16277 -3.45582  0.80756
+ -3.18187  0.99594  0.16426  0.12301 -2.78956  0.48615 -0.27552  0.01407
+ -1.8901  -1.74989 -0.9017   2.46186  0.57558  0.36177 -0.66928 -0.54688
+ -3.80134  0.94807  0.13741 -0.86517 -0.42782  0.97861 -3.79589  0.55555
+  0.21811  1.87308 -0.48096 -0.30718  0.46201  1.65681  0.51209  2.90407
+  0.65095 -0.06634  1.84005 -1.96936  0.62175 -1.95065 -0.63272 -2.41219
+  2.15626 -1.27064 -0.70271  1.15916  2.50572  0.99815 -0.33748 -2.81183
+  2.40905 -3.32121 -0.79125 -2.11257 -0.11574  2.65612  2.04399 -1.32723
+ -3.10777  0.61732 -3.83494 -2.67561  4.63683 -2.35744  0.00822  2.52106
+  1.69275 -0.97046  2.87824 -0.74426]</t>
+  </si>
+  <si>
+    <t>[-0.00454 -0.39787  0.98133  0.68907  0.39019  1.38053 -1.17328  0.14924
+ -0.14653  1.46012  2.98547  2.23352 -0.86477  0.73107 -0.27654  3.57146
+  0.11792 -1.94344  1.46304  2.60897  2.79749 -1.03298  1.58411 -0.9861
+ -0.49983  2.59861  3.68675  0.09617  1.42901 -2.3464  -4.86833 -0.45568
+ -0.31266  1.69748  4.04587  1.91776 -1.40776  1.48437 -0.56644 -0.24617
+  0.22781  0.24974  0.14669  1.29319  1.10057 -2.07507  1.41074 -0.30734
+  2.84337  0.36543 -1.78912 -2.54853 -1.44428 -2.05883  0.09861 -1.19592
+  1.7855   0.17689  1.41907  1.30799  2.4254   0.11591 -0.08568  0.55063
+ -3.57734 -0.35851 -1.29501 -0.77248  2.22537  1.09174  1.70705  1.92499
+  0.0704   0.8821   0.71381 -1.78405  0.21835  0.18555  0.73501 -1.65714
+ -0.52788 -2.65884  2.29285 -1.0966   0.83276  0.51948 -0.06654  0.24088
+ -1.8121  -0.28871 -1.39175 -0.75047 -0.33     1.51431  0.85306 -0.91022
+  1.94471  1.552    1.69686  0.18112]</t>
+  </si>
+  <si>
+    <t>[ 0.48118 -0.81493 -0.46859 -4.94492  1.77972  2.5748   0.96128 -2.32525
+  5.96048 -2.06136 -2.57825 -1.43801  2.53084  1.87651 -3.37292 -0.06408
+ -2.45832 -2.15589 -3.42079  3.63464 -2.38147  4.10025 -0.87298  0.56184
+  2.29127  0.75018 -3.02781 -1.10688  2.30574  3.2976   0.75693  0.56627
+ -0.79362 -3.00721 -0.22677 -2.48559  1.89377  0.98652 -3.51866  0.25884
+ -4.21268  4.34429 -2.99024  0.54584  2.14712 -3.27135 -4.17686 -3.28799
+  1.68601 -0.46827  3.72062 -4.27997  0.61955 -1.20032 -0.42102  1.45813
+  0.20464  3.07153  0.10818  0.42667  1.37796  3.89664 -5.375    2.74497
+ -1.89922  3.45785  0.3193   4.56176  2.13645  0.35825 -2.32899 -3.054
+  2.44343  3.99607  1.72765 -1.79178  0.56787  0.89919  1.96404  2.45744
+  1.87001 -0.8723  -0.51302  0.99747 -1.57853 -4.65162  0.82641  0.97283
+  0.1733   1.72954 -0.14012  1.93784 -4.53466  3.68934  1.85752 -1.41569
+ -3.20087 -1.52405  1.52433  0.21068]</t>
+  </si>
+  <si>
+    <t>[-1.17817 -2.13697  0.90986  2.24479  0.37165  2.24998 -1.35869 -0.55005
+ -0.25991 -1.05712  1.45736 -1.2093  -2.86237  2.69323  1.17658  1.54893
+ -1.29964  0.58042 -3.31101 -0.77684  0.52196  1.64118 -1.35606  2.48605
+ -4.1692   0.29893  1.33642 -3.01258  1.43175 -1.05627  1.47524 -2.12553
+ -2.34586 -2.6867   4.56555 -0.10744  0.42999  3.89552  2.386    3.15421
+ -4.21637 -0.36197 -0.55954 -0.40326  0.55236  2.99309  0.34725  2.02391
+  4.42625 -3.47167 -3.0988  -2.41593 -3.58569 -2.91617 -0.57532 -0.15334
+  3.21914 -3.99965 -0.77951  0.30603 -2.5715   1.93973 -1.73098  1.16634
+  2.24938 -2.04759 -3.5712  -2.32451  1.64147 -2.54012 -1.00634 -0.53265
+ -3.21918 -3.37901  1.39156 -3.56121 -1.78589 -0.52408  2.79931 -1.23004
+ -4.52869 -5.57989  0.45014 -0.36928 -3.87719 -2.29783 -3.38592  1.42154
+ -3.79166 -3.68814  0.58447  0.3848  -2.1081  -3.6856  -1.76339  2.79406
+  5.12694  3.1373  -2.25148 -1.03483]</t>
+  </si>
+  <si>
+    <t>[ 1.09655  2.34067  1.32868  1.05727  0.86089 -2.86375  0.47299 -0.66347
+ -0.87744  2.87015  0.45798 -0.23825 -0.01752  0.86173 -1.47973  2.04237
+  2.96411  0.95585 -2.47603 -2.6408   1.39451 -0.92017 -0.76111  1.63948
+ -0.93466  0.57934  2.98047  2.1737   4.17644 -0.15527 -3.08116  1.14879
+ -1.4295  -0.82303  0.56778 -2.23993 -2.4407   1.78838  1.50207  2.09558
+ -0.41896  0.76329 -0.71369  3.91993  0.85215  0.83029 -0.45361  2.52495
+ -0.26848  0.80904  0.79632 -1.58486 -1.48885  0.94468 -0.5334   0.40687
+  1.96206 -2.22647 -2.5074   0.95725  3.58618 -2.07549  2.19606 -2.03024
+ -2.25553 -0.83641 -0.32545  1.77606  1.73687  0.19267  0.83576  0.27923
+  3.8371  -0.27432  1.66924  1.80225 -0.6432  -1.05245  3.17311 -1.21941
+  0.14621 -1.01971  1.73821  0.83752 -2.93676  0.09947 -1.58223 -1.86928
+  1.00249 -1.7252   2.24297  1.66721 -0.83066 -0.06507 -0.0915  -1.76072
+  1.12484  2.85967  1.66154 -3.49992]</t>
+  </si>
+  <si>
+    <t>[ 0.35237 -0.06016 -0.28674 -0.91522  0.52789 -0.67809 -1.49308 -2.72134
+  0.58453 -1.7842  -1.18652  1.84392 -2.33101 -1.80709  1.5638   2.36045
+ -0.21849 -0.17436  1.0546  -4.52795  0.64274 -2.62151  0.41285 -1.65473
+ -3.4002  -1.37602 -0.12116 -0.72406  1.4613   2.07514 -2.19625  0.63834
+ -1.80995 -0.67418  0.04526 -0.43082  0.28171 -0.9725  -0.73916  1.60307
+ -1.63776  1.42572 -1.97253  1.08846 -0.76089 -2.8628   1.06328  1.11999
+ -0.11364  1.39564 -0.70346 -2.10621  0.39152  0.16692  3.54127 -3.07608
+  0.05039  1.09457 -1.66423  0.68157 -0.83625 -1.54881 -0.25192 -2.10782
+  2.40465  0.58492 -0.87321 -0.19296  0.48962 -0.76332  1.69468  0.03481
+ -1.32066  0.81828  0.65871  1.02321  2.59618 -2.0471   1.51503 -0.37721
+  1.11312  0.43203 -0.61794 -2.23753 -2.88766  0.0551   3.47239 -0.77037
+  2.28063 -0.6291   1.50004 -3.05415  0.82404  0.15244 -1.79788 -1.97772
+ -0.14785  1.36271 -0.49607  0.10365]</t>
+  </si>
+  <si>
+    <t>[ 1.57089 -1.93966 -2.27516  2.51011 -0.72716 -0.8286   2.53128 -1.39187
+ -2.08762  1.06133 -0.91645 -0.03809 -1.92127  0.56069  0.59908 -1.23027
+ -0.10992 -1.43907  0.94589 -0.21445 -0.74413  0.21054 -4.05027  0.30089
+  1.44596 -3.03206 -1.47947  1.86233 -0.16299  0.95315 -1.26631 -1.36142
+ -0.30265 -2.24456  0.94699  1.92056 -1.39068 -0.99323  1.09069  0.76711
+  1.32584  0.67096  2.21892  2.50141  0.81589  0.52307 -2.12212 -3.24347
+ -0.38801  0.00441  1.57994  1.11385  0.20892 -0.35915 -0.23901  0.58881
+  2.7337  -1.40194 -0.29206  1.01671  0.76927 -3.4068   0.19315 -0.66204
+  0.53729  0.52121 -0.74567  1.28788  1.1784   1.38385 -2.20149  0.25353
+  0.99826  0.35545  1.1647  -1.36531 -0.97098 -1.73187  1.79256 -0.05289
+ -4.20944 -1.16904  0.38744 -0.3029   0.62561  3.38801 -0.87352  0.87789
+  0.53232  1.43927  0.43226  0.29369 -1.25161 -0.55477 -1.38775  0.03524
+ -0.92723  0.13489 -3.2818  -1.87173]</t>
+  </si>
+  <si>
+    <t>[-1.09418 -2.60068 -0.00813  0.39372 -1.085    2.04315 -1.28436 -2.01263
+  0.28822 -0.24091  1.801    0.00355 -0.95042  1.36065 -1.12325  1.41625
+  2.89903 -1.99336  2.99001  1.13493  2.98319 -0.63793 -0.67571  1.19576
+  1.45683 -3.0817   3.29695  0.64297  0.59699 -0.0801  -1.85343  2.02939
+  0.01323 -0.60596  3.33065  3.47361 -0.0705   4.11682  0.33049  0.67001
+  3.0731   0.34677  0.80989 -0.51019  0.67016 -2.1553  -0.16345  0.72557
+  1.27508  0.02725 -0.10643 -0.51161  0.88787 -0.90929 -0.59624 -0.21194
+  2.56044  2.42178 -3.09072  1.85516  1.48921 -3.93113 -1.01743 -0.64062
+ -2.39537 -0.61007 -0.00579  0.72171 -1.23706  3.59624  0.01783  2.60306
+  0.43546  1.42692  1.07567 -2.43759 -0.55377 -1.25115  0.89058 -1.90504
+ -2.80393  0.49342  0.44926  0.61681  0.14753 -0.87476  0.56243  1.56896
+  1.97682  0.15062 -2.29347  0.35456 -1.09859  3.13157  1.17051 -1.60291
+  3.03631  3.53717  0.82955 -2.64471]</t>
+  </si>
+  <si>
+    <t>[-1.36606  0.6158   2.27499 -0.69345 -0.77654  0.24756 -2.04146 -0.87179
+ -2.52921 -0.00972  0.63184 -0.17082 -0.99818  0.91951 -3.00019  1.42287
+ -2.80616 -0.23491  0.57081 -0.02599  4.48355 -1.84739  1.70383  0.99878
+ -0.07412 -0.58616  0.35608 -1.10514 -0.60113 -2.21775  0.89    -1.10919
+ -1.14107 -2.64034  0.76523 -0.41959 -0.70269  2.21538  3.99493  3.14707
+ -2.4239  -0.18084  2.62481 -0.10772 -0.76825 -2.56425 -0.13819  2.08118
+  1.52373 -0.27771  0.00235 -3.63179  0.16359  0.66962  1.29658  1.8873
+ -1.71466  1.13534 -0.88067  5.78295 -1.94952 -1.4572  -1.5966   2.02537
+  1.54528  0.71882 -2.2288  -0.28444  0.09388  1.3946   3.33912  1.82769
+ -0.87332  1.15676 -3.02253  0.36632  0.00598  1.28247 -1.15963 -1.58094
+  1.42161 -0.4073  -0.39661 -2.73056 -1.52153  0.33721  2.34386  1.16534
+ -0.85381  0.12433 -0.38342 -1.6257  -2.14582  0.87362 -0.72537  0.59645
+ -4.75601 -1.53566 -1.17754 -2.94509]</t>
+  </si>
+  <si>
+    <t>[-3.18107  0.83303  3.96362 -2.19626  0.94504 -2.02837  0.75701  0.50128
+  3.55077 -0.97379  0.23346  0.15759 -2.1015   0.21691  0.70874 -1.36663
+ -1.10673 -3.82325 -2.0588   1.95211  0.36764  1.02576  2.44819 -1.49526
+ -0.34465 -1.76505  0.42668  3.82114  2.27303 -1.18355  0.30962  3.30235
+  1.32972 -5.64371 -0.65438 -2.54042  1.80838 -1.5519  -3.9894  -0.42768
+  0.21384  2.0142  -3.81367  0.37031  0.60495 -0.07556 -3.1129   3.37199
+ -2.79707 -4.01396  4.09033 -0.26675 -0.17054 -4.97684 -0.28139 -2.66416
+ -1.47846 -3.82028  0.67894 -1.7748   5.71442  1.10601 -4.91095  0.81464
+ -0.57285  4.466   -0.70631  0.97214  3.48526  2.0716  -2.70213  0.53
+  2.63344  2.80524 -4.17482  0.68289 -0.12185  0.98441  2.44934  3.00921
+ -4.66738  2.97417 -1.8827  -0.10249  0.90109 -3.90239  0.22506 -0.51759
+  0.89617  1.10111  1.41515 -1.68182 -1.67099  0.15235 -0.3899  -2.22696
+ -1.26923  2.60913  0.68373  0.46155]</t>
+  </si>
+  <si>
+    <t>[ 3.1785  -0.49359  0.79513  0.44525 -5.82661 -2.98618  1.21003 -1.80391
+ -4.10187  1.30453  3.5825  -0.67717 -0.63176 -0.00434 -0.15241 -4.35104
+  0.64948 -0.20673 -3.24941 -1.14998 -1.45469 -0.05394  0.69312  0.45191
+  1.32838  2.1324   0.24457  0.13912 -2.22766  0.94374  2.56712 -2.48693
+  1.1326   1.12047 -2.13795 -0.3849  -0.92664  0.40654  0.00181  2.15204
+  2.30263  2.19112  1.82716  3.01307 -0.27229  3.79829 -2.57618 -0.14044
+ -1.89621  0.51104 -0.08914  0.99821 -3.52733 -2.72427  2.04412  1.22566
+ -0.79448  1.58191  0.9502  -0.02601 -2.32684 -3.79398 -4.74409 -1.98185
+ -1.17174  1.76586 -0.55922 -1.00806 -1.14514 -3.58315 -1.20272 -0.71328
+  0.77424  4.31456 -1.33595 -1.0193   0.66378 -3.8501  -0.97517 -1.05267
+ -0.09972 -0.72001  0.12185  2.80695  2.12746  6.18428  2.41535 -0.62324
+ -0.55132  1.46648  1.39379 -5.30887  0.50478  2.14687 -1.01591 -0.86962
+  2.58689 -2.81116 -1.33166 -1.46512]</t>
+  </si>
+  <si>
+    <t>[-2.63448  1.58413  3.44565 -1.52609  1.52707 -4.45376 -5.24878 -0.25114
+  2.74396  3.61998  0.42074 -1.09133  1.92624 -0.33471 -1.36306  4.36785
+  0.38316 -2.36953 -1.23264 -1.92669 -0.90087  0.59827 -2.15472  3.53401
+ -4.00628  1.27771  0.77864  1.58723 -2.65129 -1.22914 -3.03459  1.40317
+ -0.48535  1.15754  2.824   -3.74502  0.33942 -2.30415 -0.10561  1.62927
+ -3.27126 -2.5744   2.60333  2.41608 -3.09095  1.07506  2.61087  0.45309
+ -3.26024 -0.65762 -2.2525   2.13317 -1.389    0.49088 -1.20549 -0.75898
+ -1.3846   3.54425 -5.05507  4.21932 -0.29505  1.51791  0.48941 -0.30259
+ -6.02002 -1.63757 -1.98706  3.48735  0.77991  0.76184 -2.53574  1.89562
+  4.40413  0.91061  4.52288  0.65134 -1.49248  2.98553  0.70103  1.30841
+  5.15473  0.81037 -1.60506  1.24245 -1.32114  3.81375 -2.28643  5.79775
+  0.53151 -1.91555 -2.11672 -0.02786  0.92117 -1.11549  2.11764  1.86004
+  2.18304  2.33413  3.7194   0.32544]</t>
+  </si>
+  <si>
+    <t>[-3.06724 -3.56221 -0.84087 -1.31773  0.06954  0.07905  1.46616  0.56053
+ -0.37846  1.01906  4.99965  2.60749 -0.88386  0.51644  1.19294  0.56238
+ -0.12319  1.28859  0.93866 -2.06728  6.00783  1.58996  1.17673  0.53945
+  1.60787  0.37447 -0.76626  1.64037 -1.1823  -1.30605  1.6397   0.29116
+ -2.47473  0.10516  2.72572  0.00586 -1.12194  2.83809  4.59683  1.68131
+  0.61792 -0.04528  0.57642 -0.22415 -0.41992 -3.36156 -0.53263  0.33424
+  1.16635 -3.00477  0.92747 -1.05551  3.84381 -1.14238 -1.83824  0.7065
+  2.9841  -2.13265 -1.86533  1.23239 -2.06683 -0.85389 -2.37537 -0.33141
+ -0.42004 -1.77369  3.10048 -2.33727  0.17261 -0.02972 -1.60758  2.03814
+ -3.76114  0.69957  0.78563 -2.30574 -0.60359 -2.80303  2.72424 -1.75229
+ -1.9061  -0.57815 -1.42347 -0.3468  -0.89322 -2.14536  1.17877  1.82075
+ -0.72962 -1.07748  2.21096 -1.0358  -0.40885  1.9341  -0.955    2.81305
+  3.53516  4.3685  -0.86245 -1.76359]</t>
+  </si>
+  <si>
+    <t>[ 0.1599  -2.33025  1.81971  0.94952 -3.42161 -0.32025 -1.46066  0.56326
+ -0.12248 -0.31898  1.29547 -1.45611 -0.29478  1.60747  0.85857 -3.3261
+ -1.15555 -4.3794   1.03807  1.06946 -3.84233  0.05448  3.01104 -0.13686
+  2.32242 -0.56945  1.54102  2.35757  0.16463  1.92047  0.55976 -4.06334
+  0.05148 -3.22821  0.55749 -2.36014  0.82231  3.81896 -1.67881  0.51432
+  2.35288  3.6428  -0.07054  1.09001 -1.27447  4.04865 -1.91479 -0.08817
+ -1.08194  1.01304  3.65966  1.47904  0.49857 -1.4601  -1.68581 -0.86885
+ -0.92492 -2.88771  0.83005  2.13239  0.38099  2.4094  -1.55322  1.02656
+  0.38765  2.99634 -0.93561  0.85439 -2.16355 -3.27533 -2.91535 -0.4215
+  4.2301   1.34292 -1.2562   2.2569   2.05811 -4.66484 -0.83049 -0.5967
+  0.31773  1.57997  1.81258 -0.30273 -0.29451  1.18748 -1.32168 -0.12362
+ -0.2383   0.07944  5.31902  1.14844 -0.11998 -2.44893  1.70396 -0.2946
+  0.13153 -0.08084  0.66607  1.16306]</t>
+  </si>
+  <si>
+    <t>[ 0.25327 -0.02275  3.41679 -0.70489  2.44901  0.80468  0.91914  0.05872
+  2.3113   3.11072  0.08947  0.85744 -0.34107  1.54449  0.52894  2.62364
+ -0.058   -3.09247  2.64901  0.61015  0.54226  1.16398 -1.24338  0.65672
+  1.24191 -1.44949  1.50212  2.8999   2.3422   0.52444 -5.33655  2.57343
+  0.1199  -2.29083  5.5814   0.54141 -2.20116  1.15414 -2.02056  1.20959
+  0.31736  2.06468 -0.1046  -0.18174  1.94647 -0.19702 -1.00689 -3.32187
+  1.56462  0.53837 -1.37127 -0.17326 -1.97013  1.78447 -2.46246  1.73295
+  3.92898  0.2527  -3.38047  4.08764 -1.42717 -1.98785  4.03664  1.63884
+ -2.107   -3.25037 -3.21857  2.67955 -0.16524  2.40218 -3.04445  0.64253
+  1.20483  2.73298  0.13242 -1.11816 -1.2227  -1.41997  2.32361 -1.06589
+ -0.35504 -2.30212  2.85733  3.00903 -3.43812  0.17802 -2.05959  0.85488
+  2.57243 -2.2389   0.8285   2.72789 -3.49041 -0.05108  2.93039 -0.13044
+  0.56061  2.48544 -0.10733 -4.03355]</t>
+  </si>
+  <si>
+    <t>[-0.70488 -2.96473 -2.09724  1.50462 -1.62011  1.04949 -1.8462  -0.05857
+ -0.56659 -1.89065  3.60867 -2.70158  0.70833 -0.60011 -0.89182 -2.54453
+ -0.75383 -4.45827 -1.90213 -0.55331 -3.74488 -0.38491 -0.77828  2.17785
+  2.78703  0.97977  0.37597 -3.13949 -2.74594  1.0263   0.31098 -0.60355
+ -0.43251 -1.44101 -1.97532 -0.20873 -0.56287  1.97987 -1.59438  0.91412
+  1.5536  -0.25223  1.40775  1.65648  0.70689  1.99908 -3.79507  0.7545
+ -2.02769  0.48092  0.08287 -1.63331 -0.95309  0.86392 -0.7546   1.26594
+ -2.05018 -0.08319  2.25928  2.75893 -0.85864 -1.60998 -2.5597   2.52857
+  0.49437  3.02642  1.09857 -0.98005 -1.29552 -1.6268   0.21462 -0.63445
+  1.80743 -0.65026 -1.6969   0.22631  0.71484 -3.95522  1.28808  1.13329
+ -2.26253  2.46099  0.14709  4.21209  2.5084   1.99539  2.23696 -0.67442
+  1.99093  1.75003  3.17074  1.03979  1.06491 -1.10828  0.14289 -0.60667
+ -1.65901  0.13413  1.25594  0.41133]</t>
+  </si>
+  <si>
+    <t>[ 3.83091 -3.13202  0.45596  1.58889 -0.16087 -0.47286 -0.38653 -2.98068
+ -5.70809 -1.34905  0.2343   1.18817  3.98086  2.31412 -1.16593 -4.61187
+  2.46861  1.52375  0.03367 -4.5425   2.90908 -3.22094 -0.77265 -0.20789
+  0.39992  3.20947 -0.57242  1.51649 -2.44231  0.96456  2.75022 -1.40737
+ -3.55947 -0.79665 -2.13477  1.24483 -3.83654 -1.87211 -1.65597  0.91298
+  1.2055   0.24905 -5.10753  2.7251   2.25332  3.65025 -3.61984  1.23626
+ -0.63481  3.82444 -3.7592  -2.3554  -1.37673  2.25462  2.88679 -0.86238
+ -2.54393  3.59668  2.11555  0.98989 -1.49682 -2.41574 -6.05065 -1.00283
+ -3.50386  2.39885 -2.27179  0.32571  1.83009  0.36131 -2.10719 -1.65044
+ -3.00908  5.5752  -4.50877  1.29001 -0.1496   0.04026 -1.44901  0.11657
+ -0.09354 -0.30706 -1.11496  0.59858 -1.86107  3.363    1.63197 -1.75601
+  0.05671 -1.81106  0.2462  -5.7028  -2.32576 -0.11925  1.40886 -0.28581
+  5.71891  0.11936  1.71036 -2.88053]</t>
+  </si>
+  <si>
+    <t>[ 2.33992 -1.30052  0.34916  1.65741 -0.77419 -1.8826  -0.18792 -1.1681
+ -3.59883  0.41624  2.51522 -1.37422  0.2182   0.07832  0.21104 -2.74283
+  0.90865 -0.35351 -0.30901 -0.17363 -1.25039 -1.87975  0.11901  2.16704
+  0.81361  1.65409  0.12241 -1.24845 -1.23571  0.6263   2.05181  0.84246
+  0.37795 -2.85325 -0.50809  0.70281 -0.80997  1.51973  0.88843  0.40026
+  3.26324  1.16452 -0.01957  1.82305 -1.7183   3.04923 -2.02214 -1.53872
+ -0.8465   3.0408  -0.20928 -0.54489 -3.44315 -4.15689  0.58808  1.02541
+ -0.11958  0.48947 -0.03136  1.59867 -3.36449 -2.62629 -4.38675 -1.32201
+ -0.13297  2.00819 -0.46845 -0.24054 -1.56435 -1.41844  0.13749 -1.61253
+ -0.51264  3.46712 -2.13083 -1.66766 -0.53491 -5.03102  0.53345  2.06524
+  2.95115 -0.069   -0.00287  2.2484   1.88839  3.15863  1.97391 -1.06608
+ -0.55132  2.16336  1.2375  -3.20581  1.09298  1.89953  2.00964  0.63287
+  0.23993 -0.46214  0.94905 -1.62312]</t>
+  </si>
+  <si>
+    <t>[ 1.37429 -0.55116  0.62202  1.85815 -1.65299  2.01112 -0.0548  -1.40692
+  2.48587 -1.22408 -0.22234  0.40722  1.36653  1.91019 -3.54045 -0.6101
+ -2.3743  -5.60361  0.49053  0.61766  0.54931  0.1609   2.6225  -0.43713
+  1.8547  -1.36519 -0.30995  1.4748   1.98446  1.92458 -0.07251  2.15161
+ -0.47852 -3.76425 -0.55657 -1.99071 -1.9742   1.20442 -3.43936 -2.85115
+ -0.51036  2.31523  0.98595 -0.65896  1.87565  1.82494 -4.1494  -2.66364
+ -1.72766  0.26741  3.6953   0.18229  0.89489 -0.31941 -0.45555 -0.24171
+  0.48358  0.45501 -1.78214  0.12844  0.49016  1.58295  0.18237  3.46423
+ -1.50241  2.11515 -1.08531  0.19839 -0.59651 -0.22582 -0.97329  0.24185
+ -0.04824  3.08959  1.47042 -1.40297  0.67873 -3.88556 -0.8476  -0.18459
+ -0.97301 -1.26947 -2.63274 -0.7613  -2.14297 -1.33234 -2.60642  1.27597
+  0.07677  0.54726  0.96962  0.62388 -0.83816  0.75133  1.51612 -0.12135
+ -1.24143  0.99863 -0.87647 -1.7748 ]</t>
+  </si>
+  <si>
+    <t>[ 3.45207  0.43128  2.50326 -0.23421 -3.9449  -1.50217  1.56002 -3.6048
+ -2.90088  3.39111  2.78192 -0.069    2.42608  0.72659 -0.70711 -3.23243
+ -0.686    0.55231 -2.7347  -0.96583 -0.58996 -0.23018  1.15944  1.1608
+ -0.11097  1.02839 -1.22835  1.428   -0.33589  0.92323  2.23271 -2.67507
+  2.90379 -1.2803  -1.56717 -1.28631 -1.50426 -0.35881  0.42487 -1.38658
+  2.91116  1.74931  1.04902  0.22563 -1.54701  3.25238 -1.46327  0.03034
+  0.62532  0.61402 -1.82127  3.04834 -2.28585 -2.2246   2.17918 -0.29619
+ -0.61842  1.34596  2.36555 -0.53664 -0.34501 -4.01154 -4.6229  -2.61737
+ -0.10237  0.49365  0.58149 -1.86892 -2.58882 -2.73581  0.33891 -1.35498
+ -0.21971  4.24729 -2.20074 -1.93688  1.68195 -3.42181 -0.7661  -0.34237
+  1.60985 -1.03798 -1.17894  2.26293  1.56803  4.33487  3.13634 -1.28965
+ -2.96199 -1.42383  2.49695 -4.84968  0.70174 -0.18388  0.71144 -0.29068
+  3.45927 -0.15892 -3.23185 -0.04771]</t>
+  </si>
+  <si>
+    <t>[ 3.63863  1.27335 -0.62261  0.45305 -4.81467  1.57064  0.14486 -6.85635
+ -0.7272   4.23394  5.29857 -0.85469  0.80877  0.61164 -1.88593  0.36024
+ -0.62066  0.97558 -2.61602 -0.89937 -0.725    1.06395  3.09315 -1.51647
+  3.94052  1.42738  2.64871  1.5351   0.59955  2.98949 -1.28966 -1.31963
+  4.00729  2.67016 -0.03459 -2.40777  1.15521  0.2419   3.20932  1.4857
+  1.59471  2.00523  2.09609 -0.34141  0.83129  2.03674 -0.70244  2.92526
+ -0.97254 -1.74402  1.92205  1.01471 -4.76154 -2.28411 -1.29813  0.6873
+ -1.04513  2.28019  0.61019 -1.39042  0.13158 -2.10723 -2.06524 -3.16723
+ -1.10882 -3.24916  0.26546 -1.51868 -2.16953 -2.17416 -1.28382  0.71268
+  3.28653 -1.97604 -3.75969 -0.77879  3.39096 -2.94813 -2.00069 -6.80218
+  2.92417 -0.8932  -2.26929  1.55317  2.00038  0.96164  2.38913 -0.60834
+ -2.3588  -2.63757  0.15568 -5.50176 -0.00613 -3.26987 -1.30362  0.59731
+  2.30397  1.08178 -5.83041  0.59409]</t>
+  </si>
+  <si>
+    <t>[-3.92958 -0.21128 -0.23931  4.65345  0.07339  0.2344   2.00875  0.35477
+ -0.96518 -1.56202  4.00444 -1.28872  1.38732  0.89504 -2.56466  3.21974
+ -2.34582  0.53223 -0.82348  0.32464  2.34121 -2.18406 -1.4913   2.67874
+ -0.86364 -2.9585   1.63196  0.80263 -0.08127 -0.62923  1.47035 -1.96044
+ -0.61092 -1.88739  1.97834  2.89409 -1.2181   1.97291  0.1603   1.12755
+ -1.73448  2.50214 -1.64303 -1.08252  1.08822 -1.468    0.69383 -2.55865
+  1.96685  2.30687  0.58247 -2.75481 -0.53964 -3.44636  0.55844 -0.80441
+ -0.66637  0.84468 -2.79688  1.77799 -0.90065 -3.06866 -1.90508 -0.85412
+ -1.8827   0.69545 -1.96155 -0.34126 -0.77398  2.38404  0.04716  0.93696
+ -0.06614 -1.40448 -0.43221  0.12117  0.94142  0.72723 -0.7521  -0.91649
+  3.96846  1.01056 -0.11873 -1.52588 -0.91848 -1.39147  3.03776  0.4546
+  0.04945  1.4349  -1.5897  -2.61867  1.21766  2.58187 -2.04216 -0.12067
+ -2.59705 -0.05201  2.71418  0.07657]</t>
+  </si>
+  <si>
+    <t>[ 2.72143  0.07365  1.17294  1.31503  0.73744  4.08644  1.04164 -5.43645
+ -1.11019  4.4063   2.26541 -0.18366 -0.74566  3.43312 -1.31572 -1.12129
+  2.09211 -1.18751 -3.73398 -0.724   -0.00697 -0.3827   3.86003  2.06388
+  0.43684 -1.44522  0.8023   1.67789  0.89885 -2.54477 -1.534   -4.4313
+  2.65268 -4.53588 -5.37975 -2.11103 -3.49068 -1.65379  3.41222 -2.14259
+  1.20449  2.40441  1.88234 -0.5167  -1.4409   0.14017  1.58523  0.80218
+ -1.27298 -1.2976   2.65604  1.32926  0.53751  0.379   -0.35082 -3.56697
+  0.7467   1.37883 -1.64134  1.21439 -0.33425 -2.14415  0.73081  1.27556
+  1.84082 -2.29176  2.30895 -4.00928 -3.29354  4.83292 -0.3583  -2.90335
+  2.1143   1.18563 -0.68955 -3.52397  0.04629  1.3024   6.16757 -2.89969
+  3.62018 -1.47657 -1.33569  1.43376 -0.46471 -4.17526 -2.00976  1.80689
+ -1.22817  0.35047  1.25848 -0.22182 -0.53785 -2.04663  1.4171  -2.23866
+ -1.75781  1.60233 -3.0631   0.84717]</t>
+  </si>
+  <si>
+    <t>[-0.15753  1.82932  1.86624 -0.80551 -2.11064  1.34585 -0.16384 -0.56825
+  0.58546 -0.5302   1.50878 -1.16368  1.92073  5.71289  3.32515 -1.05213
+  0.00726 -0.66152  3.68039  3.98861 -1.92177  3.81632  0.69579 -1.3852
+ -3.24297 -1.56667 -0.32009 -3.1472   1.51712  2.04793  0.12844 -0.86737
+ -0.69514  2.6162  -1.18003  0.18309  0.50747 -2.07491 -2.00875 -0.33929
+ -2.03126 -3.75113  2.38922  0.099   -0.13881 -2.25229 -4.38592 -1.09608
+  0.22508  2.37952 -2.63988 -1.51735 -1.79619 -1.50261  0.2811   2.84134
+  3.34731  3.32448 -4.38394  1.01704  3.71164  1.56819  0.4472   0.0768
+ -2.71808 -1.70233  1.55748  2.69524  2.49385 -0.51798  0.95101 -2.38215
+ -0.97365  0.01749 -0.17106 -0.4496   1.49271  2.48687  6.11633  2.0242
+  2.96195 -2.3126   2.93223  0.5634  -3.35698 -1.31934  0.32341  0.46633
+ -0.80837 -0.04246 -1.74903  2.64983  0.04328  0.20699  3.49351 -0.62197
+  1.92967 -3.43705 -1.15571 -1.86398]</t>
   </si>
   <si>
     <t>[-2.64182 -4.81824 -0.41217  2.49952  1.30838  3.83187 -1.1387   0.3461
@@ -544,274 +865,79 @@
   7.51869  4.39002 -0.7012   2.7614 ]</t>
   </si>
   <si>
-    <t>[ 0.62118  1.44102  2.08167  0.59582 -0.66692  0.44662 -0.25553  2.19243
- -1.47435 -1.31604  0.71413  0.13089  1.71837  0.45217  1.51045  0.65583
- -1.47095  1.74313 -0.18493 -2.17711  0.87462 -0.8354  -1.1213  -0.26441
-  2.69412  0.68109 -1.84678 -0.86321 -0.53564  0.78226  0.5465  -1.02977
- -0.14381 -1.67918 -2.31614  0.62943  0.44072  0.49623  1.71694  0.49481
-  1.87801  1.89342  1.11271 -1.34827 -1.54649  0.63923  0.71664  0.29612
- -0.22377 -0.9391  -1.91982 -0.45483 -0.74704  1.24277 -1.67642  0.60293
- -2.06945 -2.15369 -0.1984   0.98083  1.42621 -0.30273  0.07077 -0.06035
- -1.14296  1.47806 -0.59813  0.6861  -1.00441 -2.24149  0.4355   0.03626
-  0.93869 -0.63709 -0.51035  0.38293  0.82845 -0.19962  1.94717  0.7186
- -0.8169  -1.95166  0.95163 -0.26731 -0.84957  0.71068  1.60341 -0.64198
-  0.72428 -0.84611 -0.41551  1.5259  -0.147    1.79645  2.24161 -1.33426
- -2.37708 -1.15527 -2.84424 -0.12623]</t>
-  </si>
-  <si>
-    <t>[-3.53418  2.6631   0.17484 -4.58736  1.54876  1.04492  2.24336  3.08517
-  0.24483  4.32741 -4.52028  0.61761 -3.22382  4.63562  2.49086 -2.08626
-  5.26139  4.12489 -3.86915  2.66993  2.03143  1.70357 -3.29875 -0.18662
-  0.38113  1.56626  2.25929  0.6208  -0.86031 -1.96991 -2.57384 -2.02159
-  2.96965 -2.65065 -1.29702  1.14571 -0.51295 -4.05364  1.45919  0.51718
-  4.04846 -4.06269 -1.0307   0.48094  4.40001  1.78882  1.03202  3.46558
-  1.39511  0.28595 -4.20356  0.08925 -0.2406   0.69319  1.6446  -1.42899
-  2.39374  4.12893 -3.33701  0.02082  1.21074 -0.00585 -0.73207 -4.92671
-  3.49927 -1.79806  1.28077 -0.17574 -0.0359   0.78544 -1.07734  4.38973
-  2.74508  1.63462 -2.56204  3.13412 -0.04005  1.79101  2.90317  4.86711
- -2.52712 -1.13669 -0.54877 -3.65607 -1.57397 -0.16373  2.82484 -3.20337
-  2.04088  1.91463 -0.94214 -2.48443  0.94193 -4.12373 -2.01135 -0.6354
- -0.58661 -2.71603  0.49827  3.96038]</t>
-  </si>
-  <si>
-    <t>[-1.17817 -2.13697  0.90986  2.24479  0.37165  2.24998 -1.35869 -0.55005
- -0.25991 -1.05712  1.45736 -1.2093  -2.86237  2.69323  1.17658  1.54893
- -1.29964  0.58042 -3.31101 -0.77684  0.52196  1.64118 -1.35606  2.48605
- -4.1692   0.29893  1.33642 -3.01258  1.43175 -1.05627  1.47524 -2.12553
- -2.34586 -2.6867   4.56555 -0.10744  0.42999  3.89552  2.386    3.15421
- -4.21637 -0.36197 -0.55954 -0.40326  0.55236  2.99309  0.34725  2.02391
-  4.42625 -3.47167 -3.0988  -2.41593 -3.58569 -2.91617 -0.57532 -0.15334
-  3.21914 -3.99965 -0.77951  0.30603 -2.5715   1.93973 -1.73098  1.16634
-  2.24938 -2.04759 -3.5712  -2.32451  1.64147 -2.54012 -1.00634 -0.53265
- -3.21918 -3.37901  1.39156 -3.56121 -1.78589 -0.52408  2.79931 -1.23004
- -4.52869 -5.57989  0.45014 -0.36928 -3.87719 -2.29783 -3.38592  1.42154
- -3.79166 -3.68814  0.58447  0.3848  -2.1081  -3.6856  -1.76339  2.79406
-  5.12694  3.1373  -2.25148 -1.03483]</t>
-  </si>
-  <si>
-    <t>[-1.04809 -1.02451 -0.9555  -0.36134  0.34872  0.15982  0.43193 -1.63137
- -0.45837  0.95553  3.45773  3.29805 -0.27596 -0.0272   1.34845  2.04288
-  0.10404 -2.16518  0.95845 -1.33422  0.44744 -1.3518   2.33615  0.27417
- -2.70601  1.88963  3.36114 -0.82349 -0.27986 -2.5584  -6.57907 -1.65947
-  0.74317 -0.6323   2.72275 -2.14232 -0.28124  0.65361 -0.48819  0.92137
- -3.56587  0.76405  0.01945  1.38285 -1.33927 -0.35153 -0.00274 -1.43409
-  1.92027 -1.6306  -1.21186 -2.97586 -2.47352 -1.51756 -2.63369 -0.55567
-  0.91737 -2.4376   0.5803   3.75458  1.76834  1.67472  1.08457 -1.15335
- -1.70723 -1.10448  1.12665 -3.17947  3.51063 -0.03979  0.75154  2.29251
- -1.38364  0.36087  1.83108  0.20874 -0.08659  0.49671  2.21473 -1.73439
- -2.57488 -2.97486  1.01388 -0.94952  1.59314  0.40012  1.36796  0.61405
- -0.73671 -1.51697  1.26697  0.95609 -0.99646 -1.45484 -2.9945   0.29541
-  3.38038  0.02164  0.16549  0.51798]</t>
-  </si>
-  <si>
-    <t>[-0.20611 -1.49305  0.04798  2.98969 -1.24412  1.22984  1.06601 -0.87169
- -0.53189  1.52382  1.74425  0.91911 -2.77227 -1.20524  0.79013  3.27902
- -0.63535 -0.79424 -0.39793  1.28337 -0.11897  0.77632 -1.4293  -0.68547
- -2.35265 -3.61751  1.39755 -0.40109  0.12001 -1.73056  0.08706 -0.37376
- -1.09789  0.7855   0.49355  0.28554  0.12491  1.21616  0.20439  1.40521
- -0.79033 -1.34722 -0.21012 -0.68604 -2.33844 -1.08676  0.75268  2.99891
-  0.52732  1.19141  1.41741 -0.04101  1.40804 -0.54243 -0.46147 -0.25249
- -0.63296  1.68786 -0.76759 -0.14014  1.20824 -2.73454  0.7203  -0.82282
- -1.78986 -0.78449 -1.06924 -1.11784  1.61518  1.4868  -0.58318  1.58642
-  0.13877 -0.31131 -0.8177  -2.20158  1.60275 -0.66317 -1.27818 -1.01046
-  1.0104  -0.18019  0.16762 -1.41493 -0.2954   0.06811  1.38701  0.44968
-  0.49703  1.29676 -1.17395 -0.52125  0.96647  1.6222  -1.92753 -1.17328
-  3.02998  2.19902  1.21077 -1.52871]</t>
-  </si>
-  <si>
-    <t>[ 0.83696  0.41668  0.82874 -1.48735 -2.1851   1.58006 -1.63634  0.32877
- -1.45408  0.5887  -2.44626 -1.84514  1.33608 -1.86345  0.22205 -3.24562
-  0.08134 -1.22075  1.76492  0.73211 -0.15848 -2.40573 -3.02728 -0.12802
- -4.0107  -3.02847  1.75068  0.49056 -3.52036  1.16277 -3.45582  0.80756
- -3.18187  0.99594  0.16426  0.12301 -2.78956  0.48615 -0.27552  0.01407
- -1.8901  -1.74989 -0.9017   2.46186  0.57558  0.36177 -0.66928 -0.54688
- -3.80134  0.94807  0.13741 -0.86517 -0.42782  0.97861 -3.79589  0.55555
-  0.21811  1.87308 -0.48096 -0.30718  0.46201  1.65681  0.51209  2.90407
-  0.65095 -0.06634  1.84005 -1.96936  0.62175 -1.95065 -0.63272 -2.41219
-  2.15626 -1.27064 -0.70271  1.15916  2.50572  0.99815 -0.33748 -2.81183
-  2.40905 -3.32121 -0.79125 -2.11257 -0.11574  2.65612  2.04399 -1.32723
- -3.10777  0.61732 -3.83494 -2.67561  4.63683 -2.35744  0.00822  2.52106
-  1.69275 -0.97046  2.87824 -0.74426]</t>
-  </si>
-  <si>
-    <t>[ 2.72143  0.07365  1.17294  1.31503  0.73744  4.08644  1.04164 -5.43645
- -1.11019  4.4063   2.26541 -0.18366 -0.74566  3.43312 -1.31572 -1.12129
-  2.09211 -1.18751 -3.73398 -0.724   -0.00697 -0.3827   3.86003  2.06388
-  0.43684 -1.44522  0.8023   1.67789  0.89885 -2.54477 -1.534   -4.4313
-  2.65268 -4.53588 -5.37975 -2.11103 -3.49068 -1.65379  3.41222 -2.14259
-  1.20449  2.40441  1.88234 -0.5167  -1.4409   0.14017  1.58523  0.80218
- -1.27298 -1.2976   2.65604  1.32926  0.53751  0.379   -0.35082 -3.56697
-  0.7467   1.37883 -1.64134  1.21439 -0.33425 -2.14415  0.73081  1.27556
-  1.84082 -2.29176  2.30895 -4.00928 -3.29354  4.83292 -0.3583  -2.90335
-  2.1143   1.18563 -0.68955 -3.52397  0.04629  1.3024   6.16757 -2.89969
-  3.62018 -1.47657 -1.33569  1.43376 -0.46471 -4.17526 -2.00976  1.80689
- -1.22817  0.35047  1.25848 -0.22182 -0.53785 -2.04663  1.4171  -2.23866
- -1.75781  1.60233 -3.0631   0.84717]</t>
-  </si>
-  <si>
-    <t>[ 0.48118 -0.81493 -0.46859 -4.94492  1.77972  2.5748   0.96128 -2.32525
-  5.96048 -2.06136 -2.57825 -1.43801  2.53084  1.87651 -3.37292 -0.06408
- -2.45832 -2.15589 -3.42079  3.63464 -2.38147  4.10025 -0.87298  0.56184
-  2.29127  0.75018 -3.02781 -1.10688  2.30574  3.2976   0.75693  0.56627
- -0.79362 -3.00721 -0.22677 -2.48559  1.89377  0.98652 -3.51866  0.25884
- -4.21268  4.34429 -2.99024  0.54584  2.14712 -3.27135 -4.17686 -3.28799
-  1.68601 -0.46827  3.72062 -4.27997  0.61955 -1.20032 -0.42102  1.45813
-  0.20464  3.07153  0.10818  0.42667  1.37796  3.89664 -5.375    2.74497
- -1.89922  3.45785  0.3193   4.56176  2.13645  0.35825 -2.32899 -3.054
-  2.44343  3.99607  1.72765 -1.79178  0.56787  0.89919  1.96404  2.45744
-  1.87001 -0.8723  -0.51302  0.99747 -1.57853 -4.65162  0.82641  0.97283
-  0.1733   1.72954 -0.14012  1.93784 -4.53466  3.68934  1.85752 -1.41569
- -3.20087 -1.52405  1.52433  0.21068]</t>
-  </si>
-  <si>
-    <t>[-0.00454 -0.39787  0.98133  0.68907  0.39019  1.38053 -1.17328  0.14924
- -0.14653  1.46012  2.98547  2.23352 -0.86477  0.73107 -0.27654  3.57146
-  0.11792 -1.94344  1.46304  2.60897  2.79749 -1.03298  1.58411 -0.9861
- -0.49983  2.59861  3.68675  0.09617  1.42901 -2.3464  -4.86833 -0.45568
- -0.31266  1.69748  4.04587  1.91776 -1.40776  1.48437 -0.56644 -0.24617
-  0.22781  0.24974  0.14669  1.29319  1.10057 -2.07507  1.41074 -0.30734
-  2.84337  0.36543 -1.78912 -2.54853 -1.44428 -2.05883  0.09861 -1.19592
-  1.7855   0.17689  1.41907  1.30799  2.4254   0.11591 -0.08568  0.55063
- -3.57734 -0.35851 -1.29501 -0.77248  2.22537  1.09174  1.70705  1.92499
-  0.0704   0.8821   0.71381 -1.78405  0.21835  0.18555  0.73501 -1.65714
- -0.52788 -2.65884  2.29285 -1.0966   0.83276  0.51948 -0.06654  0.24088
- -1.8121  -0.28871 -1.39175 -0.75047 -0.33     1.51431  0.85306 -0.91022
-  1.94471  1.552    1.69686  0.18112]</t>
-  </si>
-  <si>
-    <t>[-2.63448  1.58413  3.44565 -1.52609  1.52707 -4.45376 -5.24878 -0.25114
-  2.74396  3.61998  0.42074 -1.09133  1.92624 -0.33471 -1.36306  4.36785
-  0.38316 -2.36953 -1.23264 -1.92669 -0.90087  0.59827 -2.15472  3.53401
- -4.00628  1.27771  0.77864  1.58723 -2.65129 -1.22914 -3.03459  1.40317
- -0.48535  1.15754  2.824   -3.74502  0.33942 -2.30415 -0.10561  1.62927
- -3.27126 -2.5744   2.60333  2.41608 -3.09095  1.07506  2.61087  0.45309
- -3.26024 -0.65762 -2.2525   2.13317 -1.389    0.49088 -1.20549 -0.75898
- -1.3846   3.54425 -5.05507  4.21932 -0.29505  1.51791  0.48941 -0.30259
- -6.02002 -1.63757 -1.98706  3.48735  0.77991  0.76184 -2.53574  1.89562
-  4.40413  0.91061  4.52288  0.65134 -1.49248  2.98553  0.70103  1.30841
-  5.15473  0.81037 -1.60506  1.24245 -1.32114  3.81375 -2.28643  5.79775
-  0.53151 -1.91555 -2.11672 -0.02786  0.92117 -1.11549  2.11764  1.86004
-  2.18304  2.33413  3.7194   0.32544]</t>
-  </si>
-  <si>
-    <t>[-4.26823  0.74218  1.45559  2.85068 -2.32551 -1.72169 -2.33748 -0.98254
-  0.71893  1.01786  2.09378  1.1869   0.49775  3.27831  2.22071  4.48182
- -0.91112 -0.32831 -1.99895  2.04196  4.62417  1.03167  0.45157 -0.76494
-  0.4011   0.53716  0.2097  -0.03519  5.68831 -0.30901 -4.64118 -3.58407
- -5.94819 -1.5548   3.62206 -1.28777 -0.43786 -1.29752 -2.25682  0.06468
- -4.47197  0.23272  3.61412 -1.92615 -1.33527 -0.47123  3.81128  0.10348
-  4.24424 -3.35143 -1.14347  0.00564  0.20686 -1.91359 -2.21484  2.87455
-  1.00537  0.5096  -3.66097  2.60199 -4.13376 -1.84715  2.04415  3.17844
- -0.92342 -0.00548  1.90332  0.2745   0.43439 -0.79686  2.87494  1.97536
- -2.72384 -0.58575  1.02337  3.65324 -2.66863  2.00027  5.68712 -1.83234
-  3.35342 -1.35882  1.81946 -0.19943  2.5938   2.45138 -0.20384  2.71092
- -4.68441  0.00806 -4.03915 -2.67136 -0.86894 -1.13835  0.25196 -0.43417
-  4.46836 -0.64801  0.49079  0.16651]</t>
-  </si>
-  <si>
-    <t>[ 1.09655  2.34067  1.32868  1.05727  0.86089 -2.86375  0.47299 -0.66347
- -0.87744  2.87015  0.45798 -0.23825 -0.01752  0.86173 -1.47973  2.04237
-  2.96411  0.95585 -2.47603 -2.6408   1.39451 -0.92017 -0.76111  1.63948
- -0.93466  0.57934  2.98047  2.1737   4.17644 -0.15527 -3.08116  1.14879
- -1.4295  -0.82303  0.56778 -2.23993 -2.4407   1.78838  1.50207  2.09558
- -0.41896  0.76329 -0.71369  3.91993  0.85215  0.83029 -0.45361  2.52495
- -0.26848  0.80904  0.79632 -1.58486 -1.48885  0.94468 -0.5334   0.40687
-  1.96206 -2.22647 -2.5074   0.95725  3.58618 -2.07549  2.19606 -2.03024
- -2.25553 -0.83641 -0.32545  1.77606  1.73687  0.19267  0.83576  0.27923
-  3.8371  -0.27432  1.66924  1.80225 -0.6432  -1.05245  3.17311 -1.21941
-  0.14621 -1.01971  1.73821  0.83752 -2.93676  0.09947 -1.58223 -1.86928
-  1.00249 -1.7252   2.24297  1.66721 -0.83066 -0.06507 -0.0915  -1.76072
-  1.12484  2.85967  1.66154 -3.49992]</t>
-  </si>
-  <si>
-    <t>[ 0.35237 -0.06016 -0.28674 -0.91522  0.52789 -0.67809 -1.49308 -2.72134
-  0.58453 -1.7842  -1.18652  1.84392 -2.33101 -1.80709  1.5638   2.36045
- -0.21849 -0.17436  1.0546  -4.52795  0.64274 -2.62151  0.41285 -1.65473
- -3.4002  -1.37602 -0.12116 -0.72406  1.4613   2.07514 -2.19625  0.63834
- -1.80995 -0.67418  0.04526 -0.43082  0.28171 -0.9725  -0.73916  1.60307
- -1.63776  1.42572 -1.97253  1.08846 -0.76089 -2.8628   1.06328  1.11999
- -0.11364  1.39564 -0.70346 -2.10621  0.39152  0.16692  3.54127 -3.07608
-  0.05039  1.09457 -1.66423  0.68157 -0.83625 -1.54881 -0.25192 -2.10782
-  2.40465  0.58492 -0.87321 -0.19296  0.48962 -0.76332  1.69468  0.03481
- -1.32066  0.81828  0.65871  1.02321  2.59618 -2.0471   1.51503 -0.37721
-  1.11312  0.43203 -0.61794 -2.23753 -2.88766  0.0551   3.47239 -0.77037
-  2.28063 -0.6291   1.50004 -3.05415  0.82404  0.15244 -1.79788 -1.97772
- -0.14785  1.36271 -0.49607  0.10365]</t>
-  </si>
-  <si>
-    <t>[-1.09418 -2.60068 -0.00813  0.39372 -1.085    2.04315 -1.28436 -2.01263
-  0.28822 -0.24091  1.801    0.00355 -0.95042  1.36065 -1.12325  1.41625
-  2.89903 -1.99336  2.99001  1.13493  2.98319 -0.63793 -0.67571  1.19576
-  1.45683 -3.0817   3.29695  0.64297  0.59699 -0.0801  -1.85343  2.02939
-  0.01323 -0.60596  3.33065  3.47361 -0.0705   4.11682  0.33049  0.67001
-  3.0731   0.34677  0.80989 -0.51019  0.67016 -2.1553  -0.16345  0.72557
-  1.27508  0.02725 -0.10643 -0.51161  0.88787 -0.90929 -0.59624 -0.21194
-  2.56044  2.42178 -3.09072  1.85516  1.48921 -3.93113 -1.01743 -0.64062
- -2.39537 -0.61007 -0.00579  0.72171 -1.23706  3.59624  0.01783  2.60306
-  0.43546  1.42692  1.07567 -2.43759 -0.55377 -1.25115  0.89058 -1.90504
- -2.80393  0.49342  0.44926  0.61681  0.14753 -0.87476  0.56243  1.56896
-  1.97682  0.15062 -2.29347  0.35456 -1.09859  3.13157  1.17051 -1.60291
-  3.03631  3.53717  0.82955 -2.64471]</t>
-  </si>
-  <si>
-    <t>[ 1.57089 -1.93966 -2.27516  2.51011 -0.72716 -0.8286   2.53128 -1.39187
- -2.08762  1.06133 -0.91645 -0.03809 -1.92127  0.56069  0.59908 -1.23027
- -0.10992 -1.43907  0.94589 -0.21445 -0.74413  0.21054 -4.05027  0.30089
-  1.44596 -3.03206 -1.47947  1.86233 -0.16299  0.95315 -1.26631 -1.36142
- -0.30265 -2.24456  0.94699  1.92056 -1.39068 -0.99323  1.09069  0.76711
-  1.32584  0.67096  2.21892  2.50141  0.81589  0.52307 -2.12212 -3.24347
- -0.38801  0.00441  1.57994  1.11385  0.20892 -0.35915 -0.23901  0.58881
-  2.7337  -1.40194 -0.29206  1.01671  0.76927 -3.4068   0.19315 -0.66204
-  0.53729  0.52121 -0.74567  1.28788  1.1784   1.38385 -2.20149  0.25353
-  0.99826  0.35545  1.1647  -1.36531 -0.97098 -1.73187  1.79256 -0.05289
- -4.20944 -1.16904  0.38744 -0.3029   0.62561  3.38801 -0.87352  0.87789
-  0.53232  1.43927  0.43226  0.29369 -1.25161 -0.55477 -1.38775  0.03524
- -0.92723  0.13489 -3.2818  -1.87173]</t>
-  </si>
-  <si>
-    <t>[ 3.1785  -0.49359  0.79513  0.44525 -5.82661 -2.98618  1.21003 -1.80391
- -4.10187  1.30453  3.5825  -0.67717 -0.63176 -0.00434 -0.15241 -4.35104
-  0.64948 -0.20673 -3.24941 -1.14998 -1.45469 -0.05394  0.69312  0.45191
-  1.32838  2.1324   0.24457  0.13912 -2.22766  0.94374  2.56712 -2.48693
-  1.1326   1.12047 -2.13795 -0.3849  -0.92664  0.40654  0.00181  2.15204
-  2.30263  2.19112  1.82716  3.01307 -0.27229  3.79829 -2.57618 -0.14044
- -1.89621  0.51104 -0.08914  0.99821 -3.52733 -2.72427  2.04412  1.22566
- -0.79448  1.58191  0.9502  -0.02601 -2.32684 -3.79398 -4.74409 -1.98185
- -1.17174  1.76586 -0.55922 -1.00806 -1.14514 -3.58315 -1.20272 -0.71328
-  0.77424  4.31456 -1.33595 -1.0193   0.66378 -3.8501  -0.97517 -1.05267
- -0.09972 -0.72001  0.12185  2.80695  2.12746  6.18428  2.41535 -0.62324
- -0.55132  1.46648  1.39379 -5.30887  0.50478  2.14687 -1.01591 -0.86962
-  2.58689 -2.81116 -1.33166 -1.46512]</t>
-  </si>
-  <si>
-    <t>[-3.06724 -3.56221 -0.84087 -1.31773  0.06954  0.07905  1.46616  0.56053
- -0.37846  1.01906  4.99965  2.60749 -0.88386  0.51644  1.19294  0.56238
- -0.12319  1.28859  0.93866 -2.06728  6.00783  1.58996  1.17673  0.53945
-  1.60787  0.37447 -0.76626  1.64037 -1.1823  -1.30605  1.6397   0.29116
- -2.47473  0.10516  2.72572  0.00586 -1.12194  2.83809  4.59683  1.68131
-  0.61792 -0.04528  0.57642 -0.22415 -0.41992 -3.36156 -0.53263  0.33424
-  1.16635 -3.00477  0.92747 -1.05551  3.84381 -1.14238 -1.83824  0.7065
-  2.9841  -2.13265 -1.86533  1.23239 -2.06683 -0.85389 -2.37537 -0.33141
- -0.42004 -1.77369  3.10048 -2.33727  0.17261 -0.02972 -1.60758  2.03814
- -3.76114  0.69957  0.78563 -2.30574 -0.60359 -2.80303  2.72424 -1.75229
- -1.9061  -0.57815 -1.42347 -0.3468  -0.89322 -2.14536  1.17877  1.82075
- -0.72962 -1.07748  2.21096 -1.0358  -0.40885  1.9341  -0.955    2.81305
-  3.53516  4.3685  -0.86245 -1.76359]</t>
-  </si>
-  <si>
-    <t>[-3.18107  0.83303  3.96362 -2.19626  0.94504 -2.02837  0.75701  0.50128
-  3.55077 -0.97379  0.23346  0.15759 -2.1015   0.21691  0.70874 -1.36663
- -1.10673 -3.82325 -2.0588   1.95211  0.36764  1.02576  2.44819 -1.49526
- -0.34465 -1.76505  0.42668  3.82114  2.27303 -1.18355  0.30962  3.30235
-  1.32972 -5.64371 -0.65438 -2.54042  1.80838 -1.5519  -3.9894  -0.42768
-  0.21384  2.0142  -3.81367  0.37031  0.60495 -0.07556 -3.1129   3.37199
- -2.79707 -4.01396  4.09033 -0.26675 -0.17054 -4.97684 -0.28139 -2.66416
- -1.47846 -3.82028  0.67894 -1.7748   5.71442  1.10601 -4.91095  0.81464
- -0.57285  4.466   -0.70631  0.97214  3.48526  2.0716  -2.70213  0.53
-  2.63344  2.80524 -4.17482  0.68289 -0.12185  0.98441  2.44934  3.00921
- -4.66738  2.97417 -1.8827  -0.10249  0.90109 -3.90239  0.22506 -0.51759
-  0.89617  1.10111  1.41515 -1.68182 -1.67099  0.15235 -0.3899  -2.22696
- -1.26923  2.60913  0.68373  0.46155]</t>
+    <t>[-0.87931 -0.30927 -1.0562   2.88794 -2.39911  0.14836  1.467    0.9838
+ -1.47607 -2.04133  2.88668  1.91523  1.98306 -0.49941 -1.98752 -1.10461
+  0.14816 -0.67865  0.21223  0.13859  0.46605  0.82358  1.10086  0.57086
+  0.33933  1.35905 -0.62563 -3.72593 -0.54149 -2.86512 -5.52748 -1.30164
+  0.67172  0.16544 -0.4791   0.93653 -1.80816  2.40026  4.8655   0.72139
+ -5.11007 -1.0757  -1.58724  0.96697  1.74732  0.31907 -0.65744  0.40253
+  1.24557 -0.27256  1.36762 -2.24415 -0.91962 -2.11827 -1.68478 -0.73397
+ -0.31233  1.93357 -0.26554  2.16636  0.46092  0.96069  0.67079 -0.8826
+ -3.64358 -1.74197 -1.16405 -0.14337  0.41226 -1.62203 -0.75389  0.9592
+  2.23698 -0.50767  0.09189  0.64663 -3.34774  1.23841 -1.76891 -0.40457
+  0.01772  1.04199  0.01788 -2.10937  0.21099 -1.94226  0.34112  0.11188
+ -0.45803 -2.12842  2.38388 -0.06396  0.13389  2.04771 -1.41504  2.14954
+ -1.22864 -1.40473  2.18738  3.65439]</t>
+  </si>
+  <si>
+    <t>[ 4.85413 -4.38789  3.27479  0.20631  0.43689  2.16629 -0.03709  0.46821
+  0.50762  1.98523 -0.36353 -0.2047   0.35763  4.69656  0.57127 -0.84315
+  2.70374  2.02678  2.86237  2.887   -4.67714 -0.62247 -2.36684 -3.45812
+ -1.07637 -6.32152 -4.17031 -0.08899 -5.90602 -2.88141 -1.15422  1.13884
+  0.90635  2.07989  1.4033   0.94393 -0.33582  1.86947  0.53976 -2.80717
+ -2.32785 -3.52982 -0.65486  0.55133  2.58817 -0.3853  -1.7929   1.28154
+  2.92728  1.51511 -0.36166  2.06668  3.08451 -0.81235 -1.53065  1.74299
+  2.9907  -0.247   -1.73203  3.36184  4.74503 -3.36781  2.96251 -1.33349
+ -3.34376 -1.19175 -2.45835 -0.34146 -2.29859  2.47883 -4.83904 -1.30287
+  2.69706  1.84883  1.17817  1.58434 -1.24163 -0.31336 -0.25337  4.24868
+  1.22411  2.18714  2.21715 -0.53763  0.80018 -3.77034  0.13417 -1.28595
+ -2.05586 -0.98148 -0.1753  -2.45595 -0.00738 -0.19876 -0.07601 -0.20473
+  2.79603 -1.02506  1.30583  1.10152]</t>
+  </si>
+  <si>
+    <t>[-0.61203 -0.06866 -2.34163  3.5911  -1.22977  1.34437  1.30856 -1.96996
+  0.97866  2.43331  0.87866 -0.90594  0.48753 -0.34413 -3.06079  2.26139
+  1.74302 -4.35608  4.37602  0.48816 -1.2936   1.30841 -1.46258 -2.49841
+  1.84913 -2.17643 -4.50388 -0.95868  3.26429  2.92176  1.90477  4.77773
+ -2.09872 -2.10644  0.28013 -3.11137  2.49241  1.59102 -3.14342 -1.29013
+ -5.14272  4.13222  1.23258 -0.46262  1.40997  1.59694 -1.39134 -2.95669
+ -2.15879  3.36601  0.20568 -0.31311 -0.11672 -1.57673 -1.21769  4.38313
+ -0.10804 -0.18703  0.26397 -2.06061  1.50949 -1.00911  1.10557  6.22195
+ -4.83167  2.3121  -2.00683 -2.37198 -1.64408  2.40778  1.78085 -1.19281
+  2.35959  1.96739 -0.26096 -2.31047  2.61496 -4.20119 -1.03938  2.02005
+ -0.80588 -1.48796 -2.32563  1.55086 -0.75972  0.23337 -2.6152  -0.27617
+ -1.3192  -1.7858   0.44869  1.21104 -1.52184  4.18452  0.9646   2.54152
+  0.02688 -0.33636 -0.91583 -1.8343 ]</t>
+  </si>
+  <si>
+    <t>[ 0.95053 -0.17759 -0.33569  1.40418 -0.85698  1.47441  0.50288  0.48707
+ -3.03443  0.66978 -3.23734 -0.45618  1.2332  -0.14869  1.0052  -1.77629
+  1.58897  0.09823 -0.18964 -2.15202 -2.95458 -2.06776 -1.87796 -0.32052
+ -0.0821  -2.55134 -0.63825  0.27646 -0.8225   0.22248 -3.05831 -1.68275
+ -0.34476 -0.00315  0.34111  0.2007  -2.4244   1.14184 -0.12627 -0.91172
+ -0.1324   0.09051 -1.40047  0.39295 -0.26641 -0.61673 -0.54881 -0.3422
+ -1.76292 -0.49627  1.07966  0.22354  0.78132 -0.91841 -2.92415 -0.91021
+ -1.95174  1.46845 -0.83299 -1.87266  1.66471 -2.24237  1.08252  1.19607
+  2.22127  0.20229  0.46842  1.20561 -0.97233  1.18715 -1.15828 -0.67632
+  1.50561 -0.55567  1.69389  0.43301  0.10217  0.34189  1.28986 -4.59514
+ -2.27202 -0.6873   1.53194 -1.5709   1.88714  0.00673 -0.38601  0.94836
+  0.22668 -0.5165  -0.73178 -3.00327  1.72618  1.58059 -1.24326  0.53569
+  0.69225 -1.18797 -0.40357  0.20218]</t>
+  </si>
+  <si>
+    <t>[-0.69547 -0.4228  -1.60229 -1.25163  4.25482  0.53202  1.37673  0.20662
+  0.25942 -1.20415 -0.10531 -3.86172 -1.45816  2.29665  1.15503 -0.19652
+ -1.319   -3.47869  3.30217 -3.97645  0.57977  3.43864  2.39157  0.56997
+  1.86332 -0.10721  0.47776  0.86779  4.22316 -1.54754 -2.88251  2.61659
+ -0.28469 -1.0913   4.3359   1.6195  -0.67522  3.53349 -2.33647  3.26344
+  1.75173  0.15605 -3.50562  0.20709  2.78964  1.68913 -0.85102 -0.45768
+ -0.46569 -1.52814  0.15568 -0.34697 -1.49511  2.75539  1.55103  3.71464
+ -0.04302  2.32658 -2.94173 -0.36348  0.22352 -6.67851  3.12304 -2.41163
+ -0.34695 -3.48883 -2.31742 -0.93852  1.99855 -0.96945  1.57671  1.14872
+  0.31079  1.92219  0.98228 -1.83168 -1.0653  -0.59666 -1.1866  -1.4049
+  3.60498 -0.41602  5.31198  0.92691 -4.26341 -1.22456  3.39969  2.02609
+ -0.10933 -1.90481  3.3096  -0.67576  0.21981  0.3688   3.34082  1.20516
+  4.47907 -3.3797   1.51067  2.70031]</t>
   </si>
   <si>
     <t>[ 0.34693 -2.36214  4.01496 -1.48016  0.23915 -3.81248 -1.73591 -0.43476
@@ -829,276 +955,6 @@
  -3.37611 -1.78157  2.97667 -0.49623]</t>
   </si>
   <si>
-    <t>[ 0.1599  -2.33025  1.81971  0.94952 -3.42161 -0.32025 -1.46066  0.56326
- -0.12248 -0.31898  1.29547 -1.45611 -0.29478  1.60747  0.85857 -3.3261
- -1.15555 -4.3794   1.03807  1.06946 -3.84233  0.05448  3.01104 -0.13686
-  2.32242 -0.56945  1.54102  2.35757  0.16463  1.92047  0.55976 -4.06334
-  0.05148 -3.22821  0.55749 -2.36014  0.82231  3.81896 -1.67881  0.51432
-  2.35288  3.6428  -0.07054  1.09001 -1.27447  4.04865 -1.91479 -0.08817
- -1.08194  1.01304  3.65966  1.47904  0.49857 -1.4601  -1.68581 -0.86885
- -0.92492 -2.88771  0.83005  2.13239  0.38099  2.4094  -1.55322  1.02656
-  0.38765  2.99634 -0.93561  0.85439 -2.16355 -3.27533 -2.91535 -0.4215
-  4.2301   1.34292 -1.2562   2.2569   2.05811 -4.66484 -0.83049 -0.5967
-  0.31773  1.57997  1.81258 -0.30273 -0.29451  1.18748 -1.32168 -0.12362
- -0.2383   0.07944  5.31902  1.14844 -0.11998 -2.44893  1.70396 -0.2946
-  0.13153 -0.08084  0.66607  1.16306]</t>
-  </si>
-  <si>
-    <t>[ 0.25327 -0.02275  3.41679 -0.70489  2.44901  0.80468  0.91914  0.05872
-  2.3113   3.11072  0.08947  0.85744 -0.34107  1.54449  0.52894  2.62364
- -0.058   -3.09247  2.64901  0.61015  0.54226  1.16398 -1.24338  0.65672
-  1.24191 -1.44949  1.50212  2.8999   2.3422   0.52444 -5.33655  2.57343
-  0.1199  -2.29083  5.5814   0.54141 -2.20116  1.15414 -2.02056  1.20959
-  0.31736  2.06468 -0.1046  -0.18174  1.94647 -0.19702 -1.00689 -3.32187
-  1.56462  0.53837 -1.37127 -0.17326 -1.97013  1.78447 -2.46246  1.73295
-  3.92898  0.2527  -3.38047  4.08764 -1.42717 -1.98785  4.03664  1.63884
- -2.107   -3.25037 -3.21857  2.67955 -0.16524  2.40218 -3.04445  0.64253
-  1.20483  2.73298  0.13242 -1.11816 -1.2227  -1.41997  2.32361 -1.06589
- -0.35504 -2.30212  2.85733  3.00903 -3.43812  0.17802 -2.05959  0.85488
-  2.57243 -2.2389   0.8285   2.72789 -3.49041 -0.05108  2.93039 -0.13044
-  0.56061  2.48544 -0.10733 -4.03355]</t>
-  </si>
-  <si>
-    <t>[-1.36606  0.6158   2.27499 -0.69345 -0.77654  0.24756 -2.04146 -0.87179
- -2.52921 -0.00972  0.63184 -0.17082 -0.99818  0.91951 -3.00019  1.42287
- -2.80616 -0.23491  0.57081 -0.02599  4.48355 -1.84739  1.70383  0.99878
- -0.07412 -0.58616  0.35608 -1.10514 -0.60113 -2.21775  0.89    -1.10919
- -1.14107 -2.64034  0.76523 -0.41959 -0.70269  2.21538  3.99493  3.14707
- -2.4239  -0.18084  2.62481 -0.10772 -0.76825 -2.56425 -0.13819  2.08118
-  1.52373 -0.27771  0.00235 -3.63179  0.16359  0.66962  1.29658  1.8873
- -1.71466  1.13534 -0.88067  5.78295 -1.94952 -1.4572  -1.5966   2.02537
-  1.54528  0.71882 -2.2288  -0.28444  0.09388  1.3946   3.33912  1.82769
- -0.87332  1.15676 -3.02253  0.36632  0.00598  1.28247 -1.15963 -1.58094
-  1.42161 -0.4073  -0.39661 -2.73056 -1.52153  0.33721  2.34386  1.16534
- -0.85381  0.12433 -0.38342 -1.6257  -2.14582  0.87362 -0.72537  0.59645
- -4.75601 -1.53566 -1.17754 -2.94509]</t>
-  </si>
-  <si>
-    <t>[-0.70488 -2.96473 -2.09724  1.50462 -1.62011  1.04949 -1.8462  -0.05857
- -0.56659 -1.89065  3.60867 -2.70158  0.70833 -0.60011 -0.89182 -2.54453
- -0.75383 -4.45827 -1.90213 -0.55331 -3.74488 -0.38491 -0.77828  2.17785
-  2.78703  0.97977  0.37597 -3.13949 -2.74594  1.0263   0.31098 -0.60355
- -0.43251 -1.44101 -1.97532 -0.20873 -0.56287  1.97987 -1.59438  0.91412
-  1.5536  -0.25223  1.40775  1.65648  0.70689  1.99908 -3.79507  0.7545
- -2.02769  0.48092  0.08287 -1.63331 -0.95309  0.86392 -0.7546   1.26594
- -2.05018 -0.08319  2.25928  2.75893 -0.85864 -1.60998 -2.5597   2.52857
-  0.49437  3.02642  1.09857 -0.98005 -1.29552 -1.6268   0.21462 -0.63445
-  1.80743 -0.65026 -1.6969   0.22631  0.71484 -3.95522  1.28808  1.13329
- -2.26253  2.46099  0.14709  4.21209  2.5084   1.99539  2.23696 -0.67442
-  1.99093  1.75003  3.17074  1.03979  1.06491 -1.10828  0.14289 -0.60667
- -1.65901  0.13413  1.25594  0.41133]</t>
-  </si>
-  <si>
-    <t>[ 3.83091 -3.13202  0.45596  1.58889 -0.16087 -0.47286 -0.38653 -2.98068
- -5.70809 -1.34905  0.2343   1.18817  3.98086  2.31412 -1.16593 -4.61187
-  2.46861  1.52375  0.03367 -4.5425   2.90908 -3.22094 -0.77265 -0.20789
-  0.39992  3.20947 -0.57242  1.51649 -2.44231  0.96456  2.75022 -1.40737
- -3.55947 -0.79665 -2.13477  1.24483 -3.83654 -1.87211 -1.65597  0.91298
-  1.2055   0.24905 -5.10753  2.7251   2.25332  3.65025 -3.61984  1.23626
- -0.63481  3.82444 -3.7592  -2.3554  -1.37673  2.25462  2.88679 -0.86238
- -2.54393  3.59668  2.11555  0.98989 -1.49682 -2.41574 -6.05065 -1.00283
- -3.50386  2.39885 -2.27179  0.32571  1.83009  0.36131 -2.10719 -1.65044
- -3.00908  5.5752  -4.50877  1.29001 -0.1496   0.04026 -1.44901  0.11657
- -0.09354 -0.30706 -1.11496  0.59858 -1.86107  3.363    1.63197 -1.75601
-  0.05671 -1.81106  0.2462  -5.7028  -2.32576 -0.11925  1.40886 -0.28581
-  5.71891  0.11936  1.71036 -2.88053]</t>
-  </si>
-  <si>
-    <t>[ 2.33992 -1.30052  0.34916  1.65741 -0.77419 -1.8826  -0.18792 -1.1681
- -3.59883  0.41624  2.51522 -1.37422  0.2182   0.07832  0.21104 -2.74283
-  0.90865 -0.35351 -0.30901 -0.17363 -1.25039 -1.87975  0.11901  2.16704
-  0.81361  1.65409  0.12241 -1.24845 -1.23571  0.6263   2.05181  0.84246
-  0.37795 -2.85325 -0.50809  0.70281 -0.80997  1.51973  0.88843  0.40026
-  3.26324  1.16452 -0.01957  1.82305 -1.7183   3.04923 -2.02214 -1.53872
- -0.8465   3.0408  -0.20928 -0.54489 -3.44315 -4.15689  0.58808  1.02541
- -0.11958  0.48947 -0.03136  1.59867 -3.36449 -2.62629 -4.38675 -1.32201
- -0.13297  2.00819 -0.46845 -0.24054 -1.56435 -1.41844  0.13749 -1.61253
- -0.51264  3.46712 -2.13083 -1.66766 -0.53491 -5.03102  0.53345  2.06524
-  2.95115 -0.069   -0.00287  2.2484   1.88839  3.15863  1.97391 -1.06608
- -0.55132  2.16336  1.2375  -3.20581  1.09298  1.89953  2.00964  0.63287
-  0.23993 -0.46214  0.94905 -1.62312]</t>
-  </si>
-  <si>
-    <t>[ 3.63863  1.27335 -0.62261  0.45305 -4.81467  1.57064  0.14486 -6.85635
- -0.7272   4.23394  5.29857 -0.85469  0.80877  0.61164 -1.88593  0.36024
- -0.62066  0.97558 -2.61602 -0.89937 -0.725    1.06395  3.09315 -1.51647
-  3.94052  1.42738  2.64871  1.5351   0.59955  2.98949 -1.28966 -1.31963
-  4.00729  2.67016 -0.03459 -2.40777  1.15521  0.2419   3.20932  1.4857
-  1.59471  2.00523  2.09609 -0.34141  0.83129  2.03674 -0.70244  2.92526
- -0.97254 -1.74402  1.92205  1.01471 -4.76154 -2.28411 -1.29813  0.6873
- -1.04513  2.28019  0.61019 -1.39042  0.13158 -2.10723 -2.06524 -3.16723
- -1.10882 -3.24916  0.26546 -1.51868 -2.16953 -2.17416 -1.28382  0.71268
-  3.28653 -1.97604 -3.75969 -0.77879  3.39096 -2.94813 -2.00069 -6.80218
-  2.92417 -0.8932  -2.26929  1.55317  2.00038  0.96164  2.38913 -0.60834
- -2.3588  -2.63757  0.15568 -5.50176 -0.00613 -3.26987 -1.30362  0.59731
-  2.30397  1.08178 -5.83041  0.59409]</t>
-  </si>
-  <si>
-    <t>[ 4.85413 -4.38789  3.27479  0.20631  0.43689  2.16629 -0.03709  0.46821
-  0.50762  1.98523 -0.36353 -0.2047   0.35763  4.69656  0.57127 -0.84315
-  2.70374  2.02678  2.86237  2.887   -4.67714 -0.62247 -2.36684 -3.45812
- -1.07637 -6.32152 -4.17031 -0.08899 -5.90602 -2.88141 -1.15422  1.13884
-  0.90635  2.07989  1.4033   0.94393 -0.33582  1.86947  0.53976 -2.80717
- -2.32785 -3.52982 -0.65486  0.55133  2.58817 -0.3853  -1.7929   1.28154
-  2.92728  1.51511 -0.36166  2.06668  3.08451 -0.81235 -1.53065  1.74299
-  2.9907  -0.247   -1.73203  3.36184  4.74503 -3.36781  2.96251 -1.33349
- -3.34376 -1.19175 -2.45835 -0.34146 -2.29859  2.47883 -4.83904 -1.30287
-  2.69706  1.84883  1.17817  1.58434 -1.24163 -0.31336 -0.25337  4.24868
-  1.22411  2.18714  2.21715 -0.53763  0.80018 -3.77034  0.13417 -1.28595
- -2.05586 -0.98148 -0.1753  -2.45595 -0.00738 -0.19876 -0.07601 -0.20473
-  2.79603 -1.02506  1.30583  1.10152]</t>
-  </si>
-  <si>
-    <t>[ 1.37429 -0.55116  0.62202  1.85815 -1.65299  2.01112 -0.0548  -1.40692
-  2.48587 -1.22408 -0.22234  0.40722  1.36653  1.91019 -3.54045 -0.6101
- -2.3743  -5.60361  0.49053  0.61766  0.54931  0.1609   2.6225  -0.43713
-  1.8547  -1.36519 -0.30995  1.4748   1.98446  1.92458 -0.07251  2.15161
- -0.47852 -3.76425 -0.55657 -1.99071 -1.9742   1.20442 -3.43936 -2.85115
- -0.51036  2.31523  0.98595 -0.65896  1.87565  1.82494 -4.1494  -2.66364
- -1.72766  0.26741  3.6953   0.18229  0.89489 -0.31941 -0.45555 -0.24171
-  0.48358  0.45501 -1.78214  0.12844  0.49016  1.58295  0.18237  3.46423
- -1.50241  2.11515 -1.08531  0.19839 -0.59651 -0.22582 -0.97329  0.24185
- -0.04824  3.08959  1.47042 -1.40297  0.67873 -3.88556 -0.8476  -0.18459
- -0.97301 -1.26947 -2.63274 -0.7613  -2.14297 -1.33234 -2.60642  1.27597
-  0.07677  0.54726  0.96962  0.62388 -0.83816  0.75133  1.51612 -0.12135
- -1.24143  0.99863 -0.87647 -1.7748 ]</t>
-  </si>
-  <si>
-    <t>[-2.74645  3.11513  0.47063 -0.58996 -4.82732 -2.97314 -1.26072 -3.42782
-  1.79331  2.10551  2.36389 -2.52201  1.44094  0.5227  -1.98546  0.49789
-  2.46341  0.95534  0.01714  2.33094 -0.31796 -0.59237 -0.31076  3.74915
- -1.51829 -1.32295  3.67806  2.11421 -0.81289  1.78746 -0.79476 -0.3346
-  0.26345  2.13132 -0.68816  0.02062  0.55543 -0.64767 -0.73256 -0.0264
-  0.30487 -1.40983  2.25365  1.73182 -5.80387 -2.0807  -0.96842 -1.73378
- -0.97213  3.31117  0.31041  0.13899 -3.63808 -1.5649   0.29854  0.298
- -2.20909  1.2543  -2.82904 -0.60896  0.61489 -4.25663 -0.00686  0.11832
-  1.25984 -1.33273  1.3975   1.12239 -4.84137 -2.80478  4.59151 -3.20671
- -3.02236 -0.733   -0.01948 -5.64102  1.87477 -0.57402  3.12601 -2.42747
-  2.02792 -2.33445 -1.73865  2.70357  2.00274  0.18483  2.26011  1.25955
- -3.37271 -1.7276   1.52549 -4.75595 -0.23884 -3.95228  1.6919   0.26895
- -2.31958  1.68309 -3.73143  1.02988]</t>
-  </si>
-  <si>
-    <t>[ 0.32841  0.0337   4.13875 -1.06757  3.0668   0.52741 -0.52364  0.00909
- -2.49634 -0.49627  2.13398 -3.98454  3.09499 -2.66265  3.55457 -4.21702
-  4.93799  0.68366 -0.67341 -1.92077 -0.38243 -4.27316  2.39838 -1.22003
- -0.82059  2.83154 -1.58939  2.63708  0.48724  3.8121   2.2947  -1.71749
- -2.36958 -1.1211  -0.74767 -0.54037  0.84069 -1.35038 -1.74232 -0.04893
- -6.16666 -1.23886 -3.10642  2.60245 -2.73343 -1.18892 -1.63344  1.57383
-  4.32242 -0.80181  1.34393 -6.08968 -0.19253  0.64409  1.94806  0.29486
- -0.20446  3.39719 -1.61303  6.43514  2.74644 -0.15385  3.17127  3.07188
-  0.38616  2.12702 -1.69144  3.7958   0.78316 -1.06607 -1.15937  0.28738
-  0.46459  2.0538   0.5636  -0.94309  0.6231   3.60461  4.1413   0.16925
-  0.3614   0.67332 -1.29976 -0.84832 -1.54876 -2.62573  0.7591  -3.39261
- -1.68271  0.20851 -2.30168  2.3163  -4.6155   3.64166 -1.65651  0.31144
- -2.51561 -1.53968  1.33002 -0.50199]</t>
-  </si>
-  <si>
-    <t>[-0.87931 -0.30927 -1.0562   2.88794 -2.39911  0.14836  1.467    0.9838
- -1.47607 -2.04133  2.88668  1.91523  1.98306 -0.49941 -1.98752 -1.10461
-  0.14816 -0.67865  0.21223  0.13859  0.46605  0.82358  1.10086  0.57086
-  0.33933  1.35905 -0.62563 -3.72593 -0.54149 -2.86512 -5.52748 -1.30164
-  0.67172  0.16544 -0.4791   0.93653 -1.80816  2.40026  4.8655   0.72139
- -5.11007 -1.0757  -1.58724  0.96697  1.74732  0.31907 -0.65744  0.40253
-  1.24557 -0.27256  1.36762 -2.24415 -0.91962 -2.11827 -1.68478 -0.73397
- -0.31233  1.93357 -0.26554  2.16636  0.46092  0.96069  0.67079 -0.8826
- -3.64358 -1.74197 -1.16405 -0.14337  0.41226 -1.62203 -0.75389  0.9592
-  2.23698 -0.50767  0.09189  0.64663 -3.34774  1.23841 -1.76891 -0.40457
-  0.01772  1.04199  0.01788 -2.10937  0.21099 -1.94226  0.34112  0.11188
- -0.45803 -2.12842  2.38388 -0.06396  0.13389  2.04771 -1.41504  2.14954
- -1.22864 -1.40473  2.18738  3.65439]</t>
-  </si>
-  <si>
-    <t>[-0.31769 -0.43683  0.23898 -0.70054  1.45321  0.7503  -0.88724 -0.58486
- -0.14401  0.26524  0.81488  0.48076 -1.94557 -0.40844  0.90987  1.97848
- -0.80328 -0.48954  1.59736 -0.05875 -0.3431  -0.25717 -0.85798 -0.77301
- -3.23826 -1.36893  1.03874 -2.50505  0.8452  -1.06841 -2.65912  0.02498
- -0.52505  0.57863  0.82533  0.31319 -0.1886   1.51068  0.06076 -0.54056
- -0.92094  1.92653 -0.76971 -0.83827 -1.94478 -1.85101  0.47076  0.98844
-  2.1255   1.09589  1.98207 -0.70238 -1.33877 -0.97701 -0.26865 -3.36591
- -1.71131  0.15942 -1.71676  0.43477  3.38929 -2.21435 -0.98486 -0.59788
-  0.08856  0.14981  0.06211 -0.82561  1.19388 -1.83461  1.402    1.93841
- -0.18336 -0.98042  0.37436 -1.02507  0.76659  0.4765   1.07017 -0.24128
- -0.69794  1.17774  0.98449 -2.42572 -2.19457 -0.85458 -0.18367  0.45502
-  1.14519  0.28714 -2.77773  0.09136  0.76485 -0.36436 -2.01064 -3.25285
-  1.50872  0.08566  0.72889 -1.5374 ]</t>
-  </si>
-  <si>
-    <t>[-0.15753  1.82932  1.86624 -0.80551 -2.11064  1.34585 -0.16384 -0.56825
-  0.58546 -0.5302   1.50878 -1.16368  1.92073  5.71289  3.32515 -1.05213
-  0.00726 -0.66152  3.68039  3.98861 -1.92177  3.81632  0.69579 -1.3852
- -3.24297 -1.56667 -0.32009 -3.1472   1.51712  2.04793  0.12844 -0.86737
- -0.69514  2.6162  -1.18003  0.18309  0.50747 -2.07491 -2.00875 -0.33929
- -2.03126 -3.75113  2.38922  0.099   -0.13881 -2.25229 -4.38592 -1.09608
-  0.22508  2.37952 -2.63988 -1.51735 -1.79619 -1.50261  0.2811   2.84134
-  3.34731  3.32448 -4.38394  1.01704  3.71164  1.56819  0.4472   0.0768
- -2.71808 -1.70233  1.55748  2.69524  2.49385 -0.51798  0.95101 -2.38215
- -0.97365  0.01749 -0.17106 -0.4496   1.49271  2.48687  6.11633  2.0242
-  2.96195 -2.3126   2.93223  0.5634  -3.35698 -1.31934  0.32341  0.46633
- -0.80837 -0.04246 -1.74903  2.64983  0.04328  0.20699  3.49351 -0.62197
-  1.92967 -3.43705 -1.15571 -1.86398]</t>
-  </si>
-  <si>
-    <t>[-3.92958 -0.21128 -0.23931  4.65345  0.07339  0.2344   2.00875  0.35477
- -0.96518 -1.56202  4.00444 -1.28872  1.38732  0.89504 -2.56466  3.21974
- -2.34582  0.53223 -0.82348  0.32464  2.34121 -2.18406 -1.4913   2.67874
- -0.86364 -2.9585   1.63196  0.80263 -0.08127 -0.62923  1.47035 -1.96044
- -0.61092 -1.88739  1.97834  2.89409 -1.2181   1.97291  0.1603   1.12755
- -1.73448  2.50214 -1.64303 -1.08252  1.08822 -1.468    0.69383 -2.55865
-  1.96685  2.30687  0.58247 -2.75481 -0.53964 -3.44636  0.55844 -0.80441
- -0.66637  0.84468 -2.79688  1.77799 -0.90065 -3.06866 -1.90508 -0.85412
- -1.8827   0.69545 -1.96155 -0.34126 -0.77398  2.38404  0.04716  0.93696
- -0.06614 -1.40448 -0.43221  0.12117  0.94142  0.72723 -0.7521  -0.91649
-  3.96846  1.01056 -0.11873 -1.52588 -0.91848 -1.39147  3.03776  0.4546
-  0.04945  1.4349  -1.5897  -2.61867  1.21766  2.58187 -2.04216 -0.12067
- -2.59705 -0.05201  2.71418  0.07657]</t>
-  </si>
-  <si>
-    <t>[-0.69547 -0.4228  -1.60229 -1.25163  4.25482  0.53202  1.37673  0.20662
-  0.25942 -1.20415 -0.10531 -3.86172 -1.45816  2.29665  1.15503 -0.19652
- -1.319   -3.47869  3.30217 -3.97645  0.57977  3.43864  2.39157  0.56997
-  1.86332 -0.10721  0.47776  0.86779  4.22316 -1.54754 -2.88251  2.61659
- -0.28469 -1.0913   4.3359   1.6195  -0.67522  3.53349 -2.33647  3.26344
-  1.75173  0.15605 -3.50562  0.20709  2.78964  1.68913 -0.85102 -0.45768
- -0.46569 -1.52814  0.15568 -0.34697 -1.49511  2.75539  1.55103  3.71464
- -0.04302  2.32658 -2.94173 -0.36348  0.22352 -6.67851  3.12304 -2.41163
- -0.34695 -3.48883 -2.31742 -0.93852  1.99855 -0.96945  1.57671  1.14872
-  0.31079  1.92219  0.98228 -1.83168 -1.0653  -0.59666 -1.1866  -1.4049
-  3.60498 -0.41602  5.31198  0.92691 -4.26341 -1.22456  3.39969  2.02609
- -0.10933 -1.90481  3.3096  -0.67576  0.21981  0.3688   3.34082  1.20516
-  4.47907 -3.3797   1.51067  2.70031]</t>
-  </si>
-  <si>
-    <t>[ 3.45207  0.43128  2.50326 -0.23421 -3.9449  -1.50217  1.56002 -3.6048
- -2.90088  3.39111  2.78192 -0.069    2.42608  0.72659 -0.70711 -3.23243
- -0.686    0.55231 -2.7347  -0.96583 -0.58996 -0.23018  1.15944  1.1608
- -0.11097  1.02839 -1.22835  1.428   -0.33589  0.92323  2.23271 -2.67507
-  2.90379 -1.2803  -1.56717 -1.28631 -1.50426 -0.35881  0.42487 -1.38658
-  2.91116  1.74931  1.04902  0.22563 -1.54701  3.25238 -1.46327  0.03034
-  0.62532  0.61402 -1.82127  3.04834 -2.28585 -2.2246   2.17918 -0.29619
- -0.61842  1.34596  2.36555 -0.53664 -0.34501 -4.01154 -4.6229  -2.61737
- -0.10237  0.49365  0.58149 -1.86892 -2.58882 -2.73581  0.33891 -1.35498
- -0.21971  4.24729 -2.20074 -1.93688  1.68195 -3.42181 -0.7661  -0.34237
-  1.60985 -1.03798 -1.17894  2.26293  1.56803  4.33487  3.13634 -1.28965
- -2.96199 -1.42383  2.49695 -4.84968  0.70174 -0.18388  0.71144 -0.29068
-  3.45927 -0.15892 -3.23185 -0.04771]</t>
-  </si>
-  <si>
-    <t>[-0.78347 -0.8993   0.59608 -0.39179  1.83641  2.0993  -0.01131 -2.03383
- -2.20882  0.03504 -3.98234 -0.69983 -4.78745  1.74167 -0.1715   3.98095
-  0.58746 -1.24962  2.54297 -3.68294 -0.32062 -0.20382  0.25872  0.22204
-  1.45164 -0.98121  1.28471  3.5606   0.57912 -2.87181  0.59679 -0.71902
- -0.4782  -0.74024 -0.52228 -3.22241 -0.52932 -2.15182  0.73858  2.57391
- -0.35947 -0.0241   2.05296 -0.10592 -0.4309  -0.89176  0.47656 -1.77939
- -1.66184 -2.04559  1.36283  0.93242 -0.12214 -2.19569 -0.64661 -0.17637
- -1.91265 -2.48477 -1.04608 -0.90679  0.22334  0.28343  1.03168 -1.08441
- -0.32595  0.82705 -2.12722 -0.04458  0.30434 -1.82139 -0.26911  1.95973
-  1.86128  1.78169 -0.93162 -1.80462 -0.63234  1.12104  2.12614  0.36872
-  1.07116 -0.59198  0.86818 -1.31563 -1.74472 -1.23303 -0.27469  2.05958
- -1.75469 -1.65936  2.43387  0.02442  0.12075 -1.781   -2.65529  1.04955
-  0.14489 -0.56187  0.27633  1.71376]</t>
-  </si>
-  <si>
     <t>[ 0.20362  1.95148 -0.98891  0.6859  -2.17962 -0.72654  0.62973 -1.82522
  -2.10339  0.37614  0.0779  -1.54833 -1.13089  0.78339  0.88842  1.5838
  -1.35587 -1.13226 -0.56801 -4.15289 -0.38116  0.0165  -1.07498  0.05522
@@ -1114,36 +970,6 @@
   0.04503 -0.76482  0.05888 -1.14846]</t>
   </si>
   <si>
-    <t>[-0.61203 -0.06866 -2.34163  3.5911  -1.22977  1.34437  1.30856 -1.96996
-  0.97866  2.43331  0.87866 -0.90594  0.48753 -0.34413 -3.06079  2.26139
-  1.74302 -4.35608  4.37602  0.48816 -1.2936   1.30841 -1.46258 -2.49841
-  1.84913 -2.17643 -4.50388 -0.95868  3.26429  2.92176  1.90477  4.77773
- -2.09872 -2.10644  0.28013 -3.11137  2.49241  1.59102 -3.14342 -1.29013
- -5.14272  4.13222  1.23258 -0.46262  1.40997  1.59694 -1.39134 -2.95669
- -2.15879  3.36601  0.20568 -0.31311 -0.11672 -1.57673 -1.21769  4.38313
- -0.10804 -0.18703  0.26397 -2.06061  1.50949 -1.00911  1.10557  6.22195
- -4.83167  2.3121  -2.00683 -2.37198 -1.64408  2.40778  1.78085 -1.19281
-  2.35959  1.96739 -0.26096 -2.31047  2.61496 -4.20119 -1.03938  2.02005
- -0.80588 -1.48796 -2.32563  1.55086 -0.75972  0.23337 -2.6152  -0.27617
- -1.3192  -1.7858   0.44869  1.21104 -1.52184  4.18452  0.9646   2.54152
-  0.02688 -0.33636 -0.91583 -1.8343 ]</t>
-  </si>
-  <si>
-    <t>[ 0.95053 -0.17759 -0.33569  1.40418 -0.85698  1.47441  0.50288  0.48707
- -3.03443  0.66978 -3.23734 -0.45618  1.2332  -0.14869  1.0052  -1.77629
-  1.58897  0.09823 -0.18964 -2.15202 -2.95458 -2.06776 -1.87796 -0.32052
- -0.0821  -2.55134 -0.63825  0.27646 -0.8225   0.22248 -3.05831 -1.68275
- -0.34476 -0.00315  0.34111  0.2007  -2.4244   1.14184 -0.12627 -0.91172
- -0.1324   0.09051 -1.40047  0.39295 -0.26641 -0.61673 -0.54881 -0.3422
- -1.76292 -0.49627  1.07966  0.22354  0.78132 -0.91841 -2.92415 -0.91021
- -1.95174  1.46845 -0.83299 -1.87266  1.66471 -2.24237  1.08252  1.19607
-  2.22127  0.20229  0.46842  1.20561 -0.97233  1.18715 -1.15828 -0.67632
-  1.50561 -0.55567  1.69389  0.43301  0.10217  0.34189  1.28986 -4.59514
- -2.27202 -0.6873   1.53194 -1.5709   1.88714  0.00673 -0.38601  0.94836
-  0.22668 -0.5165  -0.73178 -3.00327  1.72618  1.58059 -1.24326  0.53569
-  0.69225 -1.18797 -0.40357  0.20218]</t>
-  </si>
-  <si>
     <t>[ 3.03686 -2.23334  1.96035 -0.37196 -3.82958  0.30161  3.87843 -1.96036
  -1.8677   3.10488  4.96465  1.58396 -1.53338 -2.94024  0.5488   1.09904
  -2.21772  0.68162  1.52847  0.90261  0.33259  1.2754  -2.27535 -1.20394
@@ -1159,19 +985,49 @@
   1.20451 -0.30659 -0.82897 -4.23737]</t>
   </si>
   <si>
-    <t>[-0.7290017604827881, -0.3475070297718048, 1.052086591720581, 0.8436657786369324, -0.2762925326824188, -0.8778679966926575, -0.3745618164539337, 0.08753640949726105, 0.1840689778327942, 0.7385781407356262, 1.3854349851608276, 0.9895352125167847, 0.9508643746376038, 0.589000940322876, -0.3397058844566345, 1.4346332550048828, 0.1312362253665924, -0.7495526075363159, 0.02058687061071396, 0.33524373173713684, 0.8037108182907104, 0.487129271030426, 0.1289176642894745, 0.7948746085166931, -0.9615205526351929, 0.44072964787483215, 0.38815784454345703, -0.33442121744155884, -0.5951836109161377, -1.1850762367248535, -2.6819894313812256, -1.4307924509048462, -0.908348023891449, -0.16455064713954926, 2.2701234817504883, -1.0261132717132568, -0.6523522734642029, 0.5699131488800049, 0.5426771640777588, 1.0515636205673218, -2.9516348838806152, -0.5554113388061523, 0.8374337553977966, 0.38128072023391724, -1.2595492601394653, -0.13107825815677643, 0.7494032979011536, -0.24342595040798187, 0.3654473125934601, -0.8170538544654846, -0.6874986886978149, -1.6079185009002686, -0.851131796836853, -0.7305514812469482, -1.0874394178390503, -0.23718157410621643, 0.25990045070648193, 1.4385406970977783, -0.7656926512718201, 2.588175058364868, 0.3115992844104767, -0.23873469233512878, 0.511689305305481, -0.4949415922164917, -2.905484199523926, -1.5937707424163818, -0.9816672801971436, -0.08643246442079544, 1.180544376373291, 0.32323214411735535, -0.655080258846283, 0.7616799473762512, 1.1041884422302246, -0.043863292783498764, 0.6173951029777527, 1.03947114944458, -1.0388349294662476, 1.107900619506836, 0.9007043242454529, -0.43312257528305054, 0.9803274869918823, -0.24129469692707062, 0.38241294026374817, -0.9463724493980408, 0.1384912133216858, -0.031607113778591156, -0.18009696900844574, 1.5542778968811035, -0.676224410533905, -1.1355782747268677, -0.5404942631721497, 0.22684067487716675, 0.06814587116241455, 0.3564457595348358, 0.04216447100043297, 0.4676235616207123, 0.7385873198509216, -0.1632954180240631, 1.6386921405792236, 0.4406733214855194]</t>
-  </si>
-  <si>
-    <t>[0.912032425403595, 0.07902336120605469, 0.6663172245025635, 0.7396209836006165, -1.599866271018982, -0.4387149214744568, 0.028948267921805382, -1.9142355918884277, -2.0866496562957764, 0.842518150806427, 1.9479305744171143, -0.6515361070632935, 1.064003825187683, 0.8390200138092041, -0.6185696721076965, -1.4804011583328247, 0.16321216523647308, 0.25804421305656433, -1.5287476778030396, -1.091635823249817, 0.5703321099281311, -0.8201845288276672, 0.687930166721344, 0.6938654184341431, 0.38037437200546265, 0.027352508157491684, 0.437452495098114, 0.9261115789413452, -1.026229739189148, 0.6747223734855652, 0.8367691040039062, -1.7700340747833252, 0.19608977437019348, -0.34865614771842957, -0.9747685790061951, -0.5518754720687866, -1.2289496660232544, -0.28522005677223206, 0.25454989075660706, 0.6649724245071411, -0.12259512394666672, 1.0769760608673096, -0.1443183273077011, 1.293809413909912, -0.7281467318534851, 1.052432894706726, -0.5018643736839294, 0.24750782549381256, 0.2440379112958908, 0.6914091110229492, 0.13088341057300568, -0.5031014084815979, -1.5902130603790283, -0.9307483434677124, 0.7643518447875977, -0.07664377242326736, -0.7070796489715576, 1.4938616752624512, -0.18383915722370148, 1.2559731006622314, -0.5774400234222412, -2.423962116241455, -1.7724754810333252, -0.43473511934280396, -0.21236750483512878, 0.36363378167152405, -0.5195102095603943, -0.14429481327533722, -1.1522305011749268, -0.512592613697052, 0.47279155254364014, -0.19489744305610657, 0.09405583888292313, 1.3636680841445923, -1.5617890357971191, -0.8691383004188538, 1.1448187828063965, -0.6946238279342651, 0.11696041375398636, -1.2431131601333618, 1.5131653547286987, -0.9916114211082458, -0.8736679553985596, 0.35173511505126953, -0.044570788741111755, 1.3732428550720215, 1.4933466911315918, -0.36246663331985474, -1.2420458793640137, -0.07880811393260956, 0.20079749822616577, -2.163358211517334, -0.5208554863929749, 0.28931841254234314, -0.22736911475658417, 0.3051227629184723, 0.23898597061634064, -0.49450036883354187, -0.7852247953414917, -0.7485657334327698]</t>
-  </si>
-  <si>
-    <t>[-0.8235679268836975, -0.5697928071022034, 0.27435022592544556, -0.30133071541786194, 0.6075266599655151, 0.887039840221405, -0.06714561581611633, -0.6963291168212891, -0.7363327741622925, 0.27078670263290405, -0.6805309653282166, 0.020476343110203743, -1.6434944868087769, 0.6259177327156067, 0.3843004107475281, 0.8909624814987183, 0.7819424867630005, -0.328151136636734, 0.5859248042106628, -1.0108857154846191, 0.4723522365093231, -0.826115071773529, -1.0676597356796265, -0.4745468199253082, -0.8748841285705566, -1.2566086053848267, 1.0238544940948486, 0.31364575028419495, 0.27730298042297363, -0.3391551077365875, -1.6587570905685425, 0.21548306941986084, -0.7715343832969666, -0.2652847468852997, 0.7754073143005371, -0.06343711167573929, -0.74874347448349, 0.8811120390892029, 0.5104972720146179, 1.1568269729614258, 0.46198830008506775, 0.18071837723255157, -0.5080883502960205, 0.28700166940689087, 0.25526586174964905, -0.41924354434013367, 0.06607451289892197, 1.101804494857788, 0.06112080067396164, -0.043884921818971634, 0.176665261387825, -0.4800497889518738, -0.22033479809761047, -0.40247154235839844, -0.3310173451900482, -0.6282245516777039, 0.16681651771068573, 1.014266014099121, -1.950939416885376, 0.24474047124385834, 0.9372228980064392, -1.9227116107940674, 0.07235925644636154, -1.1265954971313477, 0.6465578079223633, -0.8997129797935486, -0.4377731680870056, -0.2187202274799347, 0.727565348148346, -0.2572780251502991, 0.2379240244626999, 1.1033909320831299, 0.5333713293075562, 0.5688828825950623, -0.13187621533870697, -0.10374375432729721, 0.8806649446487427, -0.3772258460521698, 0.9601938128471375, -0.6705365180969238, 0.2596449553966522, -0.5029006600379944, 0.5448516607284546, -1.1775572299957275, -1.3038644790649414, -0.35125142335891724, 1.3202857971191406, -0.30951833724975586, 0.42944401502609253, 0.1911575347185135, -0.3959093391895294, -1.0286831855773926, 0.7338323593139648, 0.3717215955257416, -0.6071510314941406, -0.367918461561203, 1.574139952659607, 0.10106832534074783, 0.49102920293807983, -0.06633777171373367]</t>
-  </si>
-  <si>
-    <t>[-0.27183979749679565, -0.8657850027084351, 1.0634745359420776, 0.7444802522659302, -0.3354054093360901, 0.5824159979820251, 0.45003747940063477, -0.1445935219526291, -0.25518447160720825, 0.3630228638648987, 1.1408475637435913, 0.274099737405777, -0.09507238864898682, 1.5526434183120728, 0.9737452268600464, 0.8195151686668396, -0.6923699378967285, -0.08376610279083252, 0.9243057370185852, 0.43195629119873047, 0.10928226262331009, 1.000266671180725, -0.6149455308914185, 0.15092618763446808, -0.21094579994678497, -0.33423036336898804, 0.3497919738292694, -0.7734190821647644, 0.1499737948179245, 0.05360887572169304, -0.8276026844978333, -0.5578941106796265, -1.2648820877075195, -0.41021567583084106, 1.3655787706375122, 0.25379306077957153, -1.3267982006072998, 0.942383885383606, 1.0295689105987549, 1.7871911525726318, -0.11942131817340851, 0.886644721031189, 1.5463825464248657, 0.18150602281093597, -0.2549605667591095, 0.22871483862400055, -0.7406176328659058, -1.4275856018066406, 1.2806625366210938, -1.0078846216201782, -1.205892562866211, -1.0065847635269165, -0.5330644845962524, -0.081059031188488, -0.531701922416687, 0.5124251246452332, 1.9545354843139648, -0.7791404724121094, -1.11379873752594, 0.9396337270736694, 0.41973623633384705, -0.41004058718681335, 0.14298920333385468, 0.7175353169441223, -0.24377906322479248, -1.2400214672088623, -1.5715227127075195, 0.003164555411785841, 1.2551220655441284, 0.21621550619602203, -0.5953575968742371, 0.012118367478251457, -0.5008842349052429, -1.01594078540802, 0.2027786523103714, -1.7490365505218506, -0.31522512435913086, -0.6465445160865784, 2.128002166748047, -0.723976731300354, -0.5956955552101135, -2.1831705570220947, 0.9754476547241211, -0.25927501916885376, -2.022787094116211, -0.3385486602783203, -0.2519806921482086, -0.33644863963127136, 0.4085734188556671, -0.48305049538612366, 0.29036927223205566, 0.8987817168235779, -1.0952816009521484, -0.6888195872306824, -0.10436324775218964, -0.04271285980939865, 1.41781485080719, 1.581804871559143, -1.8643676042556763, -1.2336876392364502]</t>
-  </si>
-  <si>
-    <t>[-0.5179760456085205, -1.0823153257369995, -0.3085159957408905, 0.06433320045471191, -0.7184696793556213, 0.5723862051963806, 0.3221379518508911, -1.0198637247085571, 2.752385139465332, -0.9734184741973877, 0.396297425031662, -1.3351508378982544, 0.17918339371681213, -0.4513261020183563, -1.4368948936462402, 0.7487871646881104, -0.29177457094192505, -3.5438807010650635, 0.911438524723053, 0.9830272197723389, -1.085718035697937, 0.7545062899589539, 0.9025234580039978, -0.7779236435890198, 0.012024554423987865, -0.14567628502845764, -1.5150363445281982, 0.9127487540245056, 1.311834692955017, 1.0934765338897705, 1.3419948816299438, 1.0186976194381714, -0.30419445037841797, -3.017139196395874, -0.5543723106384277, -2.0189826488494873, 0.7475221753120422, 0.7039927244186401, -1.9881130456924438, 0.16741351783275604, -1.0948165655136108, 3.4030921459198, -0.9799411296844482, 0.8576520681381226, 1.2300959825515747, -0.4614350199699402, -1.877770185470581, -0.2656022310256958, -0.8447352051734924, -0.6777470111846924, 2.618877649307251, -1.40884530544281, 1.3290265798568726, -1.2190011739730835, -0.4462107717990875, 0.5293559432029724, -0.786619246006012, -0.41862890124320984, 0.8548910021781921, -0.2015240639448166, 1.1147996187210083, 1.6785136461257935, -0.742536187171936, 2.206413507461548, -0.45512068271636963, 2.2970292568206787, -0.5293224453926086, 0.594078004360199, 0.5591890215873718, -0.08337404578924179, -0.21415363252162933, -1.2783538103103638, 2.6957597732543945, 0.9003351330757141, 0.09808698296546936, -0.9280612468719482, 0.5593435168266296, -1.2199991941452026, -0.6318202614784241, 1.7164736986160278, -0.42331644892692566, 1.3045620918273926, -0.7460641264915466, 1.48787260055542, 0.4705137014389038, -1.5431632995605469, -0.21952633559703827, 0.6184402108192444, -0.09650232642889023, 0.5165209174156189, 1.5925685167312622, 0.6232383847236633, -1.4153910875320435, 0.8512697815895081, 1.02239191532135, -0.2513209879398346, -0.5992780327796936, 0.7137686610221863, -0.2393648773431778, -0.5367080569267273]</t>
+    <t>[ 0.87336 -0.84653  0.03346  0.37994 -1.90536  2.19341  0.35069 -1.31081
+ -3.33053 -0.24754 -0.9769   0.51571 -1.1037  -0.77387  0.61423  0.05329
+  0.45306 -0.42217  2.40062 -0.64322  0.8783  -1.06708 -0.24039  1.14969
+  2.56505 -0.99729  1.54299  1.21072 -0.55848 -0.29355 -0.87352 -0.22619
+  0.01135  0.26554 -0.32819  0.85484  0.38837  2.2273   1.07215  1.96369
+  2.13225  1.0175   1.82766  1.1472  -0.70558 -0.03141 -0.16941 -0.12412
+ -1.42464  0.26082 -0.56344 -0.85448 -0.65003  0.93732 -1.86408 -0.7981
+  0.01663 -0.89417 -0.5634   0.6765   0.9456  -1.46219  0.87465 -0.62425
+  0.49717 -0.91773 -1.66162  0.24895 -2.05512  1.07196  0.72904  0.41491
+ -0.4525  -0.42601  0.92505 -0.75475 -0.81716 -0.07523  0.6266  -1.44176
+ -1.86915 -1.6026   0.56845  0.05475  0.42753 -0.64898 -0.65718  0.00319
+ -2.21767 -0.55488 -0.63345 -0.91438  0.20852 -1.04426 -1.3836   0.6865
+  0.95576 -0.90321 -2.58687 -1.74687]</t>
+  </si>
+  <si>
+    <t>[-1.57593 -0.9644  -0.80759  4.42573  0.30337  0.3482  -0.67471 -1.66992
+  4.53519 -2.51783  1.4792   0.91206 -1.69322  1.58259 -1.8075  -1.81426
+ -0.90678 -6.24752  2.08079  1.03081 -1.90449  1.00715  1.85174 -4.47866
+  0.82359 -3.34984 -1.58582 -0.42335  4.10919  1.40587 -3.42949  2.03476
+  0.38148 -4.06397  0.27183 -2.30938 -0.42378  1.0247  -4.13489 -3.26448
+ -0.95515  1.76123  1.73653 -1.83508 -0.06283  0.21376 -2.0486  -3.25176
+ -4.54714 -1.30328  4.31249  0.54089 -0.32404 -3.23802  1.0482  -0.16928
+ -3.7792   0.76811 -0.74394  1.53101  3.10362 -0.32459 -0.45895  2.20522
+  1.37226  3.39334 -1.05523  2.90597  1.26197  0.92721 -3.24109  0.08228
+  0.93881  3.48309  0.32716 -2.46029  3.17711 -3.93293  0.15598  2.69654
+ -1.62462  0.03554 -1.79621  1.56303 -3.0513  -2.99531 -3.99426  1.86376
+ -2.1194  -0.43432  0.90371 -2.42708  0.29234  0.54302  1.83569  0.15487
+ -2.27606 -1.01215 -0.21332  1.93439]</t>
+  </si>
+  <si>
+    <t>[-1.068853497505188, -1.0766085386276245, 0.37683773040771484, 0.06032714992761612, -0.3660004138946533, 0.7520179748535156, -0.061955198645591736, -0.81477290391922, -0.7066503167152405, 0.5097805857658386, 1.4246951341629028, 1.272681713104248, -1.0113636255264282, 1.047940969467163, 0.1892441362142563, 1.3597633838653564, 0.13288062810897827, -0.342673122882843, -0.10438483208417892, 0.003353862091898918, 1.2268620729446411, -0.12320426106452942, 0.3673602342605591, -0.08580082654953003, -0.3238118588924408, 0.45413240790367126, 1.4043186902999878, -0.49986228346824646, 0.4002889096736908, -0.20832675695419312, -1.6763559579849243, -0.5415034890174866, -0.4750399887561798, -0.35063546895980835, 1.5957860946655273, -0.0656212568283081, -0.6773341298103333, 1.0518304109573364, 1.26251220703125, 1.4081926345825195, -0.3768928050994873, 0.09940619766712189, 0.8635618090629578, -0.28643497824668884, 0.10586387664079666, -0.26550331711769104, 0.4484453499317169, 0.7221032977104187, 1.482392430305481, -1.1697309017181396, -0.9667278528213501, -1.617537021636963, -0.9165350198745728, -0.9252097010612488, -0.7964255809783936, -0.11262267827987671, 1.3080332279205322, 0.3804725706577301, -0.3996240198612213, 1.511383295059204, 0.24006535112857819, -0.5190913081169128, -0.3348856270313263, -0.7957401275634766, -0.4564840793609619, -1.7016493082046509, -0.3236507475376129, -0.9550362825393677, 1.0985422134399414, 0.2972409725189209, 0.15228882431983948, 1.2760887145996094, -0.1429215371608734, 0.1812780648469925, -0.5040590763092041, -0.616858720779419, 0.24896307289600372, -0.496455579996109, 1.0992705821990967, -1.1173675060272217, -0.5715881586074829, -1.6226873397827148, 0.13843171298503876, -1.2249324321746826, -0.7355586290359497, -0.33281439542770386, 1.147450566291809, 0.004034231882542372, -0.2921929657459259, -0.5548760294914246, -0.1759953647851944, -0.35158470273017883, -0.4057347774505615, 0.001446794020012021, -0.9598528742790222, -0.28162649273872375, 1.626542091369629, 0.8431490659713745, -0.6805193424224854, -0.31311723589897156]</t>
+  </si>
+  <si>
+    <t>[0.379406601190567, -0.2880587577819824, 0.9782174229621887, 0.6058465838432312, -0.7477608919143677, -1.6244008541107178, -0.5043296813964844, -0.5817140340805054, -1.2706429958343506, 0.5563386082649231, 1.4003756046295166, 0.02852601185441017, 1.4861615896224976, 0.7426185011863708, -0.7059831619262695, -0.8636118769645691, -0.3452374041080475, 0.06812011450529099, -1.4262762069702148, -0.8604040145874023, 0.6306856274604797, -0.547844648361206, -0.41403523087501526, 1.245773196220398, -0.5657440423965454, 0.2825888991355896, 0.12172681838274002, 0.7338185906410217, -1.655035138130188, 0.08019835501909256, 0.5960369110107422, -1.803466558456421, -0.9975132346153259, -0.4521805942058563, 0.2560373842716217, -0.704948365688324, -0.9760174751281738, -0.3949730098247528, -0.35633543133735657, 1.42954421043396, -1.080726981163025, 0.6984133720397949, -0.3792645037174225, 1.1138607263565063, -1.037103533744812, 1.529967188835144, -0.47399404644966125, -0.02781694196164608, -0.47999605536460876, 0.650736391544342, -0.8542929887771606, -0.2768386900424957, -1.2647360563278198, -0.776334822177887, 0.8777391314506531, -0.4789825975894928, -0.6383940577507019, 2.2406036853790283, -0.8091629147529602, 1.3778440952301025, -0.6778084635734558, -2.279366970062256, -2.466217041015625, -0.8410922288894653, -1.5438441038131714, -0.010920524597167969, -1.2799646854400635, 0.6285192370414734, -0.2342148870229721, -0.5736130475997925, -0.43401744961738586, 0.3044278919696808, 0.3027607798576355, 1.6283081769943237, -0.8518255352973938, 0.44539570808410645, 0.8544334769248962, -0.4149898886680603, -0.22944499552249908, -0.11011017858982086, 2.3210692405700684, -0.3573322594165802, -0.7942004799842834, 0.05953007563948631, -0.5889373421669006, 1.9180153608322144, 1.0009602308273315, 0.25587770342826843, -0.42164501547813416, -0.27784085273742676, -0.4695608913898468, -1.1110435724258423, 0.09193436801433563, 1.1310787200927734, 0.518416166305542, 0.7972860336303711, 0.5011512041091919, -0.7176303863525391, 0.7904677391052246, -0.6858820915222168]</t>
+  </si>
+  <si>
+    <t>[0.9122081398963928, -0.4305449426174164, 0.20560599863529205, 1.3383313417434692, -1.013768196105957, 0.7836482524871826, 0.9115901589393616, -1.0963729619979858, -1.369317889213562, 0.8591480255126953, -0.1480804979801178, -0.19957421720027924, -0.01924513652920723, 0.8092067241668701, -0.13382269442081451, -0.5564461946487427, 0.9963405728340149, -0.5001417994499207, 0.3308669328689575, -0.7061587572097778, -0.5356296896934509, -0.31191885471343994, -0.7424736618995667, 0.23114360868930817, -0.17474308609962463, -1.8432044982910156, -0.14126954972743988, 0.6237251162528992, -0.8738601207733154, -0.48814499378204346, -2.0498998165130615, -0.6401676535606384, 0.033511947840452194, -0.10137882828712463, -0.0816119834780693, -0.2565973997116089, -1.9297598600387573, 0.9525319933891296, 1.5440688133239746, 0.13335038721561432, -0.29543039202690125, 0.019089488312602043, 0.3341788351535797, 1.4576820135116577, -0.052474912256002426, -0.1805925965309143, -0.22148481011390686, -0.2374751716852188, -0.6707826256752014, 0.2178967446088791, 0.8020196557044983, -0.46851226687431335, -0.07338264584541321, -0.22569289803504944, -1.3463507890701294, -0.332143098115921, 0.6376366019248962, 0.17626425623893738, -0.7079731225967407, 0.7903072834014893, 1.0615373849868774, -1.2419214248657227, 0.8914023041725159, -0.4113263785839081, -0.5103415250778198, -0.7704532742500305, -0.5238806009292603, -0.36208561062812805, -0.2229267954826355, 0.8403831720352173, -0.645548403263092, -0.4695100784301758, 1.6316367387771606, -0.3589354455471039, 0.5277087688446045, 0.023968512192368507, -0.44403839111328125, -0.05728357657790184, 0.7676477432250977, -1.2809242010116577, -0.47065457701683044, -0.4802964925765991, 0.1534719467163086, -0.6530747413635254, 0.01665809005498886, -0.2747836709022522, -0.29550066590309143, 0.3404688835144043, -0.5362575650215149, 0.05968496575951576, 0.25926151871681213, -1.0568362474441528, 0.6306787133216858, -0.3766893148422241, -0.7867240905761719, 0.35503068566322327, 0.31351611018180847, 0.004788788966834545, -0.08745545893907547, -0.3875550925731659]</t>
+  </si>
+  <si>
+    <t>[-0.8070507049560547, -0.5204451680183411, 0.4205999970436096, -1.6039025783538818, -0.022004911676049232, 0.5755600333213806, 0.9678052067756653, -1.7318569421768188, 4.079970836639404, -1.6911704540252686, -0.12010131776332855, -1.4148261547088623, 0.5065413117408752, -0.18758590519428253, -0.8533323407173157, 1.1624611616134644, -1.01606285572052, -2.7933967113494873, 0.9001666307449341, 1.7494354248046875, -0.5781527757644653, 1.8798314332962036, 0.9739593863487244, -0.812640368938446, -1.5988229513168335, 0.43096449971199036, -1.3727922439575195, 0.3461025059223175, 1.3882572650909424, 1.4180126190185547, 0.7881617546081543, 1.1582998037338257, -0.12279144674539566, -2.5470194816589355, -0.9524906277656555, -1.613627552986145, 1.4829280376434326, -0.9417240023612976, -2.0352978706359863, 0.44533205032348633, -1.9937702417373657, 2.428382158279419, -1.5066907405853271, 0.8676561713218689, 0.8959835171699524, -2.4532601833343506, -1.6329389810562134, 0.1928974837064743, -0.04231686145067215, -1.551584243774414, 2.071239948272705, -1.758712887763977, 1.9594151973724365, -1.8586503267288208, 0.008054201491177082, 0.5280725955963135, -0.528098464012146, 0.4483555257320404, 0.3506723940372467, -0.3072626292705536, 2.0488078594207764, 1.972503662109375, -0.9612120389938354, 0.8784039616584778, -0.686609148979187, 1.694766879081726, -0.5152696371078491, 1.6966382265090942, 2.387024164199829, 0.5292143821716309, -0.35104936361312866, -1.346198320388794, 2.0403528213500977, 0.7511210441589355, 0.42284685373306274, -1.7582292556762695, 0.10732237994670868, 1.0449703931808472, 0.9949732422828674, 2.5825517177581787, 0.8306248784065247, 1.1242622137069702, -0.05268073081970215, 1.2372785806655884, 0.18198302388191223, -2.6360182762145996, 0.0984174832701683, 0.6811366081237793, -0.4299570620059967, 0.4452957808971405, 1.040934443473816, 0.5481723546981812, -2.0319631099700928, 1.3611310720443726, 1.6625909805297852, -0.7546022534370422, -0.6054282784461975, 0.20324386656284332, -0.2661272883415222, -0.3458799719810486]</t>
+  </si>
+  <si>
+    <t>[0.05820653587579727, -1.0571924448013306, -0.08608873933553696, 1.2843700647354126, -0.6651155948638916, 0.6225327849388123, 0.3055892884731293, -0.41552311182022095, 0.9850858449935913, 0.264119952917099, 1.4022185802459717, -0.7259636521339417, -0.4835898280143738, 0.534331202507019, -0.6109013557434082, 0.1302320808172226, -0.14614370465278625, -3.497410535812378, 1.8837169408798218, 0.20986643433570862, -1.0843437910079956, 0.7741007804870605, 0.5112212896347046, -0.9715173840522766, 1.0612399578094482, -1.4704608917236328, -0.658659815788269, 0.9301576614379883, 1.5894677639007568, 0.44442638754844666, -0.7040923237800598, 1.0723429918289185, -0.664763331413269, -2.128624439239502, 0.9865446090698242, -1.297666311264038, -0.7315016984939575, 1.6619224548339844, -1.9881442785263062, 0.39443355798721313, -0.11337409168481827, 2.4431490898132324, 0.13398626446723938, 0.2948434054851532, 1.3772422075271606, 1.245914340019226, -1.8898309469223022, -1.771288275718689, -1.0344558954238892, 0.46324166655540466, 1.4937411546707153, -0.5512032508850098, -0.3958878517150879, -0.04747185856103897, -0.41314998269081116, 1.2799619436264038, -0.08870501816272736, 0.1522587686777115, -0.8532729148864746, 0.741744875907898, 0.3317360281944275, -0.462939590215683, 0.9257588386535645, 2.4812369346618652, -0.4184351861476898, 0.7194607853889465, -0.8253213167190552, 0.5638445019721985, -0.40036678314208984, -0.4667312502861023, -0.5703290104866028, -0.6326584815979004, 1.5902931690216064, 0.9101964831352234, -0.25129640102386475, -0.9954982995986938, 1.193395972251892, -2.642768144607544, -0.39133480191230774, 0.2516513466835022, -0.31024065613746643, -0.30327749252319336, 0.5783730745315552, 1.415913701057434, -1.0090423822402954, -0.7386086583137512, -0.5744884014129639, 0.3838663697242737, 0.32633885741233826, -0.292106956243515, 1.419404149055481, 0.5140400528907776, -0.6236616969108582, 0.20826084911823273, 1.3339202404022217, 0.08336769789457321, 0.39310383796691895, 0.02971668168902397, -0.17672967910766602, -0.9768714904785156]</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1566,159 +1422,159 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D2">
-        <v>0.4931944981685705</v>
+        <v>0.5202937438149688</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I2">
-        <v>0.3894992551338157</v>
+        <v>0.4461250497613595</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D3">
-        <v>0.3761733319663492</v>
+        <v>0.3642175866975277</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>-1</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="I3">
-        <v>0.7610251144618498</v>
+        <v>0.6786157999758247</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D4">
-        <v>0.1191216984064191</v>
+        <v>0.1208005366899903</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>-1</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="I4">
-        <v>0.5692987392200788</v>
+        <v>0.5043918654031537</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>0.1037251897556196</v>
+        <v>0.1066987162701424</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>-1</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="I5">
-        <v>0.5620554006626708</v>
+        <v>0.6987131833603082</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>0.09641862752266046</v>
+        <v>0.1048420020325752</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>-1</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="I6">
-        <v>0.4848722746226296</v>
+        <v>0.5917927967568852</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -1726,130 +1582,130 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.09456743584349972</v>
+        <v>0.09984994701292842</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>-1</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="I7">
-        <v>0.3770672110386136</v>
+        <v>0.6979192606082897</v>
       </c>
       <c r="J7">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D8">
-        <v>0.0883703228645949</v>
+        <v>0.09981629424680105</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>-1</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="I8">
-        <v>0.8519862929038413</v>
+        <v>0.3228102862241429</v>
       </c>
       <c r="J8">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.08764430946455214</v>
+        <v>0.09295404006348496</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>-1</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I9">
-        <v>0.5271695641238567</v>
+        <v>0.8202786165096911</v>
       </c>
       <c r="J9">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>0.08688474773340155</v>
+        <v>0.08954344558145981</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I10">
-        <v>0.8215382358069278</v>
+        <v>0.53497701284639</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1860,45 +1716,45 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>0.08654741337862226</v>
+        <v>0.0882979989016765</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>-1</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="I11">
-        <v>0.4326522173057782</v>
+        <v>0.4310883613818657</v>
       </c>
       <c r="J11">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>0.08593554600621785</v>
+        <v>0.08448784685018502</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1907,109 +1763,109 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="I12">
-        <v>0.3677741177899734</v>
+        <v>0.4211684217216122</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="D13">
-        <v>0.08461136402081916</v>
+        <v>0.08428642870057061</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>-1</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="I13">
-        <v>0.4669659363243673</v>
+        <v>0.6815118991941562</v>
       </c>
       <c r="J13">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D14">
-        <v>0.08448103458299944</v>
+        <v>0.08248417349355665</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H14" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="I14">
-        <v>0.4245721508032457</v>
+        <v>0.4799506533825559</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D15">
-        <v>0.08405367258662434</v>
+        <v>0.07892512385532577</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15">
+        <v>0.6920988904315677</v>
+      </c>
+      <c r="J15">
         <v>4</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15">
-        <v>0.5449680669636796</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2020,380 +1876,380 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D16">
-        <v>0.08335029179765766</v>
+        <v>0.07629348362029068</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>-1</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="I16">
-        <v>0.4789359008978749</v>
+        <v>0.3931193080575335</v>
       </c>
       <c r="J16">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>0.08302966662931863</v>
+        <v>0.07424441701001852</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>-1</v>
       </c>
       <c r="H17" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I17">
-        <v>0.4179768487601011</v>
+        <v>0.6427198295040257</v>
       </c>
       <c r="J17">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
       <c r="C18">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>0.08014877581361539</v>
+        <v>0.07170713049778707</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>-1</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I18">
-        <v>0.5485326298601609</v>
+        <v>0.845642536447152</v>
       </c>
       <c r="J18">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19">
-        <v>85</v>
+        <v>498</v>
       </c>
       <c r="D19">
-        <v>0.07864158461199346</v>
+        <v>0.07095170207888529</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I19">
-        <v>0.4554975476075069</v>
+        <v>0.3302298224840415</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>0.07545623219374228</v>
+        <v>0.07073886730683361</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <v>-1</v>
       </c>
       <c r="H20" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="I20">
-        <v>0.4872070426575781</v>
+        <v>0.5977849874729602</v>
       </c>
       <c r="J20">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>0.07303813805352666</v>
+        <v>0.06994051275144389</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>-1</v>
       </c>
       <c r="H21" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="I21">
-        <v>0.6137785568545662</v>
+        <v>0.6173629000976795</v>
       </c>
       <c r="J21">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>0.07062089649955114</v>
+        <v>0.06980680190796086</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="I22">
-        <v>0.5739935761391439</v>
+        <v>0.3646128859840794</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>0.06813532520764151</v>
+        <v>0.06865989524750615</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>-1</v>
       </c>
       <c r="H23" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="I23">
-        <v>0.8298756355700905</v>
+        <v>0.2253732698890594</v>
       </c>
       <c r="J23">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
       <c r="C24">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>0.0676456603339118</v>
+        <v>0.06739769433447705</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <v>-1</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="I24">
-        <v>0.6724048449128892</v>
+        <v>0.4572307459961181</v>
       </c>
       <c r="J24">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D25">
-        <v>0.06756053315283377</v>
+        <v>0.06616918350325782</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>-1</v>
       </c>
       <c r="H25" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="I25">
-        <v>0.366469191667491</v>
+        <v>0.6178148512406954</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
       <c r="C26">
-        <v>498</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>0.06755598318638362</v>
+        <v>0.06579478723135924</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H26" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I26">
-        <v>0.4131123527308606</v>
+        <v>0.7753407465813971</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D27">
-        <v>0.06724657056803716</v>
+        <v>0.06574412996487748</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>-1</v>
       </c>
       <c r="H27" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="I27">
-        <v>0.483746336288428</v>
+        <v>0.5034335691528795</v>
       </c>
       <c r="J27">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2404,257 +2260,257 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D28">
-        <v>0.06723719200182209</v>
+        <v>0.06557455923418935</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28">
         <v>-1</v>
       </c>
       <c r="H28" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="I28">
-        <v>0.7452465553326671</v>
+        <v>0.5320986052036109</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
       <c r="C29">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>0.06632049856139104</v>
+        <v>0.06481383073764013</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29">
         <v>-1</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="I29">
-        <v>0.6659967962523736</v>
+        <v>0.6342182856238288</v>
       </c>
       <c r="J29">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
       </c>
       <c r="C30">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D30">
-        <v>0.06630732959750391</v>
+        <v>0.06412404935698517</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>-1</v>
       </c>
       <c r="H30" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="I30">
-        <v>0.3376234187290771</v>
+        <v>0.4169932204835878</v>
       </c>
       <c r="J30">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
       </c>
       <c r="C31">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D31">
-        <v>0.06603242476711095</v>
+        <v>0.06388970476843582</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="I31">
-        <v>0.4822932743019847</v>
+        <v>0.3884194111003262</v>
       </c>
       <c r="J31">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
       </c>
       <c r="C32">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D32">
-        <v>0.06421523670718676</v>
+        <v>0.06184675722570818</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="I32">
-        <v>0.373897679642898</v>
+        <v>0.6222120338176451</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="C33">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>0.06313360733743369</v>
+        <v>0.06162298072897981</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33">
         <v>-1</v>
       </c>
       <c r="H33" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I33">
-        <v>0.4793837977852842</v>
+        <v>0.4782370577062108</v>
       </c>
       <c r="J33">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
         <v>41</v>
       </c>
       <c r="C34">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D34">
-        <v>0.06287240032058561</v>
+        <v>0.06133658579279363</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>-1</v>
       </c>
       <c r="H34" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="I34">
-        <v>0.6156393416580309</v>
+        <v>0.4533947172892379</v>
       </c>
       <c r="J34">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D35">
-        <v>0.06221053205471477</v>
+        <v>0.06121637220978748</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>-1</v>
       </c>
       <c r="H35" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="I35">
-        <v>0.4662992235504789</v>
+        <v>0.4785613927907364</v>
       </c>
       <c r="J35">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
@@ -2663,202 +2519,202 @@
         <v>50</v>
       </c>
       <c r="D36">
-        <v>0.06219996913346199</v>
+        <v>0.0607116511133324</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>-1</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="I36">
-        <v>0.5250934893013175</v>
+        <v>0.6453322820178872</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
       </c>
       <c r="C37">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D37">
-        <v>0.06181372563908331</v>
+        <v>0.05948712154636514</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="I37">
-        <v>0.6223619256060916</v>
+        <v>0.3899428108234946</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
       </c>
       <c r="C38">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="D38">
-        <v>0.06082760123136988</v>
+        <v>0.05928897593836693</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="I38">
-        <v>0.2461627866675042</v>
+        <v>0.43942819265363</v>
       </c>
       <c r="J38">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
       </c>
       <c r="C39">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>0.06063093976409179</v>
+        <v>0.05771488528373361</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>4</v>
       </c>
-      <c r="G39">
-        <v>-1</v>
-      </c>
       <c r="H39" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I39">
-        <v>0.5901935537773979</v>
+        <v>0.2710554716580867</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
       </c>
       <c r="C40">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D40">
-        <v>0.06060365879415917</v>
+        <v>0.05603553767471679</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="I40">
-        <v>0.4322268909622432</v>
+        <v>0.453584256411013</v>
       </c>
       <c r="J40">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41">
-        <v>0.06034188617956447</v>
+        <v>0.05594618575163397</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I41">
-        <v>0.4247124051500559</v>
+        <v>0.7215093870673447</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
         <v>49</v>
       </c>
       <c r="C42">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D42">
-        <v>0.05797818342884974</v>
+        <v>0.05549974257125718</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -2867,13 +2723,13 @@
         <v>-1</v>
       </c>
       <c r="H42" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="I42">
-        <v>0.5399223711286734</v>
+        <v>0.6106393202883127</v>
       </c>
       <c r="J42">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2884,188 +2740,188 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D43">
-        <v>0.0579510742938403</v>
+        <v>0.05538774028061932</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>-1</v>
       </c>
       <c r="H43" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="I43">
-        <v>0.4360985047915483</v>
+        <v>0.5876076031707099</v>
       </c>
       <c r="J43">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D44">
-        <v>0.05689118714744379</v>
+        <v>0.05514989448910191</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="I44">
-        <v>0.6584507046135406</v>
+        <v>0.7458045100521851</v>
       </c>
       <c r="J44">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
         <v>52</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>0.05684466255555871</v>
+        <v>0.05497198343194602</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G45">
         <v>-1</v>
       </c>
       <c r="H45" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="I45">
-        <v>0.6675306840378303</v>
+        <v>0.5182095613327165</v>
       </c>
       <c r="J45">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>0.05627844319166326</v>
+        <v>0.05411963232267455</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="I46">
-        <v>0.4196184766604575</v>
+        <v>0.6470771956146886</v>
       </c>
       <c r="J46">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
       </c>
       <c r="C47">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D47">
-        <v>0.05577323328504774</v>
+        <v>0.05384607936604745</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H47" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="I47">
-        <v>0.3660768461167453</v>
+        <v>0.5790450492482566</v>
       </c>
       <c r="J47">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
       </c>
       <c r="C48">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D48">
-        <v>0.05555253006158837</v>
+        <v>0.05375447057814764</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I48">
-        <v>0.4301462666374704</v>
+        <v>0.3243143527669535</v>
       </c>
       <c r="J48">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3076,109 +2932,109 @@
         <v>56</v>
       </c>
       <c r="C49">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>0.055368078652466</v>
+        <v>0.05310364378438613</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>-1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49">
+        <v>0.3749499502486877</v>
+      </c>
+      <c r="J49">
         <v>1</v>
-      </c>
-      <c r="G49">
-        <v>-1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>133</v>
-      </c>
-      <c r="I49">
-        <v>0.8250174466825726</v>
-      </c>
-      <c r="J49">
-        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
         <v>57</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D50">
-        <v>0.05456538020535665</v>
+        <v>0.05234331856742547</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="H50" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="I50">
-        <v>0.3643897337306418</v>
+        <v>0.645212330223907</v>
       </c>
       <c r="J50">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
         <v>58</v>
       </c>
       <c r="C51">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D51">
-        <v>0.05450706553217361</v>
+        <v>0.0518917251357927</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="I51">
-        <v>0.5600468795336877</v>
+        <v>0.5394521601670428</v>
       </c>
       <c r="J51">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
       </c>
       <c r="C52">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D52">
-        <v>0.05423430078733004</v>
+        <v>0.05159188675728567</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3187,82 +3043,82 @@
         <v>-1</v>
       </c>
       <c r="H52" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="I52">
-        <v>0.7925617321292705</v>
+        <v>0.5936511805977318</v>
       </c>
       <c r="J52">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D53">
-        <v>0.05369909202243294</v>
+        <v>0.0515747263993686</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H53" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="I53">
-        <v>0.4360650068248526</v>
+        <v>0.7184880995967646</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D54">
-        <v>0.05324798893040179</v>
+        <v>0.05101712737224908</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>-1</v>
       </c>
       <c r="H54" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="I54">
-        <v>0.4320438023072781</v>
+        <v>0.4899433961760478</v>
       </c>
       <c r="J54">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
@@ -3271,281 +3127,25 @@
         <v>32</v>
       </c>
       <c r="D55">
-        <v>0.05320779841574411</v>
+        <v>0.05021176381153823</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
         <v>4</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
       <c r="H55" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I55">
-        <v>0.6493496473871183</v>
+        <v>0.335608490469672</v>
       </c>
       <c r="J55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1">
-        <v>60</v>
-      </c>
-      <c r="B56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56">
-        <v>38</v>
-      </c>
-      <c r="D56">
-        <v>0.05316314500903734</v>
-      </c>
-      <c r="E56" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>-1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>133</v>
-      </c>
-      <c r="I56">
-        <v>0.7018116698799236</v>
-      </c>
-      <c r="J56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1">
-        <v>14</v>
-      </c>
-      <c r="B57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57">
-        <v>49</v>
-      </c>
-      <c r="D57">
-        <v>0.05309046697086564</v>
-      </c>
-      <c r="E57" t="s">
-        <v>126</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-      <c r="G57">
-        <v>-1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>135</v>
-      </c>
-      <c r="I57">
-        <v>0.5720125968813408</v>
-      </c>
-      <c r="J57">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1">
-        <v>26</v>
-      </c>
-      <c r="B58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58">
-        <v>71</v>
-      </c>
-      <c r="D58">
-        <v>0.05290312942205858</v>
-      </c>
-      <c r="E58" t="s">
-        <v>127</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>3</v>
-      </c>
-      <c r="H58" t="s">
-        <v>134</v>
-      </c>
-      <c r="I58">
-        <v>0.2298595452825591</v>
-      </c>
-      <c r="J58">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1">
-        <v>15</v>
-      </c>
-      <c r="B59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59">
-        <v>45</v>
-      </c>
-      <c r="D59">
-        <v>0.05084406851505247</v>
-      </c>
-      <c r="E59" t="s">
-        <v>128</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-      <c r="G59">
-        <v>-1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>135</v>
-      </c>
-      <c r="I59">
-        <v>0.6603809106117399</v>
-      </c>
-      <c r="J59">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1">
-        <v>35</v>
-      </c>
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60">
-        <v>40</v>
-      </c>
-      <c r="D60">
-        <v>0.05075582733153563</v>
-      </c>
-      <c r="E60" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>-1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>134</v>
-      </c>
-      <c r="I60">
-        <v>0.7234332276927838</v>
-      </c>
-      <c r="J60">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1">
-        <v>41</v>
-      </c>
-      <c r="B61" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61">
-        <v>36</v>
-      </c>
-      <c r="D61">
-        <v>0.05058458998742108</v>
-      </c>
-      <c r="E61" t="s">
-        <v>130</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-      <c r="G61">
-        <v>4</v>
-      </c>
-      <c r="H61" t="s">
-        <v>137</v>
-      </c>
-      <c r="I61">
-        <v>0.4202808961089733</v>
-      </c>
-      <c r="J61">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1">
-        <v>44</v>
-      </c>
-      <c r="B62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62">
-        <v>28</v>
-      </c>
-      <c r="D62">
-        <v>0.05056212552371311</v>
-      </c>
-      <c r="E62" t="s">
-        <v>131</v>
-      </c>
-      <c r="F62">
-        <v>3</v>
-      </c>
-      <c r="G62">
-        <v>-1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>135</v>
-      </c>
-      <c r="I62">
-        <v>0.672686264718412</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="1">
-        <v>28</v>
-      </c>
-      <c r="B63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63">
-        <v>35</v>
-      </c>
-      <c r="D63">
-        <v>0.05055057403174059</v>
-      </c>
-      <c r="E63" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63">
-        <v>4</v>
-      </c>
-      <c r="G63">
-        <v>-1</v>
-      </c>
-      <c r="H63" t="s">
-        <v>136</v>
-      </c>
-      <c r="I63">
-        <v>0.5279394830089911</v>
-      </c>
-      <c r="J63">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/gensim/clustered_smartphone_features_iPhone5s.xlsx
+++ b/gensim/clustered_smartphone_features_iPhone5s.xlsx
@@ -1015,19 +1015,19 @@
  -2.27606 -1.01215 -0.21332  1.93439]</t>
   </si>
   <si>
-    <t>[-1.068853497505188, -1.0766085386276245, 0.37683773040771484, 0.06032714992761612, -0.3660004138946533, 0.7520179748535156, -0.061955198645591736, -0.81477290391922, -0.7066503167152405, 0.5097805857658386, 1.4246951341629028, 1.272681713104248, -1.0113636255264282, 1.047940969467163, 0.1892441362142563, 1.3597633838653564, 0.13288062810897827, -0.342673122882843, -0.10438483208417892, 0.003353862091898918, 1.2268620729446411, -0.12320426106452942, 0.3673602342605591, -0.08580082654953003, -0.3238118588924408, 0.45413240790367126, 1.4043186902999878, -0.49986228346824646, 0.4002889096736908, -0.20832675695419312, -1.6763559579849243, -0.5415034890174866, -0.4750399887561798, -0.35063546895980835, 1.5957860946655273, -0.0656212568283081, -0.6773341298103333, 1.0518304109573364, 1.26251220703125, 1.4081926345825195, -0.3768928050994873, 0.09940619766712189, 0.8635618090629578, -0.28643497824668884, 0.10586387664079666, -0.26550331711769104, 0.4484453499317169, 0.7221032977104187, 1.482392430305481, -1.1697309017181396, -0.9667278528213501, -1.617537021636963, -0.9165350198745728, -0.9252097010612488, -0.7964255809783936, -0.11262267827987671, 1.3080332279205322, 0.3804725706577301, -0.3996240198612213, 1.511383295059204, 0.24006535112857819, -0.5190913081169128, -0.3348856270313263, -0.7957401275634766, -0.4564840793609619, -1.7016493082046509, -0.3236507475376129, -0.9550362825393677, 1.0985422134399414, 0.2972409725189209, 0.15228882431983948, 1.2760887145996094, -0.1429215371608734, 0.1812780648469925, -0.5040590763092041, -0.616858720779419, 0.24896307289600372, -0.496455579996109, 1.0992705821990967, -1.1173675060272217, -0.5715881586074829, -1.6226873397827148, 0.13843171298503876, -1.2249324321746826, -0.7355586290359497, -0.33281439542770386, 1.147450566291809, 0.004034231882542372, -0.2921929657459259, -0.5548760294914246, -0.1759953647851944, -0.35158470273017883, -0.4057347774505615, 0.001446794020012021, -0.9598528742790222, -0.28162649273872375, 1.626542091369629, 0.8431490659713745, -0.6805193424224854, -0.31311723589897156]</t>
-  </si>
-  <si>
-    <t>[0.379406601190567, -0.2880587577819824, 0.9782174229621887, 0.6058465838432312, -0.7477608919143677, -1.6244008541107178, -0.5043296813964844, -0.5817140340805054, -1.2706429958343506, 0.5563386082649231, 1.4003756046295166, 0.02852601185441017, 1.4861615896224976, 0.7426185011863708, -0.7059831619262695, -0.8636118769645691, -0.3452374041080475, 0.06812011450529099, -1.4262762069702148, -0.8604040145874023, 0.6306856274604797, -0.547844648361206, -0.41403523087501526, 1.245773196220398, -0.5657440423965454, 0.2825888991355896, 0.12172681838274002, 0.7338185906410217, -1.655035138130188, 0.08019835501909256, 0.5960369110107422, -1.803466558456421, -0.9975132346153259, -0.4521805942058563, 0.2560373842716217, -0.704948365688324, -0.9760174751281738, -0.3949730098247528, -0.35633543133735657, 1.42954421043396, -1.080726981163025, 0.6984133720397949, -0.3792645037174225, 1.1138607263565063, -1.037103533744812, 1.529967188835144, -0.47399404644966125, -0.02781694196164608, -0.47999605536460876, 0.650736391544342, -0.8542929887771606, -0.2768386900424957, -1.2647360563278198, -0.776334822177887, 0.8777391314506531, -0.4789825975894928, -0.6383940577507019, 2.2406036853790283, -0.8091629147529602, 1.3778440952301025, -0.6778084635734558, -2.279366970062256, -2.466217041015625, -0.8410922288894653, -1.5438441038131714, -0.010920524597167969, -1.2799646854400635, 0.6285192370414734, -0.2342148870229721, -0.5736130475997925, -0.43401744961738586, 0.3044278919696808, 0.3027607798576355, 1.6283081769943237, -0.8518255352973938, 0.44539570808410645, 0.8544334769248962, -0.4149898886680603, -0.22944499552249908, -0.11011017858982086, 2.3210692405700684, -0.3573322594165802, -0.7942004799842834, 0.05953007563948631, -0.5889373421669006, 1.9180153608322144, 1.0009602308273315, 0.25587770342826843, -0.42164501547813416, -0.27784085273742676, -0.4695608913898468, -1.1110435724258423, 0.09193436801433563, 1.1310787200927734, 0.518416166305542, 0.7972860336303711, 0.5011512041091919, -0.7176303863525391, 0.7904677391052246, -0.6858820915222168]</t>
-  </si>
-  <si>
-    <t>[0.9122081398963928, -0.4305449426174164, 0.20560599863529205, 1.3383313417434692, -1.013768196105957, 0.7836482524871826, 0.9115901589393616, -1.0963729619979858, -1.369317889213562, 0.8591480255126953, -0.1480804979801178, -0.19957421720027924, -0.01924513652920723, 0.8092067241668701, -0.13382269442081451, -0.5564461946487427, 0.9963405728340149, -0.5001417994499207, 0.3308669328689575, -0.7061587572097778, -0.5356296896934509, -0.31191885471343994, -0.7424736618995667, 0.23114360868930817, -0.17474308609962463, -1.8432044982910156, -0.14126954972743988, 0.6237251162528992, -0.8738601207733154, -0.48814499378204346, -2.0498998165130615, -0.6401676535606384, 0.033511947840452194, -0.10137882828712463, -0.0816119834780693, -0.2565973997116089, -1.9297598600387573, 0.9525319933891296, 1.5440688133239746, 0.13335038721561432, -0.29543039202690125, 0.019089488312602043, 0.3341788351535797, 1.4576820135116577, -0.052474912256002426, -0.1805925965309143, -0.22148481011390686, -0.2374751716852188, -0.6707826256752014, 0.2178967446088791, 0.8020196557044983, -0.46851226687431335, -0.07338264584541321, -0.22569289803504944, -1.3463507890701294, -0.332143098115921, 0.6376366019248962, 0.17626425623893738, -0.7079731225967407, 0.7903072834014893, 1.0615373849868774, -1.2419214248657227, 0.8914023041725159, -0.4113263785839081, -0.5103415250778198, -0.7704532742500305, -0.5238806009292603, -0.36208561062812805, -0.2229267954826355, 0.8403831720352173, -0.645548403263092, -0.4695100784301758, 1.6316367387771606, -0.3589354455471039, 0.5277087688446045, 0.023968512192368507, -0.44403839111328125, -0.05728357657790184, 0.7676477432250977, -1.2809242010116577, -0.47065457701683044, -0.4802964925765991, 0.1534719467163086, -0.6530747413635254, 0.01665809005498886, -0.2747836709022522, -0.29550066590309143, 0.3404688835144043, -0.5362575650215149, 0.05968496575951576, 0.25926151871681213, -1.0568362474441528, 0.6306787133216858, -0.3766893148422241, -0.7867240905761719, 0.35503068566322327, 0.31351611018180847, 0.004788788966834545, -0.08745545893907547, -0.3875550925731659]</t>
-  </si>
-  <si>
-    <t>[-0.8070507049560547, -0.5204451680183411, 0.4205999970436096, -1.6039025783538818, -0.022004911676049232, 0.5755600333213806, 0.9678052067756653, -1.7318569421768188, 4.079970836639404, -1.6911704540252686, -0.12010131776332855, -1.4148261547088623, 0.5065413117408752, -0.18758590519428253, -0.8533323407173157, 1.1624611616134644, -1.01606285572052, -2.7933967113494873, 0.9001666307449341, 1.7494354248046875, -0.5781527757644653, 1.8798314332962036, 0.9739593863487244, -0.812640368938446, -1.5988229513168335, 0.43096449971199036, -1.3727922439575195, 0.3461025059223175, 1.3882572650909424, 1.4180126190185547, 0.7881617546081543, 1.1582998037338257, -0.12279144674539566, -2.5470194816589355, -0.9524906277656555, -1.613627552986145, 1.4829280376434326, -0.9417240023612976, -2.0352978706359863, 0.44533205032348633, -1.9937702417373657, 2.428382158279419, -1.5066907405853271, 0.8676561713218689, 0.8959835171699524, -2.4532601833343506, -1.6329389810562134, 0.1928974837064743, -0.04231686145067215, -1.551584243774414, 2.071239948272705, -1.758712887763977, 1.9594151973724365, -1.8586503267288208, 0.008054201491177082, 0.5280725955963135, -0.528098464012146, 0.4483555257320404, 0.3506723940372467, -0.3072626292705536, 2.0488078594207764, 1.972503662109375, -0.9612120389938354, 0.8784039616584778, -0.686609148979187, 1.694766879081726, -0.5152696371078491, 1.6966382265090942, 2.387024164199829, 0.5292143821716309, -0.35104936361312866, -1.346198320388794, 2.0403528213500977, 0.7511210441589355, 0.42284685373306274, -1.7582292556762695, 0.10732237994670868, 1.0449703931808472, 0.9949732422828674, 2.5825517177581787, 0.8306248784065247, 1.1242622137069702, -0.05268073081970215, 1.2372785806655884, 0.18198302388191223, -2.6360182762145996, 0.0984174832701683, 0.6811366081237793, -0.4299570620059967, 0.4452957808971405, 1.040934443473816, 0.5481723546981812, -2.0319631099700928, 1.3611310720443726, 1.6625909805297852, -0.7546022534370422, -0.6054282784461975, 0.20324386656284332, -0.2661272883415222, -0.3458799719810486]</t>
-  </si>
-  <si>
-    <t>[0.05820653587579727, -1.0571924448013306, -0.08608873933553696, 1.2843700647354126, -0.6651155948638916, 0.6225327849388123, 0.3055892884731293, -0.41552311182022095, 0.9850858449935913, 0.264119952917099, 1.4022185802459717, -0.7259636521339417, -0.4835898280143738, 0.534331202507019, -0.6109013557434082, 0.1302320808172226, -0.14614370465278625, -3.497410535812378, 1.8837169408798218, 0.20986643433570862, -1.0843437910079956, 0.7741007804870605, 0.5112212896347046, -0.9715173840522766, 1.0612399578094482, -1.4704608917236328, -0.658659815788269, 0.9301576614379883, 1.5894677639007568, 0.44442638754844666, -0.7040923237800598, 1.0723429918289185, -0.664763331413269, -2.128624439239502, 0.9865446090698242, -1.297666311264038, -0.7315016984939575, 1.6619224548339844, -1.9881442785263062, 0.39443355798721313, -0.11337409168481827, 2.4431490898132324, 0.13398626446723938, 0.2948434054851532, 1.3772422075271606, 1.245914340019226, -1.8898309469223022, -1.771288275718689, -1.0344558954238892, 0.46324166655540466, 1.4937411546707153, -0.5512032508850098, -0.3958878517150879, -0.04747185856103897, -0.41314998269081116, 1.2799619436264038, -0.08870501816272736, 0.1522587686777115, -0.8532729148864746, 0.741744875907898, 0.3317360281944275, -0.462939590215683, 0.9257588386535645, 2.4812369346618652, -0.4184351861476898, 0.7194607853889465, -0.8253213167190552, 0.5638445019721985, -0.40036678314208984, -0.4667312502861023, -0.5703290104866028, -0.6326584815979004, 1.5902931690216064, 0.9101964831352234, -0.25129640102386475, -0.9954982995986938, 1.193395972251892, -2.642768144607544, -0.39133480191230774, 0.2516513466835022, -0.31024065613746643, -0.30327749252319336, 0.5783730745315552, 1.415913701057434, -1.0090423822402954, -0.7386086583137512, -0.5744884014129639, 0.3838663697242737, 0.32633885741233826, -0.292106956243515, 1.419404149055481, 0.5140400528907776, -0.6236616969108582, 0.20826084911823273, 1.3339202404022217, 0.08336769789457321, 0.39310383796691895, 0.02971668168902397, -0.17672967910766602, -0.9768714904785156]</t>
+    <t>[-0.9559732675552368, -0.1240580677986145, 0.9650601744651794, 0.00483305100351572, 0.1379590779542923, -0.8314619660377502, -0.4445830285549164, 0.16559983789920807, -9.425197640666738e-05, 1.1757729053497314, 0.9931932091712952, 0.9841391444206238, 0.3377503752708435, 1.293352723121643, -0.13009221851825714, 1.464560627937317, 0.6743893623352051, -0.7206984162330627, -0.8774017691612244, 0.24743951857089996, 0.5326620936393738, 0.37120407819747925, 0.11496791988611221, 1.2830253839492798, -1.3906577825546265, 1.6620252132415771, 1.4649804830551147, -0.41944894194602966, 0.2207026481628418, -1.0453245639801025, -3.144010543823242, -0.9463597536087036, -1.04432213306427, -0.4841839373111725, 2.267958879470825, -0.8419411778450012, -1.1949243545532227, 0.08041036128997803, 0.5949907302856445, 1.635274887084961, -2.3266093730926514, -0.6520242691040039, 0.997459352016449, 0.42514440417289734, -0.39444464445114136, 0.7632684707641602, 0.3905356526374817, -0.14204439520835876, 0.9178746342658997, -1.2089203596115112, -2.0768280029296875, -1.7183196544647217, -1.4241024255752563, -0.3625974655151367, -0.9665799140930176, -0.11862780153751373, 1.1660856008529663, 1.0143994092941284, -0.5778317451477051, 2.102062940597534, 0.5115928053855896, 0.27198272943496704, 0.2539832293987274, -0.4085288643836975, -2.251005172729492, -2.256159543991089, -0.8633955121040344, 0.07371220737695694, 1.3012057542800903, 0.16545595228672028, -0.4700547158718109, 1.0790270566940308, 1.210143804550171, 0.04638997092843056, 0.6501202583312988, 0.3637852668762207, -1.1053966283798218, 0.5868533253669739, 1.369820237159729, -0.42400190234184265, 0.15480639040470123, -1.4989769458770752, 0.36304742097854614, -1.0601701736450195, -1.0224168300628662, 0.10598582774400711, -0.055868301540613174, 0.8784321546554565, -0.19202886521816254, -1.4263801574707031, -0.12867870926856995, 1.1678251028060913, -0.18176676332950592, -0.5028745532035828, -0.6371964812278748, 0.15188893675804138, 0.790951669216156, 0.18741914629936218, 0.6507082581520081, 0.17564265429973602]</t>
+  </si>
+  <si>
+    <t>[-0.30255264043807983, 0.2699708938598633, 0.5462180376052856, 0.0767865777015686, -1.0474809408187866, 0.355062335729599, -0.6150788068771362, 0.45966407656669617, -1.5441001653671265, -0.4528765082359314, -0.4867592751979828, -0.21269097924232483, 1.2165998220443726, -0.2846178710460663, -0.2842411398887634, -1.3847105503082275, -1.3443243503570557, 0.3194669187068939, -0.6142786145210266, -0.9506664276123047, 0.32131919264793396, -1.326749563217163, -0.5805501341819763, 0.5065450072288513, -0.3225174844264984, -1.5810527801513672, 0.3549868166446686, 0.029590563848614693, -1.0331956148147583, -0.03186901658773422, -0.4642675220966339, -1.851378083229065, -1.0200045108795166, -0.5800765752792358, -0.4386945366859436, 0.0032390845008194447, -1.0788360834121704, 0.3052833378314972, 0.9387574195861816, 1.0387400388717651, -1.7715402841567993, -0.012690111994743347, -0.2228952944278717, 0.43030840158462524, -0.6364654302597046, -0.39607957005500793, 0.2157963216304779, 0.21598471701145172, -1.0615824460983276, 0.32739585638046265, 0.49476033449172974, -1.232418417930603, -0.36982038617134094, -0.35037821531295776, -0.6430155038833618, 0.12305017560720444, -0.48139408230781555, 1.4277431964874268, -0.8137966990470886, 1.0535064935684204, 0.6557530164718628, -1.1032682657241821, -0.3096492886543274, 0.4121137261390686, 0.5564018487930298, 0.1294894516468048, -0.32834842801094055, 0.5583366751670837, 0.276254266500473, 0.02583565004169941, 0.4096437990665436, 0.09644479304552078, 0.31617504358291626, -0.29224881529808044, -1.224853515625, 0.8336032032966614, 1.78984534740448, 1.3897621631622314, 0.016100969165563583, -1.502339243888855, 0.7539239525794983, -1.3343948125839233, -0.0332530215382576, -1.5159461498260498, -0.4075241684913635, 0.09160641580820084, 0.6645902395248413, -0.07635010778903961, -1.4450372457504272, -0.06001303344964981, -1.5299874544143677, -1.0305118560791016, 0.3027206063270569, 0.8429660797119141, 0.4668442904949188, 1.0956637859344482, -0.7965025305747986, -1.0715737342834473, 0.41594013571739197, -0.7537590265274048]</t>
+  </si>
+  <si>
+    <t>[-0.34738829731941223, -1.4142183065414429, 0.5398548245429993, 0.6515926122665405, -0.08737680315971375, 1.0844589471817017, 0.8371204733848572, -1.264730453491211, -0.4212168753147125, 0.3549650013446808, 1.2008037567138672, 0.30473974347114563, -1.0004076957702637, 1.0591565370559692, 0.29785966873168945, 0.8280835151672363, 0.13438422977924347, -0.6329677104949951, 1.2226417064666748, -0.1904016137123108, 0.5924059748649597, 0.029858648777008057, -0.5433523654937744, -0.28483644127845764, -0.2525867223739624, -1.8446146249771118, 0.15050546824932098, 0.504975438117981, -0.15535323321819305, -0.25233739614486694, -1.011448860168457, 0.04700733721256256, -0.6154150366783142, -0.3175969123840332, 1.004169225692749, 0.4105670154094696, -0.8122328519821167, 1.2108755111694336, 0.7107805609703064, 1.0332059860229492, 0.34180036187171936, 0.6060593724250793, 0.24201607704162598, 0.16709616780281067, 0.030435165390372276, -0.8708007335662842, -0.32785770297050476, -0.24387581646442413, 0.519956648349762, 0.18669870495796204, 0.17542733252048492, -0.6068969368934631, 0.044962793588638306, -0.47652924060821533, -0.25056982040405273, -0.16355183720588684, 1.174756646156311, 0.7545878887176514, -1.9593380689620972, 1.2196091413497925, 0.3266220688819885, -2.124378204345703, 0.3743983507156372, -0.6950483322143555, -0.22493740916252136, -1.3214294910430908, -0.7668015956878662, -0.14356587827205658, 0.26241785287857056, 0.803827702999115, -0.37044084072113037, 0.35586512088775635, -0.2897148132324219, 0.28996479511260986, -0.09998904168605804, -1.0293620824813843, 0.5899339318275452, -0.6632041931152344, 1.2588812112808228, -0.61085444688797, 0.4776993989944458, -0.43208420276641846, 0.5581206679344177, -0.2905062735080719, -1.0358877182006836, -0.884084939956665, 0.8126866817474365, 0.08160629868507385, 0.4072761833667755, 0.3021082282066345, 0.008561869151890278, -0.6777507066726685, -0.15301823616027832, 0.725944459438324, 0.08823735266923904, -0.2608679533004761, 1.2546354532241821, 0.49290406703948975, -0.3972724378108978, -0.889327347278595]</t>
+  </si>
+  <si>
+    <t>[-0.6901327967643738, -0.7213541269302368, -0.4016226828098297, 0.2904394268989563, -0.2043614387512207, 0.59361732006073, 0.6504033207893372, -1.374735713005066, 3.6386706829071045, -1.1158009767532349, 0.05972891300916672, -0.9201700091362, -0.03505004569888115, -0.43750208616256714, -1.7936080694198608, 1.2826229333877563, -0.21276751160621643, -3.6497673988342285, 1.339798927307129, 1.1494667530059814, -0.5748981237411499, 0.9869638681411743, 0.9604641199111938, -1.5887407064437866, -0.4628593921661377, -0.579632580280304, -2.072481632232666, 1.0540499687194824, 2.200941562652588, 1.0436923503875732, 1.0132505893707275, 1.876460075378418, -0.2532040774822235, -3.2851555347442627, -0.4282473027706146, -2.2144429683685303, 0.7546457052230835, 0.2516811490058899, -2.30472993850708, -0.3354026675224304, -1.7565323114395142, 3.6000781059265137, -1.0445048809051514, 0.44389304518699646, 1.4228782653808594, -1.1609113216400146, -1.679595708847046, -0.7303511500358582, -1.0982987880706787, -1.0639170408248901, 2.9731597900390625, -1.4881277084350586, 1.491175651550293, -1.6479942798614502, -0.10814003646373749, 0.525153398513794, -0.9633464813232422, -0.049693215638399124, 0.523924708366394, -0.597274661064148, 1.6366230249404907, 1.740128517150879, -0.4191061556339264, 2.3014543056488037, -0.4511352479457855, 2.2600784301757812, -0.7234571576118469, 0.9969556927680969, 1.145919919013977, 0.5550650358200073, -0.2980411946773529, -1.2938495874404907, 2.4287707805633545, 1.3104320764541626, 0.47338899970054626, -1.5803802013397217, 0.6663650274276733, -0.8346855044364929, -0.7354625463485718, 2.1472246646881104, -0.4348357617855072, 1.0044909715652466, -1.246268630027771, 1.3924219608306885, -0.0622258186340332, -2.401109218597412, -0.7893585562705994, 0.9828667640686035, -0.5374013781547546, 0.32242387533187866, 0.926617443561554, 0.1796187460422516, -1.6451410055160522, 1.4013397693634033, 1.1347053050994873, -0.16194936633110046, -0.7490517497062683, 0.6746891140937805, -0.5031949281692505, -0.5562748908996582]</t>
+  </si>
+  <si>
+    <t>[2.1104750633239746, -0.8206415176391602, 0.12950442731380463, 1.1049418449401855, -2.6683788299560547, -0.8102221488952637, -0.05425800010561943, -1.8590118885040283, -2.721344470977783, 0.8500521779060364, 2.275156021118164, -0.5223792195320129, 0.8070025444030762, 1.002445936203003, -0.40338191390037537, -2.5820722579956055, -0.09780170023441315, -0.7527774572372437, -1.3664205074310303, -1.1584489345550537, -0.5005289912223816, -0.024534616619348526, 0.6775388121604919, 0.3261908292770386, 1.5719935894012451, 0.7016223669052124, 0.3771117627620697, 0.6036256551742554, -1.6724605560302734, 1.5569126605987549, 1.1725670099258423, -1.7982686758041382, 0.6094715595245361, -0.2447417974472046, -0.9843045473098755, -1.14054274559021, -1.276077389717102, 0.533340334892273, -0.42271479964256287, 0.7370532751083374, 1.6508963108062744, 1.474094033241272, -0.2167399376630783, 1.9321768283843994, 0.1202426329255104, 3.1148531436920166, -1.5212461948394775, 0.5893181562423706, -0.36785784363746643, 0.7705782055854797, 0.17876116931438446, 0.4183395504951477, -1.8997535705566406, -0.9981533288955688, 0.35464921593666077, 0.2439131736755371, -0.9480732083320618, 0.7668977975845337, 1.2688639163970947, 0.6468357443809509, -1.1047970056533813, -2.127713203430176, -3.3309803009033203, -0.6930288672447205, -0.7281230688095093, 1.361074686050415, -0.5372685194015503, -0.7019159197807312, -1.1472082138061523, -1.8098777532577515, -0.4742818772792816, -0.34472420811653137, 1.1063874959945679, 1.9560821056365967, -1.9163720607757568, -0.15093401074409485, 1.0709362030029297, -3.178579330444336, -0.8838927149772644, -0.9745672345161438, 0.8632456064224243, -0.6216822862625122, -0.49748072028160095, 1.121704339981079, 0.7401213049888611, 3.2342522144317627, 1.5404326915740967, -0.7620479464530945, -0.6756895780563354, -0.1093074232339859, 1.6734209060668945, -2.4240827560424805, 0.12886877357959747, -0.2747107446193695, -0.08158083260059357, 0.33054274320602417, 1.720977783203125, -0.5290409326553345, -0.483006089925766, -0.7004948854446411]</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1437,7 @@
         <v>63</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>117</v>
       </c>
       <c r="I2">
-        <v>0.4461250497613595</v>
+        <v>0.4329673090994548</v>
       </c>
       <c r="J2">
         <v>6</v>
@@ -1469,7 +1469,7 @@
         <v>64</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -1478,7 +1478,7 @@
         <v>118</v>
       </c>
       <c r="I3">
-        <v>0.6786157999758247</v>
+        <v>0.4495015701032128</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -1501,7 +1501,7 @@
         <v>65</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -1510,7 +1510,7 @@
         <v>118</v>
       </c>
       <c r="I4">
-        <v>0.5043918654031537</v>
+        <v>0.342995099851095</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1533,7 +1533,7 @@
         <v>66</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -1542,7 +1542,7 @@
         <v>119</v>
       </c>
       <c r="I5">
-        <v>0.6987131833603082</v>
+        <v>0.6945933323227423</v>
       </c>
       <c r="J5">
         <v>24</v>
@@ -1571,10 +1571,10 @@
         <v>-1</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I6">
-        <v>0.5917927967568852</v>
+        <v>0.5540644873259916</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>68</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>-1</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I7">
-        <v>0.6979192606082897</v>
+        <v>0.7351970371505143</v>
       </c>
       <c r="J7">
         <v>22</v>
@@ -1629,7 +1629,7 @@
         <v>69</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -1638,7 +1638,7 @@
         <v>120</v>
       </c>
       <c r="I8">
-        <v>0.3228102862241429</v>
+        <v>0.3390849973189733</v>
       </c>
       <c r="J8">
         <v>16</v>
@@ -1661,7 +1661,7 @@
         <v>70</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -1670,7 +1670,7 @@
         <v>118</v>
       </c>
       <c r="I9">
-        <v>0.8202786165096911</v>
+        <v>0.7270408418131202</v>
       </c>
       <c r="J9">
         <v>25</v>
@@ -1693,7 +1693,7 @@
         <v>71</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1702,7 +1702,7 @@
         <v>117</v>
       </c>
       <c r="I10">
-        <v>0.53497701284639</v>
+        <v>0.48662272666719</v>
       </c>
       <c r="J10">
         <v>7</v>
@@ -1725,7 +1725,7 @@
         <v>72</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -1734,7 +1734,7 @@
         <v>120</v>
       </c>
       <c r="I11">
-        <v>0.4310883613818657</v>
+        <v>0.4370423116716925</v>
       </c>
       <c r="J11">
         <v>17</v>
@@ -1757,7 +1757,7 @@
         <v>73</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1766,7 +1766,7 @@
         <v>117</v>
       </c>
       <c r="I12">
-        <v>0.4211684217216122</v>
+        <v>0.3922652915208988</v>
       </c>
       <c r="J12">
         <v>7</v>
@@ -1789,7 +1789,7 @@
         <v>74</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -1798,7 +1798,7 @@
         <v>117</v>
       </c>
       <c r="I13">
-        <v>0.6815118991941562</v>
+        <v>0.4898031033817776</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -1821,16 +1821,16 @@
         <v>75</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>-1</v>
       </c>
       <c r="H14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I14">
-        <v>0.4799506533825559</v>
+        <v>0.3820195160610458</v>
       </c>
       <c r="J14">
         <v>15</v>
@@ -1853,16 +1853,16 @@
         <v>76</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I15">
-        <v>0.6920988904315677</v>
+        <v>0.474889588816948</v>
       </c>
       <c r="J15">
         <v>4</v>
@@ -1885,7 +1885,7 @@
         <v>77</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -1894,7 +1894,7 @@
         <v>120</v>
       </c>
       <c r="I16">
-        <v>0.3931193080575335</v>
+        <v>0.4622373614988043</v>
       </c>
       <c r="J16">
         <v>18</v>
@@ -1923,10 +1923,10 @@
         <v>-1</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I17">
-        <v>0.6427198295040257</v>
+        <v>0.5061254811020089</v>
       </c>
       <c r="J17">
         <v>16</v>
@@ -1949,7 +1949,7 @@
         <v>79</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>-1</v>
@@ -1958,7 +1958,7 @@
         <v>117</v>
       </c>
       <c r="I18">
-        <v>0.845642536447152</v>
+        <v>0.8355302582985578</v>
       </c>
       <c r="J18">
         <v>23</v>
@@ -1981,7 +1981,7 @@
         <v>80</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>117</v>
       </c>
       <c r="I19">
-        <v>0.3302298224840415</v>
+        <v>0.3343495624508213</v>
       </c>
       <c r="J19">
         <v>6</v>
@@ -2013,16 +2013,16 @@
         <v>81</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>-1</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I20">
-        <v>0.5977849874729602</v>
+        <v>0.4495550495473201</v>
       </c>
       <c r="J20">
         <v>11</v>
@@ -2045,16 +2045,16 @@
         <v>82</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>-1</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I21">
-        <v>0.6173629000976795</v>
+        <v>0.4394166723306357</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2077,7 +2077,7 @@
         <v>83</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>117</v>
       </c>
       <c r="I22">
-        <v>0.3646128859840794</v>
+        <v>0.4432441204014338</v>
       </c>
       <c r="J22">
         <v>6</v>
@@ -2109,7 +2109,7 @@
         <v>84</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -2118,7 +2118,7 @@
         <v>120</v>
       </c>
       <c r="I23">
-        <v>0.2253732698890594</v>
+        <v>0.3189528526606672</v>
       </c>
       <c r="J23">
         <v>16</v>
@@ -2141,7 +2141,7 @@
         <v>85</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -2150,7 +2150,7 @@
         <v>117</v>
       </c>
       <c r="I24">
-        <v>0.4572307459961181</v>
+        <v>0.564922893608125</v>
       </c>
       <c r="J24">
         <v>14</v>
@@ -2179,10 +2179,10 @@
         <v>-1</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I25">
-        <v>0.6178148512406954</v>
+        <v>0.5428252862636713</v>
       </c>
       <c r="J25">
         <v>10</v>
@@ -2205,16 +2205,16 @@
         <v>87</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>-1</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I26">
-        <v>0.7753407465813971</v>
+        <v>0.6964987486302773</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -2237,7 +2237,7 @@
         <v>88</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -2246,7 +2246,7 @@
         <v>119</v>
       </c>
       <c r="I27">
-        <v>0.5034335691528795</v>
+        <v>0.6478675363283322</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2269,16 +2269,16 @@
         <v>89</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <v>-1</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I28">
-        <v>0.5320986052036109</v>
+        <v>0.324489205131971</v>
       </c>
       <c r="J28">
         <v>8</v>
@@ -2301,16 +2301,16 @@
         <v>90</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29">
         <v>-1</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I29">
-        <v>0.6342182856238288</v>
+        <v>0.496078308743754</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -2333,7 +2333,7 @@
         <v>91</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>-1</v>
@@ -2342,7 +2342,7 @@
         <v>120</v>
       </c>
       <c r="I30">
-        <v>0.4169932204835878</v>
+        <v>0.4205054073911211</v>
       </c>
       <c r="J30">
         <v>16</v>
@@ -2365,16 +2365,16 @@
         <v>92</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I31">
-        <v>0.3884194111003262</v>
+        <v>0.1020130271578371</v>
       </c>
       <c r="J31">
         <v>15</v>
@@ -2397,16 +2397,16 @@
         <v>93</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I32">
-        <v>0.6222120338176451</v>
+        <v>0.4516437835429657</v>
       </c>
       <c r="J32">
         <v>4</v>
@@ -2429,16 +2429,16 @@
         <v>94</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <v>-1</v>
       </c>
       <c r="H33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I33">
-        <v>0.4782370577062108</v>
+        <v>0.5348831515419883</v>
       </c>
       <c r="J33">
         <v>5</v>
@@ -2461,7 +2461,7 @@
         <v>95</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34">
         <v>-1</v>
@@ -2470,7 +2470,7 @@
         <v>121</v>
       </c>
       <c r="I34">
-        <v>0.4533947172892379</v>
+        <v>0.5049270126701469</v>
       </c>
       <c r="J34">
         <v>15</v>
@@ -2493,16 +2493,16 @@
         <v>96</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <v>-1</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I35">
-        <v>0.4785613927907364</v>
+        <v>0.4919604508994679</v>
       </c>
       <c r="J35">
         <v>9</v>
@@ -2525,7 +2525,7 @@
         <v>97</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <v>-1</v>
@@ -2534,7 +2534,7 @@
         <v>121</v>
       </c>
       <c r="I36">
-        <v>0.6453322820178872</v>
+        <v>0.4939004924380251</v>
       </c>
       <c r="J36">
         <v>15</v>
@@ -2557,16 +2557,16 @@
         <v>98</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G37">
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I37">
-        <v>0.3899428108234946</v>
+        <v>0.39254637756296</v>
       </c>
       <c r="J37">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         <v>99</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G38">
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I38">
-        <v>0.43942819265363</v>
+        <v>0.2597583469749888</v>
       </c>
       <c r="J38">
         <v>15</v>
@@ -2627,10 +2627,10 @@
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I39">
-        <v>0.2710554716580867</v>
+        <v>0.3474220613200052</v>
       </c>
       <c r="J39">
         <v>16</v>
@@ -2653,16 +2653,16 @@
         <v>101</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G40">
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I40">
-        <v>0.453584256411013</v>
+        <v>0.1710895370755784</v>
       </c>
       <c r="J40">
         <v>15</v>
@@ -2691,10 +2691,10 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I41">
-        <v>0.7215093870673447</v>
+        <v>0.4197364793421221</v>
       </c>
       <c r="J41">
         <v>15</v>
@@ -2723,10 +2723,10 @@
         <v>-1</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I42">
-        <v>0.6106393202883127</v>
+        <v>0.5901635738860148</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -2749,7 +2749,7 @@
         <v>104</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <v>-1</v>
@@ -2758,7 +2758,7 @@
         <v>119</v>
       </c>
       <c r="I43">
-        <v>0.5876076031707099</v>
+        <v>0.7471701996735896</v>
       </c>
       <c r="J43">
         <v>19</v>
@@ -2781,16 +2781,16 @@
         <v>105</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I44">
-        <v>0.7458045100521851</v>
+        <v>0.7656335087027166</v>
       </c>
       <c r="J44">
         <v>7</v>
@@ -2813,16 +2813,16 @@
         <v>106</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G45">
         <v>-1</v>
       </c>
       <c r="H45" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I45">
-        <v>0.5182095613327165</v>
+        <v>0.5783870933271097</v>
       </c>
       <c r="J45">
         <v>5</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I46">
-        <v>0.6470771956146886</v>
+        <v>0.5581494069044131</v>
       </c>
       <c r="J46">
         <v>6</v>
@@ -2877,7 +2877,7 @@
         <v>108</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47">
         <v>-1</v>
@@ -2886,7 +2886,7 @@
         <v>119</v>
       </c>
       <c r="I47">
-        <v>0.5790450492482566</v>
+        <v>0.6748803867566154</v>
       </c>
       <c r="J47">
         <v>26</v>
@@ -2915,10 +2915,10 @@
         <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I48">
-        <v>0.3243143527669535</v>
+        <v>0.3859661633108352</v>
       </c>
       <c r="J48">
         <v>16</v>
@@ -2941,16 +2941,16 @@
         <v>110</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49">
         <v>-1</v>
       </c>
       <c r="H49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I49">
-        <v>0.3749499502486877</v>
+        <v>0.5713767153460914</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2973,16 +2973,16 @@
         <v>111</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50">
         <v>-1</v>
       </c>
       <c r="H50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I50">
-        <v>0.645212330223907</v>
+        <v>0.6083989655438158</v>
       </c>
       <c r="J50">
         <v>13</v>
@@ -3005,16 +3005,16 @@
         <v>112</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I51">
-        <v>0.5394521601670428</v>
+        <v>0.5083553438972657</v>
       </c>
       <c r="J51">
         <v>4</v>
@@ -3037,16 +3037,16 @@
         <v>113</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <v>-1</v>
       </c>
       <c r="H52" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I52">
-        <v>0.5936511805977318</v>
+        <v>0.6981604286660459</v>
       </c>
       <c r="J52">
         <v>21</v>
@@ -3069,16 +3069,16 @@
         <v>114</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>-1</v>
       </c>
       <c r="H53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I53">
-        <v>0.7184880995967646</v>
+        <v>0.5517235619737417</v>
       </c>
       <c r="J53">
         <v>20</v>
@@ -3101,7 +3101,7 @@
         <v>115</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <v>-1</v>
@@ -3110,7 +3110,7 @@
         <v>119</v>
       </c>
       <c r="I54">
-        <v>0.4899433961760478</v>
+        <v>0.6200499323930078</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -3139,10 +3139,10 @@
         <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I55">
-        <v>0.335608490469672</v>
+        <v>0.325089131932264</v>
       </c>
       <c r="J55">
         <v>16</v>
